--- a/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK307"/>
+  <dimension ref="A1:BK308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.75</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT27" t="n">
         <v>0.8100000000000001</v>
@@ -7399,7 +7399,7 @@
         <v>1.78</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU34" t="n">
         <v>1</v>
@@ -7802,7 +7802,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT36" t="n">
         <v>0.6</v>
@@ -8414,7 +8414,7 @@
         <v>2.17</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU39" t="n">
         <v>2.07</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT48" t="n">
         <v>0.5</v>
@@ -11662,7 +11662,7 @@
         <v>2.05</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU55" t="n">
         <v>2.07</v>
@@ -14098,7 +14098,7 @@
         <v>1.19</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU67" t="n">
         <v>1.17</v>
@@ -15110,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT72" t="n">
         <v>1</v>
@@ -17346,7 +17346,7 @@
         <v>1.24</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU83" t="n">
         <v>1.52</v>
@@ -20388,7 +20388,7 @@
         <v>1.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT98" t="n">
         <v>0.76</v>
@@ -21812,7 +21812,7 @@
         <v>1.13</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU105" t="n">
         <v>1.69</v>
@@ -24448,7 +24448,7 @@
         <v>1.67</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT118" t="n">
         <v>1.45</v>
@@ -25869,7 +25869,7 @@
         <v>0.71</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT125" t="n">
         <v>1.18</v>
@@ -26278,7 +26278,7 @@
         <v>1.53</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU127" t="n">
         <v>1.81</v>
@@ -31959,7 +31959,7 @@
         <v>1.12</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="AT155" t="n">
         <v>1</v>
@@ -32568,7 +32568,7 @@
         <v>1.29</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AT158" t="n">
         <v>1.55</v>
@@ -32771,7 +32771,7 @@
         <v>2.24</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AT159" t="n">
         <v>2.08</v>
@@ -33380,7 +33380,7 @@
         <v>1.88</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="AT162" t="n">
         <v>1.89</v>
@@ -33789,7 +33789,7 @@
         <v>2.08</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AU164" t="n">
         <v>2.1</v>
@@ -34195,7 +34195,7 @@
         <v>1.89</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="AU166" t="n">
         <v>2.13</v>
@@ -36834,7 +36834,7 @@
         <v>2.05</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU179" t="n">
         <v>2.06</v>
@@ -38455,7 +38455,7 @@
         <v>1.64</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT187" t="n">
         <v>1.74</v>
@@ -39473,7 +39473,7 @@
         <v>2.17</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU192" t="n">
         <v>2.17</v>
@@ -41297,7 +41297,7 @@
         <v>1.3</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT201" t="n">
         <v>0.88</v>
@@ -42518,7 +42518,7 @@
         <v>1.38</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU207" t="n">
         <v>1.18</v>
@@ -45560,7 +45560,7 @@
         <v>0.5</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT222" t="n">
         <v>0.53</v>
@@ -46172,7 +46172,7 @@
         <v>1.75</v>
       </c>
       <c r="AT225" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU225" t="n">
         <v>1.73</v>
@@ -46372,7 +46372,7 @@
         <v>0.92</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT226" t="n">
         <v>0.76</v>
@@ -50432,7 +50432,7 @@
         <v>1.5</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT246" t="n">
         <v>1.56</v>
@@ -51044,7 +51044,7 @@
         <v>2.06</v>
       </c>
       <c r="AT249" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU249" t="n">
         <v>2.02</v>
@@ -53074,7 +53074,7 @@
         <v>1.35</v>
       </c>
       <c r="AT259" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU259" t="n">
         <v>1.75</v>
@@ -54289,7 +54289,7 @@
         <v>1.8</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT265" t="n">
         <v>2</v>
@@ -56116,7 +56116,7 @@
         <v>1.94</v>
       </c>
       <c r="AS274" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT274" t="n">
         <v>1.89</v>
@@ -57743,7 +57743,7 @@
         <v>1.25</v>
       </c>
       <c r="AT282" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU282" t="n">
         <v>1.45</v>
@@ -59973,7 +59973,7 @@
         <v>0.6</v>
       </c>
       <c r="AS293" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT293" t="n">
         <v>0.75</v>
@@ -61397,7 +61397,7 @@
         <v>1.25</v>
       </c>
       <c r="AT300" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU300" t="n">
         <v>1.42</v>
@@ -62870,6 +62870,209 @@
       </c>
       <c r="BK307" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B308" t="n">
+        <v>4661725</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E308" s="2" t="n">
+        <v>45036.96180555555</v>
+      </c>
+      <c r="F308" t="n">
+        <v>16</v>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>Tigres UANL</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="I308" t="n">
+        <v>0</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0</v>
+      </c>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N308" t="n">
+        <v>1</v>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P308" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q308" t="n">
+        <v>7</v>
+      </c>
+      <c r="R308" t="n">
+        <v>3</v>
+      </c>
+      <c r="S308" t="n">
+        <v>10</v>
+      </c>
+      <c r="T308" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U308" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V308" t="n">
+        <v>6</v>
+      </c>
+      <c r="W308" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X308" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y308" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z308" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA308" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB308" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC308" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AD308" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE308" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF308" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG308" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH308" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI308" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ308" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK308" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL308" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM308" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN308" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO308" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP308" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ308" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR308" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS308" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AT308" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU308" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AV308" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW308" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX308" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY308" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ308" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="BA308" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB308" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC308" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD308" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE308" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF308" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG308" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH308" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI308" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ308" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK308" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK308"/>
+  <dimension ref="A1:BK311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT2" t="n">
         <v>0.89</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT3" t="n">
         <v>1.45</v>
@@ -1715,7 +1715,7 @@
         <v>2.17</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.38</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>2.06</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT11" t="n">
         <v>1.65</v>
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT13" t="n">
         <v>0.76</v>
@@ -4151,7 +4151,7 @@
         <v>2.05</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.33</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU21" t="n">
         <v>2.03</v>
@@ -5775,7 +5775,7 @@
         <v>1.38</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AU26" t="n">
         <v>1.55</v>
@@ -6384,7 +6384,7 @@
         <v>1.53</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU29" t="n">
         <v>1.88</v>
@@ -6587,7 +6587,7 @@
         <v>1.13</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AU30" t="n">
         <v>1.9</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT31" t="n">
         <v>0.88</v>
@@ -6990,7 +6990,7 @@
         <v>2</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT32" t="n">
         <v>0.76</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT35" t="n">
         <v>2</v>
@@ -7805,7 +7805,7 @@
         <v>1.74</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU36" t="n">
         <v>2.14</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT44" t="n">
         <v>1.74</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT51" t="n">
         <v>0.75</v>
@@ -11053,7 +11053,7 @@
         <v>1.35</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AU52" t="n">
         <v>1.9</v>
@@ -11256,7 +11256,7 @@
         <v>2.06</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU53" t="n">
         <v>1.7</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT58" t="n">
         <v>1.56</v>
@@ -12474,7 +12474,7 @@
         <v>2.17</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU59" t="n">
         <v>2.17</v>
@@ -13892,10 +13892,10 @@
         <v>1.75</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AU66" t="n">
         <v>1.16</v>
@@ -14095,7 +14095,7 @@
         <v>1.25</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT67" t="n">
         <v>0.89</v>
@@ -14707,7 +14707,7 @@
         <v>1.53</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU70" t="n">
         <v>1.75</v>
@@ -15516,7 +15516,7 @@
         <v>0.25</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT74" t="n">
         <v>0.5</v>
@@ -15925,7 +15925,7 @@
         <v>2.05</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AU76" t="n">
         <v>2.31</v>
@@ -16534,7 +16534,7 @@
         <v>2.06</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU79" t="n">
         <v>1.66</v>
@@ -16937,7 +16937,7 @@
         <v>0.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT81" t="n">
         <v>1.56</v>
@@ -18564,7 +18564,7 @@
         <v>2.05</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU89" t="n">
         <v>2.01</v>
@@ -18767,7 +18767,7 @@
         <v>1.53</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AU90" t="n">
         <v>1.9</v>
@@ -19376,7 +19376,7 @@
         <v>2.05</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU93" t="n">
         <v>2.03</v>
@@ -19576,7 +19576,7 @@
         <v>0.75</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT94" t="n">
         <v>1</v>
@@ -19982,7 +19982,7 @@
         <v>1.5</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT96" t="n">
         <v>2</v>
@@ -21000,7 +21000,7 @@
         <v>1.75</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU101" t="n">
         <v>1.57</v>
@@ -21403,10 +21403,10 @@
         <v>1.57</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AU103" t="n">
         <v>1.46</v>
@@ -22012,10 +22012,10 @@
         <v>0.83</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU106" t="n">
         <v>1.23</v>
@@ -24651,10 +24651,10 @@
         <v>0.29</v>
       </c>
       <c r="AS119" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT119" t="n">
         <v>0.75</v>
-      </c>
-      <c r="AT119" t="n">
-        <v>0.6</v>
       </c>
       <c r="AU119" t="n">
         <v>1.36</v>
@@ -25057,7 +25057,7 @@
         <v>1.2</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT121" t="n">
         <v>1.56</v>
@@ -25263,7 +25263,7 @@
         <v>1.25</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AU122" t="n">
         <v>1.41</v>
@@ -25666,7 +25666,7 @@
         <v>1.71</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT124" t="n">
         <v>2</v>
@@ -25872,7 +25872,7 @@
         <v>1.74</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU125" t="n">
         <v>2.3</v>
@@ -27699,7 +27699,7 @@
         <v>1.78</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU134" t="n">
         <v>1.61</v>
@@ -28102,7 +28102,7 @@
         <v>1.43</v>
       </c>
       <c r="AS136" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT136" t="n">
         <v>1.45</v>
@@ -28308,7 +28308,7 @@
         <v>2.17</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU137" t="n">
         <v>2.07</v>
@@ -29523,7 +29523,7 @@
         <v>1.14</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT143" t="n">
         <v>0.76</v>
@@ -29726,7 +29726,7 @@
         <v>1</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT144" t="n">
         <v>0.75</v>
@@ -31962,7 +31962,7 @@
         <v>1.69</v>
       </c>
       <c r="AT155" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AU155" t="n">
         <v>2.21</v>
@@ -32165,7 +32165,7 @@
         <v>1.4</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AU156" t="n">
         <v>1.63</v>
@@ -32977,7 +32977,7 @@
         <v>1.4</v>
       </c>
       <c r="AT160" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AU160" t="n">
         <v>1.62</v>
@@ -33583,7 +33583,7 @@
         <v>1.47</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AT163" t="n">
         <v>1.4</v>
@@ -34601,7 +34601,7 @@
         <v>1.89</v>
       </c>
       <c r="AT168" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AU168" t="n">
         <v>2.06</v>
@@ -35004,7 +35004,7 @@
         <v>1.9</v>
       </c>
       <c r="AS170" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AT170" t="n">
         <v>1.89</v>
@@ -35613,7 +35613,7 @@
         <v>1.25</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT173" t="n">
         <v>0.88</v>
@@ -36628,7 +36628,7 @@
         <v>0.89</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT178" t="n">
         <v>1</v>
@@ -37646,7 +37646,7 @@
         <v>1.78</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AU183" t="n">
         <v>1.58</v>
@@ -38861,7 +38861,7 @@
         <v>0.89</v>
       </c>
       <c r="AS189" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT189" t="n">
         <v>1</v>
@@ -39064,7 +39064,7 @@
         <v>1.55</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT190" t="n">
         <v>1.65</v>
@@ -39673,7 +39673,7 @@
         <v>0.9</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT193" t="n">
         <v>1</v>
@@ -40082,7 +40082,7 @@
         <v>1.35</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU195" t="n">
         <v>1.79</v>
@@ -40285,7 +40285,7 @@
         <v>1.13</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU196" t="n">
         <v>1.76</v>
@@ -40894,7 +40894,7 @@
         <v>1.33</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AU199" t="n">
         <v>1.56</v>
@@ -41094,7 +41094,7 @@
         <v>0.44</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT200" t="n">
         <v>0.53</v>
@@ -41909,7 +41909,7 @@
         <v>2.05</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU204" t="n">
         <v>1.79</v>
@@ -42718,7 +42718,7 @@
         <v>0.9</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT208" t="n">
         <v>0.8100000000000001</v>
@@ -42921,7 +42921,7 @@
         <v>0.73</v>
       </c>
       <c r="AS209" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT209" t="n">
         <v>0.76</v>
@@ -43736,7 +43736,7 @@
         <v>1.35</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU213" t="n">
         <v>1.76</v>
@@ -44345,7 +44345,7 @@
         <v>1.13</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU216" t="n">
         <v>1.76</v>
@@ -44548,7 +44548,7 @@
         <v>1.24</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AU217" t="n">
         <v>1.51</v>
@@ -44951,7 +44951,7 @@
         <v>1.27</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT219" t="n">
         <v>0.88</v>
@@ -47184,7 +47184,7 @@
         <v>0.45</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT230" t="n">
         <v>0.53</v>
@@ -47387,7 +47387,7 @@
         <v>1.62</v>
       </c>
       <c r="AS231" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT231" t="n">
         <v>1.74</v>
@@ -47593,7 +47593,7 @@
         <v>1.25</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU232" t="n">
         <v>1.57</v>
@@ -49420,7 +49420,7 @@
         <v>1.78</v>
       </c>
       <c r="AT241" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU241" t="n">
         <v>1.6</v>
@@ -49823,7 +49823,7 @@
         <v>0.31</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT243" t="n">
         <v>0.5</v>
@@ -50026,7 +50026,7 @@
         <v>0.42</v>
       </c>
       <c r="AS244" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT244" t="n">
         <v>0.53</v>
@@ -51244,7 +51244,7 @@
         <v>1.71</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT250" t="n">
         <v>1.74</v>
@@ -51450,7 +51450,7 @@
         <v>1.75</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AU251" t="n">
         <v>1.9</v>
@@ -51650,7 +51650,7 @@
         <v>1.71</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT252" t="n">
         <v>1.65</v>
@@ -51853,7 +51853,7 @@
         <v>0.92</v>
       </c>
       <c r="AS253" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT253" t="n">
         <v>1</v>
@@ -52056,10 +52056,10 @@
         <v>0.33</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT254" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU254" t="n">
         <v>1.72</v>
@@ -53886,7 +53886,7 @@
         <v>1.24</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU263" t="n">
         <v>1.5</v>
@@ -54698,7 +54698,7 @@
         <v>2.05</v>
       </c>
       <c r="AT267" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AU267" t="n">
         <v>1.97</v>
@@ -55307,7 +55307,7 @@
         <v>1.33</v>
       </c>
       <c r="AT270" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU270" t="n">
         <v>1.55</v>
@@ -55507,7 +55507,7 @@
         <v>0.67</v>
       </c>
       <c r="AS271" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT271" t="n">
         <v>0.76</v>
@@ -55710,7 +55710,7 @@
         <v>1.47</v>
       </c>
       <c r="AS272" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT272" t="n">
         <v>1.45</v>
@@ -56119,7 +56119,7 @@
         <v>1.74</v>
       </c>
       <c r="AT274" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AU274" t="n">
         <v>2.04</v>
@@ -57131,10 +57131,10 @@
         <v>1.07</v>
       </c>
       <c r="AS279" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT279" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU279" t="n">
         <v>1.53</v>
@@ -57537,7 +57537,7 @@
         <v>0.87</v>
       </c>
       <c r="AS281" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT281" t="n">
         <v>1</v>
@@ -58149,7 +58149,7 @@
         <v>2.17</v>
       </c>
       <c r="AT284" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU284" t="n">
         <v>2.08</v>
@@ -59567,7 +59567,7 @@
         <v>0.33</v>
       </c>
       <c r="AS291" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AT291" t="n">
         <v>0.5</v>
@@ -60382,7 +60382,7 @@
         <v>2.17</v>
       </c>
       <c r="AT295" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AU295" t="n">
         <v>2.03</v>
@@ -60991,7 +60991,7 @@
         <v>1.25</v>
       </c>
       <c r="AT298" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AU298" t="n">
         <v>1.45</v>
@@ -61394,7 +61394,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS300" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT300" t="n">
         <v>0.89</v>
@@ -61597,7 +61597,7 @@
         <v>0.67</v>
       </c>
       <c r="AS301" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AT301" t="n">
         <v>0.8100000000000001</v>
@@ -63073,6 +63073,615 @@
       </c>
       <c r="BK308" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B309" t="n">
+        <v>4661726</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E309" s="2" t="n">
+        <v>45037.92013888889</v>
+      </c>
+      <c r="F309" t="n">
+        <v>16</v>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>Necaxa</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>Atlas</t>
+        </is>
+      </c>
+      <c r="I309" t="n">
+        <v>0</v>
+      </c>
+      <c r="J309" t="n">
+        <v>3</v>
+      </c>
+      <c r="K309" t="n">
+        <v>3</v>
+      </c>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="n">
+        <v>3</v>
+      </c>
+      <c r="N309" t="n">
+        <v>4</v>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>['22', '24', '45']</t>
+        </is>
+      </c>
+      <c r="Q309" t="n">
+        <v>4</v>
+      </c>
+      <c r="R309" t="n">
+        <v>4</v>
+      </c>
+      <c r="S309" t="n">
+        <v>8</v>
+      </c>
+      <c r="T309" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U309" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V309" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W309" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X309" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y309" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z309" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA309" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB309" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC309" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD309" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE309" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF309" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG309" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH309" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI309" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ309" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK309" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL309" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM309" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AN309" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO309" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP309" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ309" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR309" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS309" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT309" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU309" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV309" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW309" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX309" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY309" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ309" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BA309" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BB309" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BC309" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BD309" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BE309" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF309" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG309" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH309" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI309" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ309" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK309" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B310" t="n">
+        <v>4661727</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E310" s="2" t="n">
+        <v>45037.92013888889</v>
+      </c>
+      <c r="F310" t="n">
+        <v>16</v>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>Mazatlán</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="I310" t="n">
+        <v>0</v>
+      </c>
+      <c r="J310" t="n">
+        <v>1</v>
+      </c>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="n">
+        <v>0</v>
+      </c>
+      <c r="M310" t="n">
+        <v>2</v>
+      </c>
+      <c r="N310" t="n">
+        <v>2</v>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>['27', '88']</t>
+        </is>
+      </c>
+      <c r="Q310" t="n">
+        <v>5</v>
+      </c>
+      <c r="R310" t="n">
+        <v>2</v>
+      </c>
+      <c r="S310" t="n">
+        <v>7</v>
+      </c>
+      <c r="T310" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="U310" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V310" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="W310" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X310" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Y310" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Z310" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA310" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB310" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC310" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AD310" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="AE310" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF310" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG310" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH310" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI310" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="AJ310" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK310" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AL310" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AM310" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AN310" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO310" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP310" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ310" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR310" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS310" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT310" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AU310" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV310" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW310" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX310" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AY310" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ310" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BA310" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB310" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC310" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD310" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE310" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF310" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG310" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH310" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI310" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ310" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK310" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" t="n">
+        <v>4661728</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E311" s="2" t="n">
+        <v>45038.00347222222</v>
+      </c>
+      <c r="F311" t="n">
+        <v>16</v>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>Tijuana</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>León</t>
+        </is>
+      </c>
+      <c r="I311" t="n">
+        <v>0</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0</v>
+      </c>
+      <c r="L311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N311" t="n">
+        <v>0</v>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q311" t="n">
+        <v>8</v>
+      </c>
+      <c r="R311" t="n">
+        <v>5</v>
+      </c>
+      <c r="S311" t="n">
+        <v>13</v>
+      </c>
+      <c r="T311" t="n">
+        <v>3</v>
+      </c>
+      <c r="U311" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V311" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W311" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X311" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y311" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z311" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA311" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB311" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC311" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD311" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE311" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF311" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG311" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH311" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI311" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ311" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK311" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL311" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM311" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN311" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO311" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP311" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ311" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AR311" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS311" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT311" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU311" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV311" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW311" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX311" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AY311" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ311" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BA311" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB311" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC311" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD311" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE311" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF311" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG311" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH311" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI311" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ311" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK311" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK311"/>
+  <dimension ref="A1:BK314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT4" t="n">
         <v>0.76</v>
@@ -1512,7 +1512,7 @@
         <v>1.74</v>
       </c>
       <c r="AT5" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT6" t="n">
         <v>0.75</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AT10" t="n">
         <v>0.5</v>
@@ -3339,7 +3339,7 @@
         <v>1.75</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU15" t="n">
         <v>1.82</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT20" t="n">
         <v>1.45</v>
@@ -5166,7 +5166,7 @@
         <v>1.24</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AT28" t="n">
         <v>0.75</v>
@@ -6381,7 +6381,7 @@
         <v>2</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT29" t="n">
         <v>1.17</v>
@@ -6790,7 +6790,7 @@
         <v>0.71</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU31" t="n">
         <v>0.58</v>
@@ -8005,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU37" t="n">
         <v>2.18</v>
@@ -8820,7 +8820,7 @@
         <v>1.38</v>
       </c>
       <c r="AT41" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU41" t="n">
         <v>1.38</v>
@@ -10441,7 +10441,7 @@
         <v>1.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT49" t="n">
         <v>1.74</v>
@@ -10647,7 +10647,7 @@
         <v>1.33</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU50" t="n">
         <v>1.49</v>
@@ -11865,7 +11865,7 @@
         <v>1.25</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU56" t="n">
         <v>1.2</v>
@@ -12677,7 +12677,7 @@
         <v>2.06</v>
       </c>
       <c r="AT60" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU60" t="n">
         <v>1.55</v>
@@ -13283,7 +13283,7 @@
         <v>3</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AT63" t="n">
         <v>1.65</v>
@@ -13486,7 +13486,7 @@
         <v>1.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT64" t="n">
         <v>0.76</v>
@@ -13692,7 +13692,7 @@
         <v>1.13</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU65" t="n">
         <v>1.69</v>
@@ -14704,7 +14704,7 @@
         <v>0.25</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT70" t="n">
         <v>0.75</v>
@@ -16328,7 +16328,7 @@
         <v>0.75</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AT78" t="n">
         <v>2</v>
@@ -16737,7 +16737,7 @@
         <v>1.38</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU80" t="n">
         <v>1.37</v>
@@ -17952,10 +17952,10 @@
         <v>1</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT86" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU86" t="n">
         <v>1.98</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AT89" t="n">
         <v>1.17</v>
@@ -18764,7 +18764,7 @@
         <v>1.83</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT90" t="n">
         <v>1.95</v>
@@ -19373,7 +19373,7 @@
         <v>0.4</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AT93" t="n">
         <v>0.75</v>
@@ -20591,10 +20591,10 @@
         <v>0.67</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU99" t="n">
         <v>1.82</v>
@@ -21203,7 +21203,7 @@
         <v>2.06</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU102" t="n">
         <v>1.79</v>
@@ -22218,7 +22218,7 @@
         <v>1.25</v>
       </c>
       <c r="AT107" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU107" t="n">
         <v>1.4</v>
@@ -22418,7 +22418,7 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AT108" t="n">
         <v>1</v>
@@ -22827,7 +22827,7 @@
         <v>1.24</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU110" t="n">
         <v>1.59</v>
@@ -23027,7 +23027,7 @@
         <v>1.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT111" t="n">
         <v>1.65</v>
@@ -23839,10 +23839,10 @@
         <v>1.17</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU115" t="n">
         <v>2.06</v>
@@ -24045,7 +24045,7 @@
         <v>2.17</v>
       </c>
       <c r="AT116" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU116" t="n">
         <v>1.99</v>
@@ -26075,7 +26075,7 @@
         <v>2.05</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU126" t="n">
         <v>1.82</v>
@@ -26275,7 +26275,7 @@
         <v>1.14</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT127" t="n">
         <v>0.89</v>
@@ -26684,7 +26684,7 @@
         <v>1.24</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU129" t="n">
         <v>1.51</v>
@@ -26884,7 +26884,7 @@
         <v>1.14</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AT130" t="n">
         <v>0.8100000000000001</v>
@@ -27087,7 +27087,7 @@
         <v>1.33</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT131" t="n">
         <v>1.65</v>
@@ -27290,7 +27290,7 @@
         <v>1</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT132" t="n">
         <v>1</v>
@@ -28508,7 +28508,7 @@
         <v>1.5</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT138" t="n">
         <v>1.56</v>
@@ -28714,7 +28714,7 @@
         <v>1.35</v>
       </c>
       <c r="AT139" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU139" t="n">
         <v>1.68</v>
@@ -29932,7 +29932,7 @@
         <v>1.33</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU145" t="n">
         <v>1.82</v>
@@ -30338,7 +30338,7 @@
         <v>1.25</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU147" t="n">
         <v>1.38</v>
@@ -32162,7 +32162,7 @@
         <v>1.29</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT156" t="n">
         <v>1.44</v>
@@ -32571,7 +32571,7 @@
         <v>1.11</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="AU158" t="n">
         <v>1.67</v>
@@ -32774,7 +32774,7 @@
         <v>1.11</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="AU159" t="n">
         <v>1.67</v>
@@ -32974,7 +32974,7 @@
         <v>2.06</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT160" t="n">
         <v>2.05</v>
@@ -33383,7 +33383,7 @@
         <v>1.69</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="AU162" t="n">
         <v>2.12</v>
@@ -33586,7 +33586,7 @@
         <v>2.05</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU163" t="n">
         <v>1.94</v>
@@ -33786,7 +33786,7 @@
         <v>1.21</v>
       </c>
       <c r="AS164" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="AT164" t="n">
         <v>1.11</v>
@@ -34192,7 +34192,7 @@
         <v>1.89</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="AT166" t="n">
         <v>1.69</v>
@@ -34398,7 +34398,7 @@
         <v>1.74</v>
       </c>
       <c r="AT167" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="AU167" t="n">
         <v>1.81</v>
@@ -34598,7 +34598,7 @@
         <v>2.05</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="AT168" t="n">
         <v>2.05</v>
@@ -34801,7 +34801,7 @@
         <v>1.86</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="AT169" t="n">
         <v>1.74</v>
@@ -35007,7 +35007,7 @@
         <v>2.05</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="AU170" t="n">
         <v>1.92</v>
@@ -35210,7 +35210,7 @@
         <v>1.74</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="AU171" t="n">
         <v>1.78</v>
@@ -35410,7 +35410,7 @@
         <v>1.74</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="AT172" t="n">
         <v>1.74</v>
@@ -35616,7 +35616,7 @@
         <v>1.18</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU173" t="n">
         <v>1.38</v>
@@ -35816,7 +35816,7 @@
         <v>0.22</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT174" t="n">
         <v>0.5</v>
@@ -36631,7 +36631,7 @@
         <v>1.18</v>
       </c>
       <c r="AT178" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU178" t="n">
         <v>1.62</v>
@@ -36831,7 +36831,7 @@
         <v>0.89</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AT179" t="n">
         <v>0.89</v>
@@ -38255,7 +38255,7 @@
         <v>2.06</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU186" t="n">
         <v>1.92</v>
@@ -39270,7 +39270,7 @@
         <v>2.17</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU191" t="n">
         <v>2.14</v>
@@ -39470,7 +39470,7 @@
         <v>0.8</v>
       </c>
       <c r="AS192" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT192" t="n">
         <v>0.89</v>
@@ -39676,7 +39676,7 @@
         <v>1.18</v>
       </c>
       <c r="AT193" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU193" t="n">
         <v>1.4</v>
@@ -39876,7 +39876,7 @@
         <v>1.36</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT194" t="n">
         <v>1.45</v>
@@ -40485,7 +40485,7 @@
         <v>0.8</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AT197" t="n">
         <v>0.76</v>
@@ -41097,7 +41097,7 @@
         <v>1.18</v>
       </c>
       <c r="AT200" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU200" t="n">
         <v>1.58</v>
@@ -41300,7 +41300,7 @@
         <v>1.74</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU201" t="n">
         <v>2.06</v>
@@ -41703,7 +41703,7 @@
         <v>0.8</v>
       </c>
       <c r="AS203" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT203" t="n">
         <v>0.75</v>
@@ -42109,7 +42109,7 @@
         <v>0.82</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AT205" t="n">
         <v>0.76</v>
@@ -43936,7 +43936,7 @@
         <v>0.27</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT214" t="n">
         <v>0.5</v>
@@ -44954,7 +44954,7 @@
         <v>1.18</v>
       </c>
       <c r="AT219" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU219" t="n">
         <v>1.65</v>
@@ -45154,7 +45154,7 @@
         <v>0.75</v>
       </c>
       <c r="AS220" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT220" t="n">
         <v>0.76</v>
@@ -45563,7 +45563,7 @@
         <v>1.74</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU222" t="n">
         <v>2.1</v>
@@ -45763,7 +45763,7 @@
         <v>1.42</v>
       </c>
       <c r="AS223" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AT223" t="n">
         <v>1.56</v>
@@ -45969,7 +45969,7 @@
         <v>2.05</v>
       </c>
       <c r="AT224" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU224" t="n">
         <v>1.9</v>
@@ -46981,7 +46981,7 @@
         <v>0.91</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT229" t="n">
         <v>0.8100000000000001</v>
@@ -47187,7 +47187,7 @@
         <v>1.18</v>
       </c>
       <c r="AT230" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU230" t="n">
         <v>1.43</v>
@@ -47796,7 +47796,7 @@
         <v>1.33</v>
       </c>
       <c r="AT233" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU233" t="n">
         <v>1.59</v>
@@ -49011,7 +49011,7 @@
         <v>0.83</v>
       </c>
       <c r="AS239" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT239" t="n">
         <v>0.8100000000000001</v>
@@ -49214,7 +49214,7 @@
         <v>1.36</v>
       </c>
       <c r="AS240" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AT240" t="n">
         <v>1.45</v>
@@ -50029,7 +50029,7 @@
         <v>0.71</v>
       </c>
       <c r="AT244" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU244" t="n">
         <v>1.62</v>
@@ -50841,7 +50841,7 @@
         <v>2.05</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU248" t="n">
         <v>1.87</v>
@@ -51856,7 +51856,7 @@
         <v>0.71</v>
       </c>
       <c r="AT253" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU253" t="n">
         <v>1.57</v>
@@ -52262,7 +52262,7 @@
         <v>1.75</v>
       </c>
       <c r="AT255" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU255" t="n">
         <v>1.86</v>
@@ -52462,7 +52462,7 @@
         <v>1.6</v>
       </c>
       <c r="AS256" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT256" t="n">
         <v>1.74</v>
@@ -52868,7 +52868,7 @@
         <v>1</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT258" t="n">
         <v>1</v>
@@ -54089,7 +54089,7 @@
         <v>1.78</v>
       </c>
       <c r="AT264" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU264" t="n">
         <v>1.59</v>
@@ -54695,7 +54695,7 @@
         <v>1.87</v>
       </c>
       <c r="AS267" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AT267" t="n">
         <v>1.95</v>
@@ -55916,7 +55916,7 @@
         <v>1.78</v>
       </c>
       <c r="AT273" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU273" t="n">
         <v>1.58</v>
@@ -56319,7 +56319,7 @@
         <v>1.88</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT275" t="n">
         <v>2</v>
@@ -57337,7 +57337,7 @@
         <v>1.13</v>
       </c>
       <c r="AT280" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU280" t="n">
         <v>1.63</v>
@@ -57943,10 +57943,10 @@
         <v>0.87</v>
       </c>
       <c r="AS283" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AT283" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU283" t="n">
         <v>1.95</v>
@@ -58146,7 +58146,7 @@
         <v>1.19</v>
       </c>
       <c r="AS284" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT284" t="n">
         <v>1.17</v>
@@ -59164,7 +59164,7 @@
         <v>1.13</v>
       </c>
       <c r="AT289" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU289" t="n">
         <v>1.64</v>
@@ -59770,7 +59770,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS292" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT292" t="n">
         <v>0.76</v>
@@ -60179,7 +60179,7 @@
         <v>1.75</v>
       </c>
       <c r="AT294" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU294" t="n">
         <v>1.92</v>
@@ -60379,7 +60379,7 @@
         <v>2</v>
       </c>
       <c r="AS295" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT295" t="n">
         <v>1.95</v>
@@ -60585,7 +60585,7 @@
         <v>1.35</v>
       </c>
       <c r="AT296" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU296" t="n">
         <v>1.68</v>
@@ -63682,6 +63682,615 @@
       </c>
       <c r="BK311" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B312" t="n">
+        <v>4661729</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E312" s="2" t="n">
+        <v>45038.83333333334</v>
+      </c>
+      <c r="F312" t="n">
+        <v>16</v>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>Pachuca</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Atlético San Luis</t>
+        </is>
+      </c>
+      <c r="I312" t="n">
+        <v>0</v>
+      </c>
+      <c r="J312" t="n">
+        <v>1</v>
+      </c>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="n">
+        <v>2</v>
+      </c>
+      <c r="M312" t="n">
+        <v>1</v>
+      </c>
+      <c r="N312" t="n">
+        <v>3</v>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>['62', '84']</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="Q312" t="n">
+        <v>10</v>
+      </c>
+      <c r="R312" t="n">
+        <v>3</v>
+      </c>
+      <c r="S312" t="n">
+        <v>13</v>
+      </c>
+      <c r="T312" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U312" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V312" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W312" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X312" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA312" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB312" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC312" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AD312" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE312" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF312" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG312" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH312" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI312" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ312" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK312" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL312" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM312" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN312" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO312" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP312" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ312" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AR312" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS312" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AT312" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU312" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV312" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW312" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX312" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY312" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ312" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="BA312" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB312" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC312" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD312" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE312" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF312" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG312" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH312" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI312" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ312" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK312" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B313" t="n">
+        <v>4661730</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E313" s="2" t="n">
+        <v>45038.92013888889</v>
+      </c>
+      <c r="F313" t="n">
+        <v>16</v>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Cruz Azul</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>0</v>
+      </c>
+      <c r="J313" t="n">
+        <v>1</v>
+      </c>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="n">
+        <v>2</v>
+      </c>
+      <c r="M313" t="n">
+        <v>1</v>
+      </c>
+      <c r="N313" t="n">
+        <v>3</v>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>['53', '75']</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q313" t="n">
+        <v>1</v>
+      </c>
+      <c r="R313" t="n">
+        <v>7</v>
+      </c>
+      <c r="S313" t="n">
+        <v>8</v>
+      </c>
+      <c r="T313" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U313" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V313" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W313" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X313" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y313" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z313" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA313" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB313" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC313" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD313" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE313" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF313" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG313" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH313" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI313" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ313" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK313" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL313" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM313" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN313" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO313" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP313" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ313" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR313" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS313" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT313" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU313" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV313" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW313" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX313" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY313" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ313" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="BA313" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB313" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC313" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD313" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE313" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF313" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG313" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH313" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI313" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ313" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK313" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B314" t="n">
+        <v>4661731</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E314" s="2" t="n">
+        <v>45039.00694444445</v>
+      </c>
+      <c r="F314" t="n">
+        <v>16</v>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>América</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Pumas UNAM</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>0</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0</v>
+      </c>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="n">
+        <v>1</v>
+      </c>
+      <c r="N314" t="n">
+        <v>2</v>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q314" t="n">
+        <v>9</v>
+      </c>
+      <c r="R314" t="n">
+        <v>4</v>
+      </c>
+      <c r="S314" t="n">
+        <v>13</v>
+      </c>
+      <c r="T314" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U314" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V314" t="n">
+        <v>6</v>
+      </c>
+      <c r="W314" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X314" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z314" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA314" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB314" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC314" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AD314" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE314" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF314" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG314" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH314" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI314" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ314" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AK314" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL314" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM314" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN314" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO314" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP314" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ314" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR314" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AS314" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT314" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU314" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AV314" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW314" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AX314" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY314" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ314" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BA314" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB314" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC314" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD314" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE314" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF314" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG314" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH314" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI314" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ314" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK314" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK314"/>
+  <dimension ref="A1:BK316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.63</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT9" t="n">
         <v>1.95</v>
@@ -2527,7 +2527,7 @@
         <v>2.1</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.18</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AT18" t="n">
         <v>0.75</v>
@@ -4963,7 +4963,7 @@
         <v>1.25</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT24" t="n">
         <v>1.56</v>
@@ -6993,7 +6993,7 @@
         <v>1.18</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU32" t="n">
         <v>1.5</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AT33" t="n">
         <v>1</v>
@@ -10241,7 +10241,7 @@
         <v>1.74</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU48" t="n">
         <v>2.67</v>
@@ -11253,7 +11253,7 @@
         <v>0.33</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT53" t="n">
         <v>0.75</v>
@@ -11659,7 +11659,7 @@
         <v>1.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AT55" t="n">
         <v>0.89</v>
@@ -12068,7 +12068,7 @@
         <v>1.24</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU57" t="n">
         <v>1.69</v>
@@ -12674,7 +12674,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT60" t="n">
         <v>0.9399999999999999</v>
@@ -12877,7 +12877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AT61" t="n">
         <v>0.8100000000000001</v>
@@ -13489,7 +13489,7 @@
         <v>2.11</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU64" t="n">
         <v>1.97</v>
@@ -15316,7 +15316,7 @@
         <v>1.24</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU73" t="n">
         <v>1.7</v>
@@ -15519,7 +15519,7 @@
         <v>0.71</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU74" t="n">
         <v>1.43</v>
@@ -15922,7 +15922,7 @@
         <v>2</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AT76" t="n">
         <v>1.95</v>
@@ -16531,7 +16531,7 @@
         <v>1.25</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT79" t="n">
         <v>1.17</v>
@@ -19782,7 +19782,7 @@
         <v>1.33</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU95" t="n">
         <v>1.87</v>
@@ -20188,7 +20188,7 @@
         <v>1.78</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU97" t="n">
         <v>1.63</v>
@@ -20794,7 +20794,7 @@
         <v>1.33</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AT100" t="n">
         <v>1.74</v>
@@ -21200,7 +21200,7 @@
         <v>1.4</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT102" t="n">
         <v>0.82</v>
@@ -23230,7 +23230,7 @@
         <v>1.25</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AT112" t="n">
         <v>1.56</v>
@@ -23436,7 +23436,7 @@
         <v>1.75</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU113" t="n">
         <v>1.56</v>
@@ -23636,7 +23636,7 @@
         <v>1.33</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT114" t="n">
         <v>0.76</v>
@@ -24857,7 +24857,7 @@
         <v>1.35</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU120" t="n">
         <v>1.68</v>
@@ -26072,7 +26072,7 @@
         <v>0.6</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AT126" t="n">
         <v>0.5600000000000001</v>
@@ -28914,10 +28914,10 @@
         <v>1.14</v>
       </c>
       <c r="AS140" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU140" t="n">
         <v>1.94</v>
@@ -29120,7 +29120,7 @@
         <v>1.75</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU141" t="n">
         <v>1.58</v>
@@ -31350,10 +31350,10 @@
         <v>0.25</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU152" t="n">
         <v>1.84</v>
@@ -31553,7 +31553,7 @@
         <v>1</v>
       </c>
       <c r="AS153" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT153" t="n">
         <v>0.75</v>
@@ -32365,7 +32365,7 @@
         <v>1.12</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="AT157" t="n">
         <v>1</v>
@@ -33177,10 +33177,10 @@
         <v>1.94</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="AU161" t="n">
         <v>1.78</v>
@@ -33989,10 +33989,10 @@
         <v>1.74</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="AU165" t="n">
         <v>1.9</v>
@@ -34395,7 +34395,7 @@
         <v>2.32</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="AT167" t="n">
         <v>2.05</v>
@@ -34804,7 +34804,7 @@
         <v>2.05</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="AU169" t="n">
         <v>2.08</v>
@@ -35207,7 +35207,7 @@
         <v>1.95</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="AT171" t="n">
         <v>1.92</v>
@@ -35413,7 +35413,7 @@
         <v>1.92</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="AU172" t="n">
         <v>2.06</v>
@@ -35819,7 +35819,7 @@
         <v>2.11</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU174" t="n">
         <v>2.1</v>
@@ -36225,7 +36225,7 @@
         <v>1.35</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU176" t="n">
         <v>1.76</v>
@@ -36425,7 +36425,7 @@
         <v>1.4</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT177" t="n">
         <v>1.65</v>
@@ -37443,7 +37443,7 @@
         <v>1.33</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU182" t="n">
         <v>1.58</v>
@@ -37846,7 +37846,7 @@
         <v>1.91</v>
       </c>
       <c r="AS184" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AT184" t="n">
         <v>2</v>
@@ -38252,7 +38252,7 @@
         <v>0.5</v>
       </c>
       <c r="AS186" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT186" t="n">
         <v>0.5600000000000001</v>
@@ -40488,7 +40488,7 @@
         <v>2.1</v>
       </c>
       <c r="AT197" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU197" t="n">
         <v>1.95</v>
@@ -41906,7 +41906,7 @@
         <v>0.73</v>
       </c>
       <c r="AS204" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AT204" t="n">
         <v>1.17</v>
@@ -42924,7 +42924,7 @@
         <v>0.71</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU209" t="n">
         <v>1.55</v>
@@ -43530,7 +43530,7 @@
         <v>1.83</v>
       </c>
       <c r="AS212" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT212" t="n">
         <v>2</v>
@@ -43939,7 +43939,7 @@
         <v>1.63</v>
       </c>
       <c r="AT214" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU214" t="n">
         <v>1.85</v>
@@ -45966,7 +45966,7 @@
         <v>0.82</v>
       </c>
       <c r="AS224" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AT224" t="n">
         <v>0.9399999999999999</v>
@@ -46375,7 +46375,7 @@
         <v>1.74</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU226" t="n">
         <v>2.11</v>
@@ -46781,7 +46781,7 @@
         <v>2.17</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU228" t="n">
         <v>2.06</v>
@@ -49620,7 +49620,7 @@
         <v>1.47</v>
       </c>
       <c r="AS242" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT242" t="n">
         <v>1.45</v>
@@ -49826,7 +49826,7 @@
         <v>1.18</v>
       </c>
       <c r="AT243" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU243" t="n">
         <v>1.4</v>
@@ -50232,7 +50232,7 @@
         <v>1.78</v>
       </c>
       <c r="AT245" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU245" t="n">
         <v>1.61</v>
@@ -50838,7 +50838,7 @@
         <v>1.17</v>
       </c>
       <c r="AS248" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AT248" t="n">
         <v>0.82</v>
@@ -51041,7 +51041,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS249" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT249" t="n">
         <v>0.89</v>
@@ -52668,7 +52668,7 @@
         <v>2.17</v>
       </c>
       <c r="AT257" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU257" t="n">
         <v>2.01</v>
@@ -53480,7 +53480,7 @@
         <v>1.38</v>
       </c>
       <c r="AT261" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU261" t="n">
         <v>1.28</v>
@@ -54492,7 +54492,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS266" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AT266" t="n">
         <v>0.75</v>
@@ -54898,7 +54898,7 @@
         <v>0.77</v>
       </c>
       <c r="AS268" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT268" t="n">
         <v>0.8100000000000001</v>
@@ -56728,7 +56728,7 @@
         <v>1.13</v>
       </c>
       <c r="AT277" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU277" t="n">
         <v>1.65</v>
@@ -58755,7 +58755,7 @@
         <v>1.8</v>
       </c>
       <c r="AS287" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AT287" t="n">
         <v>1.65</v>
@@ -59570,7 +59570,7 @@
         <v>1.18</v>
       </c>
       <c r="AT291" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU291" t="n">
         <v>1.71</v>
@@ -60785,7 +60785,7 @@
         <v>1.76</v>
       </c>
       <c r="AS297" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AT297" t="n">
         <v>1.74</v>
@@ -61194,7 +61194,7 @@
         <v>1.38</v>
       </c>
       <c r="AT299" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU299" t="n">
         <v>1.32</v>
@@ -64290,6 +64290,412 @@
         <v>11</v>
       </c>
       <c r="BK314" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B315" t="n">
+        <v>4661732</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E315" s="2" t="n">
+        <v>45039.625</v>
+      </c>
+      <c r="F315" t="n">
+        <v>16</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>Toluca</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Juárez</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>1</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0</v>
+      </c>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="n">
+        <v>1</v>
+      </c>
+      <c r="N315" t="n">
+        <v>2</v>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>['45+4']</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q315" t="n">
+        <v>4</v>
+      </c>
+      <c r="R315" t="n">
+        <v>4</v>
+      </c>
+      <c r="S315" t="n">
+        <v>8</v>
+      </c>
+      <c r="T315" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U315" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V315" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W315" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X315" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z315" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA315" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB315" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC315" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD315" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE315" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF315" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG315" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH315" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI315" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ315" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK315" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL315" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM315" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN315" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO315" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP315" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ315" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AR315" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AS315" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT315" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU315" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV315" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW315" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX315" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY315" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ315" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BA315" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB315" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC315" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD315" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE315" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF315" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG315" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH315" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI315" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ315" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK315" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B316" t="n">
+        <v>4661733</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E316" s="2" t="n">
+        <v>45039.92013888889</v>
+      </c>
+      <c r="F316" t="n">
+        <v>16</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>Santos Laguna</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
+      <c r="I316" t="n">
+        <v>0</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0</v>
+      </c>
+      <c r="L316" t="n">
+        <v>0</v>
+      </c>
+      <c r="M316" t="n">
+        <v>2</v>
+      </c>
+      <c r="N316" t="n">
+        <v>2</v>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>['90+5', '90+7']</t>
+        </is>
+      </c>
+      <c r="Q316" t="n">
+        <v>6</v>
+      </c>
+      <c r="R316" t="n">
+        <v>7</v>
+      </c>
+      <c r="S316" t="n">
+        <v>13</v>
+      </c>
+      <c r="T316" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U316" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V316" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W316" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X316" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y316" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z316" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA316" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB316" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC316" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AD316" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AE316" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF316" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG316" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH316" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI316" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ316" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK316" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL316" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM316" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN316" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO316" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP316" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ316" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AR316" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS316" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AT316" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AU316" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV316" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW316" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX316" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY316" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ316" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="BA316" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB316" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC316" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BD316" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE316" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF316" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG316" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH316" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI316" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ316" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK316" t="n">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK316"/>
+  <dimension ref="A1:BK317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3948,7 +3948,7 @@
         <v>2.17</v>
       </c>
       <c r="AT17" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT22" t="n">
         <v>0.65</v>
@@ -7602,7 +7602,7 @@
         <v>1.18</v>
       </c>
       <c r="AT35" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU35" t="n">
         <v>0.33</v>
@@ -8208,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT38" t="n">
         <v>1.65</v>
@@ -9832,7 +9832,7 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT46" t="n">
         <v>1.45</v>
@@ -11459,7 +11459,7 @@
         <v>1.75</v>
       </c>
       <c r="AT54" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU54" t="n">
         <v>1.45</v>
@@ -11862,7 +11862,7 @@
         <v>1.67</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT56" t="n">
         <v>0.82</v>
@@ -14504,7 +14504,7 @@
         <v>1.35</v>
       </c>
       <c r="AT69" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU69" t="n">
         <v>1.95</v>
@@ -16331,7 +16331,7 @@
         <v>2.1</v>
       </c>
       <c r="AT78" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU78" t="n">
         <v>2.19</v>
@@ -17749,7 +17749,7 @@
         <v>1.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT85" t="n">
         <v>0.75</v>
@@ -18970,7 +18970,7 @@
         <v>1.13</v>
       </c>
       <c r="AT91" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU91" t="n">
         <v>1.68</v>
@@ -19985,7 +19985,7 @@
         <v>0.71</v>
       </c>
       <c r="AT96" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU96" t="n">
         <v>1.39</v>
@@ -22215,7 +22215,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT107" t="n">
         <v>0.9399999999999999</v>
@@ -25260,7 +25260,7 @@
         <v>1.75</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT122" t="n">
         <v>1.95</v>
@@ -25669,7 +25669,7 @@
         <v>1.18</v>
       </c>
       <c r="AT124" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU124" t="n">
         <v>1.24</v>
@@ -27493,7 +27493,7 @@
         <v>1.6</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT133" t="n">
         <v>1.74</v>
@@ -30135,7 +30135,7 @@
         <v>1.33</v>
       </c>
       <c r="AT146" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU146" t="n">
         <v>1.7</v>
@@ -30335,7 +30335,7 @@
         <v>0.57</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT147" t="n">
         <v>0.5600000000000001</v>
@@ -32368,7 +32368,7 @@
         <v>1.73</v>
       </c>
       <c r="AT157" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AU157" t="n">
         <v>1.82</v>
@@ -32774,7 +32774,7 @@
         <v>1.11</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="AU159" t="n">
         <v>1.67</v>
@@ -33786,7 +33786,7 @@
         <v>1.21</v>
       </c>
       <c r="AS164" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="AT164" t="n">
         <v>1.11</v>
@@ -34398,7 +34398,7 @@
         <v>1.73</v>
       </c>
       <c r="AT167" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="AU167" t="n">
         <v>1.81</v>
@@ -34801,7 +34801,7 @@
         <v>1.86</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="AT169" t="n">
         <v>1.73</v>
@@ -37849,7 +37849,7 @@
         <v>2</v>
       </c>
       <c r="AT184" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU184" t="n">
         <v>1.8</v>
@@ -38049,7 +38049,7 @@
         <v>1</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT185" t="n">
         <v>0.8100000000000001</v>
@@ -41500,7 +41500,7 @@
         <v>1.27</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT202" t="n">
         <v>1.56</v>
@@ -43533,7 +43533,7 @@
         <v>1.94</v>
       </c>
       <c r="AT212" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU212" t="n">
         <v>2.04</v>
@@ -45357,7 +45357,7 @@
         <v>1.09</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT221" t="n">
         <v>1</v>
@@ -46578,7 +46578,7 @@
         <v>1.38</v>
       </c>
       <c r="AT227" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU227" t="n">
         <v>1.25</v>
@@ -47590,7 +47590,7 @@
         <v>0.92</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT232" t="n">
         <v>1.17</v>
@@ -50638,7 +50638,7 @@
         <v>1.24</v>
       </c>
       <c r="AT247" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU247" t="n">
         <v>1.51</v>
@@ -54292,7 +54292,7 @@
         <v>1.74</v>
       </c>
       <c r="AT265" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU265" t="n">
         <v>2.1</v>
@@ -55101,7 +55101,7 @@
         <v>0.64</v>
       </c>
       <c r="AS269" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT269" t="n">
         <v>0.76</v>
@@ -56322,7 +56322,7 @@
         <v>1.63</v>
       </c>
       <c r="AT275" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU275" t="n">
         <v>1.84</v>
@@ -57740,7 +57740,7 @@
         <v>0.8</v>
       </c>
       <c r="AS282" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT282" t="n">
         <v>0.89</v>
@@ -60988,7 +60988,7 @@
         <v>0.57</v>
       </c>
       <c r="AS298" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT298" t="n">
         <v>0.75</v>
@@ -62209,7 +62209,7 @@
         <v>1.78</v>
       </c>
       <c r="AT304" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU304" t="n">
         <v>1.6</v>
@@ -64696,6 +64696,209 @@
         <v>9</v>
       </c>
       <c r="BK316" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B317" t="n">
+        <v>4661735</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E317" s="2" t="n">
+        <v>45045.00347222222</v>
+      </c>
+      <c r="F317" t="n">
+        <v>17</v>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>Juárez</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>América</t>
+        </is>
+      </c>
+      <c r="I317" t="n">
+        <v>0</v>
+      </c>
+      <c r="J317" t="n">
+        <v>1</v>
+      </c>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="n">
+        <v>0</v>
+      </c>
+      <c r="M317" t="n">
+        <v>1</v>
+      </c>
+      <c r="N317" t="n">
+        <v>1</v>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P317" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q317" t="n">
+        <v>9</v>
+      </c>
+      <c r="R317" t="n">
+        <v>3</v>
+      </c>
+      <c r="S317" t="n">
+        <v>12</v>
+      </c>
+      <c r="T317" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U317" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V317" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W317" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X317" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y317" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z317" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA317" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB317" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC317" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="AD317" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AE317" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AF317" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG317" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH317" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI317" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ317" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK317" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL317" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM317" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN317" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO317" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP317" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ317" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR317" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS317" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT317" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AU317" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV317" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AW317" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AX317" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AY317" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ317" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BA317" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB317" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC317" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BD317" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE317" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BF317" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG317" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH317" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI317" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ317" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK317" t="n">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK317"/>
+  <dimension ref="A1:BK322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT4" t="n">
         <v>0.78</v>
@@ -1715,7 +1715,7 @@
         <v>2.11</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.35</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT8" t="n">
         <v>1.17</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.75</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT15" t="n">
         <v>0.82</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT16" t="n">
         <v>1.74</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT17" t="n">
         <v>2.05</v>
@@ -4151,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT21" t="n">
         <v>1.17</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT26" t="n">
         <v>1.95</v>
@@ -5978,7 +5978,7 @@
         <v>1.74</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU27" t="n">
         <v>2.13</v>
@@ -6181,7 +6181,7 @@
         <v>2.1</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU28" t="n">
         <v>1.87</v>
@@ -6381,7 +6381,7 @@
         <v>2</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT29" t="n">
         <v>1.17</v>
@@ -7196,7 +7196,7 @@
         <v>2</v>
       </c>
       <c r="AT33" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU33" t="n">
         <v>1.79</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT34" t="n">
         <v>0.89</v>
@@ -7805,7 +7805,7 @@
         <v>1.74</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU36" t="n">
         <v>2.14</v>
@@ -8008,7 +8008,7 @@
         <v>2.1</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU37" t="n">
         <v>2.18</v>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT39" t="n">
         <v>0.89</v>
@@ -8617,7 +8617,7 @@
         <v>1.24</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU40" t="n">
         <v>1.67</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT41" t="n">
         <v>0.9399999999999999</v>
@@ -9632,7 +9632,7 @@
         <v>1.35</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU45" t="n">
         <v>1.59</v>
@@ -10035,7 +10035,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT47" t="n">
         <v>0.76</v>
@@ -10441,7 +10441,7 @@
         <v>1.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT49" t="n">
         <v>1.74</v>
@@ -10644,7 +10644,7 @@
         <v>2</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT50" t="n">
         <v>0.82</v>
@@ -10850,7 +10850,7 @@
         <v>1.18</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU51" t="n">
         <v>0.9399999999999999</v>
@@ -11256,7 +11256,7 @@
         <v>1.94</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU53" t="n">
         <v>1.7</v>
@@ -12471,7 +12471,7 @@
         <v>1.67</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT59" t="n">
         <v>1.17</v>
@@ -12880,7 +12880,7 @@
         <v>2</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU61" t="n">
         <v>2.03</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT62" t="n">
         <v>0.76</v>
@@ -14301,7 +14301,7 @@
         <v>1.75</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU68" t="n">
         <v>1.57</v>
@@ -14704,10 +14704,10 @@
         <v>0.25</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU70" t="n">
         <v>1.75</v>
@@ -14907,7 +14907,7 @@
         <v>1.75</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT71" t="n">
         <v>1.45</v>
@@ -15113,7 +15113,7 @@
         <v>1.74</v>
       </c>
       <c r="AT72" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU72" t="n">
         <v>2.42</v>
@@ -15719,7 +15719,7 @@
         <v>1.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT75" t="n">
         <v>0.76</v>
@@ -16125,10 +16125,10 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU77" t="n">
         <v>1.59</v>
@@ -16734,10 +16734,10 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU80" t="n">
         <v>1.37</v>
@@ -17143,7 +17143,7 @@
         <v>1.13</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU82" t="n">
         <v>1.75</v>
@@ -17546,7 +17546,7 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT84" t="n">
         <v>1.65</v>
@@ -17752,7 +17752,7 @@
         <v>1.18</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU85" t="n">
         <v>1.46</v>
@@ -18158,7 +18158,7 @@
         <v>1.35</v>
       </c>
       <c r="AT87" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU87" t="n">
         <v>1.77</v>
@@ -18358,7 +18358,7 @@
         <v>2</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT88" t="n">
         <v>1.45</v>
@@ -18764,7 +18764,7 @@
         <v>1.83</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT90" t="n">
         <v>1.95</v>
@@ -19376,7 +19376,7 @@
         <v>2.1</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU93" t="n">
         <v>2.03</v>
@@ -19579,7 +19579,7 @@
         <v>1.18</v>
       </c>
       <c r="AT94" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU94" t="n">
         <v>1.32</v>
@@ -19779,7 +19779,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT95" t="n">
         <v>0.78</v>
@@ -20185,7 +20185,7 @@
         <v>0.4</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT97" t="n">
         <v>0.65</v>
@@ -20591,10 +20591,10 @@
         <v>0.67</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU99" t="n">
         <v>1.82</v>
@@ -21000,7 +21000,7 @@
         <v>1.75</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU101" t="n">
         <v>1.57</v>
@@ -21606,10 +21606,10 @@
         <v>1.17</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU104" t="n">
         <v>1.42</v>
@@ -22421,7 +22421,7 @@
         <v>2.1</v>
       </c>
       <c r="AT108" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU108" t="n">
         <v>2.06</v>
@@ -22621,10 +22621,10 @@
         <v>1.2</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU109" t="n">
         <v>1.89</v>
@@ -22827,7 +22827,7 @@
         <v>1.24</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU110" t="n">
         <v>1.59</v>
@@ -24042,7 +24042,7 @@
         <v>0.83</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT116" t="n">
         <v>0.9399999999999999</v>
@@ -24245,7 +24245,7 @@
         <v>1.75</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT117" t="n">
         <v>1.74</v>
@@ -24654,7 +24654,7 @@
         <v>0.71</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU119" t="n">
         <v>1.36</v>
@@ -25466,7 +25466,7 @@
         <v>1.13</v>
       </c>
       <c r="AT123" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU123" t="n">
         <v>1.69</v>
@@ -26075,7 +26075,7 @@
         <v>2</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU126" t="n">
         <v>1.82</v>
@@ -26275,7 +26275,7 @@
         <v>1.14</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT127" t="n">
         <v>0.89</v>
@@ -26478,10 +26478,10 @@
         <v>1.17</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU128" t="n">
         <v>1.54</v>
@@ -26887,7 +26887,7 @@
         <v>2.1</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU130" t="n">
         <v>2.1</v>
@@ -27087,7 +27087,7 @@
         <v>1.33</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT131" t="n">
         <v>1.65</v>
@@ -27293,7 +27293,7 @@
         <v>2.11</v>
       </c>
       <c r="AT132" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU132" t="n">
         <v>2.05</v>
@@ -27696,7 +27696,7 @@
         <v>1</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT134" t="n">
         <v>1.17</v>
@@ -27899,7 +27899,7 @@
         <v>1.57</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT135" t="n">
         <v>1.65</v>
@@ -28305,10 +28305,10 @@
         <v>0.25</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU137" t="n">
         <v>2.07</v>
@@ -29320,7 +29320,7 @@
         <v>1.33</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT142" t="n">
         <v>1.74</v>
@@ -29729,7 +29729,7 @@
         <v>1.18</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU144" t="n">
         <v>1.27</v>
@@ -29929,10 +29929,10 @@
         <v>0.67</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU145" t="n">
         <v>1.82</v>
@@ -30132,7 +30132,7 @@
         <v>1.88</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT146" t="n">
         <v>2.05</v>
@@ -30338,7 +30338,7 @@
         <v>1.18</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU147" t="n">
         <v>1.38</v>
@@ -30538,7 +30538,7 @@
         <v>1.38</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT148" t="n">
         <v>1.65</v>
@@ -30741,7 +30741,7 @@
         <v>1.57</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT149" t="n">
         <v>1.74</v>
@@ -31147,7 +31147,7 @@
         <v>1.29</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT151" t="n">
         <v>1.56</v>
@@ -31556,7 +31556,7 @@
         <v>1.94</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU153" t="n">
         <v>1.94</v>
@@ -31759,7 +31759,7 @@
         <v>1.75</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU154" t="n">
         <v>1.56</v>
@@ -32162,7 +32162,7 @@
         <v>1.29</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="AT156" t="n">
         <v>1.44</v>
@@ -32568,10 +32568,10 @@
         <v>1.29</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="AU158" t="n">
         <v>1.67</v>
@@ -32771,7 +32771,7 @@
         <v>2.24</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="AT159" t="n">
         <v>2.08</v>
@@ -32974,10 +32974,10 @@
         <v>2.06</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="AT160" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="AU160" t="n">
         <v>1.62</v>
@@ -33180,7 +33180,7 @@
         <v>1.73</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="AU161" t="n">
         <v>1.78</v>
@@ -33583,10 +33583,10 @@
         <v>1.47</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="AU163" t="n">
         <v>1.94</v>
@@ -33789,7 +33789,7 @@
         <v>2.08</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="AU164" t="n">
         <v>2.1</v>
@@ -33989,7 +33989,7 @@
         <v>1.74</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="AT165" t="n">
         <v>1.73</v>
@@ -34601,7 +34601,7 @@
         <v>1.92</v>
       </c>
       <c r="AT168" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="AU168" t="n">
         <v>2.06</v>
@@ -35004,7 +35004,7 @@
         <v>1.9</v>
       </c>
       <c r="AS170" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="AT170" t="n">
         <v>1.92</v>
@@ -36019,7 +36019,7 @@
         <v>1.11</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT175" t="n">
         <v>1.56</v>
@@ -37037,7 +37037,7 @@
         <v>1.24</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU180" t="n">
         <v>1.44</v>
@@ -37237,7 +37237,7 @@
         <v>1.3</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT181" t="n">
         <v>1.56</v>
@@ -37440,7 +37440,7 @@
         <v>0.3</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT182" t="n">
         <v>0.65</v>
@@ -37643,7 +37643,7 @@
         <v>1.64</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT183" t="n">
         <v>1.95</v>
@@ -38052,7 +38052,7 @@
         <v>1.18</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU185" t="n">
         <v>1.37</v>
@@ -38255,7 +38255,7 @@
         <v>1.94</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU186" t="n">
         <v>1.92</v>
@@ -38864,7 +38864,7 @@
         <v>0.71</v>
       </c>
       <c r="AT189" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU189" t="n">
         <v>1.55</v>
@@ -39267,7 +39267,7 @@
         <v>1.44</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT191" t="n">
         <v>0.82</v>
@@ -39876,7 +39876,7 @@
         <v>1.36</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT194" t="n">
         <v>1.45</v>
@@ -40285,7 +40285,7 @@
         <v>1.13</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU196" t="n">
         <v>1.76</v>
@@ -40691,7 +40691,7 @@
         <v>1.24</v>
       </c>
       <c r="AT198" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU198" t="n">
         <v>1.55</v>
@@ -40891,7 +40891,7 @@
         <v>1.75</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT199" t="n">
         <v>1.95</v>
@@ -41097,7 +41097,7 @@
         <v>1.18</v>
       </c>
       <c r="AT200" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU200" t="n">
         <v>1.58</v>
@@ -41706,7 +41706,7 @@
         <v>2.11</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU203" t="n">
         <v>2.16</v>
@@ -42515,7 +42515,7 @@
         <v>0.82</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT207" t="n">
         <v>0.89</v>
@@ -42721,7 +42721,7 @@
         <v>1.18</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU208" t="n">
         <v>1.37</v>
@@ -43327,7 +43327,7 @@
         <v>1.5</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT211" t="n">
         <v>1.65</v>
@@ -43736,7 +43736,7 @@
         <v>1.35</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU213" t="n">
         <v>1.76</v>
@@ -43936,7 +43936,7 @@
         <v>0.27</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT214" t="n">
         <v>0.65</v>
@@ -44139,7 +44139,7 @@
         <v>1.46</v>
       </c>
       <c r="AS215" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT215" t="n">
         <v>1.45</v>
@@ -44748,10 +44748,10 @@
         <v>0.73</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT218" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU218" t="n">
         <v>1.59</v>
@@ -45360,7 +45360,7 @@
         <v>1.18</v>
       </c>
       <c r="AT221" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU221" t="n">
         <v>1.49</v>
@@ -45563,7 +45563,7 @@
         <v>1.74</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU222" t="n">
         <v>2.1</v>
@@ -46575,7 +46575,7 @@
         <v>1.77</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT227" t="n">
         <v>2.05</v>
@@ -46778,7 +46778,7 @@
         <v>0.33</v>
       </c>
       <c r="AS228" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT228" t="n">
         <v>0.65</v>
@@ -46981,10 +46981,10 @@
         <v>0.91</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT229" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU229" t="n">
         <v>1.85</v>
@@ -47187,7 +47187,7 @@
         <v>1.18</v>
       </c>
       <c r="AT230" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU230" t="n">
         <v>1.43</v>
@@ -47793,7 +47793,7 @@
         <v>0.75</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT233" t="n">
         <v>0.9399999999999999</v>
@@ -47996,10 +47996,10 @@
         <v>1</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT234" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU234" t="n">
         <v>1.29</v>
@@ -48199,7 +48199,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS235" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT235" t="n">
         <v>0.76</v>
@@ -48811,7 +48811,7 @@
         <v>1.13</v>
       </c>
       <c r="AT238" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU238" t="n">
         <v>1.73</v>
@@ -49014,7 +49014,7 @@
         <v>2.11</v>
       </c>
       <c r="AT239" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU239" t="n">
         <v>2.12</v>
@@ -49417,10 +49417,10 @@
         <v>0.36</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT241" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU241" t="n">
         <v>1.6</v>
@@ -50029,7 +50029,7 @@
         <v>0.71</v>
       </c>
       <c r="AT244" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU244" t="n">
         <v>1.62</v>
@@ -50229,7 +50229,7 @@
         <v>0.92</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT245" t="n">
         <v>0.78</v>
@@ -52059,7 +52059,7 @@
         <v>1.18</v>
       </c>
       <c r="AT254" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU254" t="n">
         <v>1.72</v>
@@ -52665,7 +52665,7 @@
         <v>0.86</v>
       </c>
       <c r="AS257" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT257" t="n">
         <v>0.78</v>
@@ -52868,10 +52868,10 @@
         <v>1</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT258" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU258" t="n">
         <v>1.82</v>
@@ -53477,7 +53477,7 @@
         <v>0.36</v>
       </c>
       <c r="AS261" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT261" t="n">
         <v>0.65</v>
@@ -53680,7 +53680,7 @@
         <v>1.6</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT262" t="n">
         <v>1.56</v>
@@ -54086,10 +54086,10 @@
         <v>0.62</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT264" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU264" t="n">
         <v>1.59</v>
@@ -54495,7 +54495,7 @@
         <v>2</v>
       </c>
       <c r="AT266" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU266" t="n">
         <v>1.86</v>
@@ -54901,7 +54901,7 @@
         <v>1.94</v>
       </c>
       <c r="AT268" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU268" t="n">
         <v>2.02</v>
@@ -55304,10 +55304,10 @@
         <v>0.38</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT270" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU270" t="n">
         <v>1.55</v>
@@ -55913,7 +55913,7 @@
         <v>1</v>
       </c>
       <c r="AS273" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT273" t="n">
         <v>0.82</v>
@@ -56319,7 +56319,7 @@
         <v>1.88</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT275" t="n">
         <v>2.05</v>
@@ -56931,7 +56931,7 @@
         <v>1.75</v>
       </c>
       <c r="AT278" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU278" t="n">
         <v>1.87</v>
@@ -57540,7 +57540,7 @@
         <v>1.18</v>
       </c>
       <c r="AT281" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU281" t="n">
         <v>1.43</v>
@@ -58349,10 +58349,10 @@
         <v>0.71</v>
       </c>
       <c r="AS285" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT285" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU285" t="n">
         <v>1.99</v>
@@ -58958,10 +58958,10 @@
         <v>0.64</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT288" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU288" t="n">
         <v>1.32</v>
@@ -59164,7 +59164,7 @@
         <v>1.13</v>
       </c>
       <c r="AT289" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU289" t="n">
         <v>1.64</v>
@@ -59364,7 +59364,7 @@
         <v>1.44</v>
       </c>
       <c r="AS290" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT290" t="n">
         <v>1.45</v>
@@ -59770,7 +59770,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS292" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT292" t="n">
         <v>0.76</v>
@@ -59976,7 +59976,7 @@
         <v>1.74</v>
       </c>
       <c r="AT293" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU293" t="n">
         <v>2.04</v>
@@ -60991,7 +60991,7 @@
         <v>1.18</v>
       </c>
       <c r="AT298" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU298" t="n">
         <v>1.45</v>
@@ -61191,7 +61191,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS299" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AT299" t="n">
         <v>0.78</v>
@@ -61600,7 +61600,7 @@
         <v>0.71</v>
       </c>
       <c r="AT301" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU301" t="n">
         <v>1.51</v>
@@ -62206,7 +62206,7 @@
         <v>1.94</v>
       </c>
       <c r="AS304" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT304" t="n">
         <v>2.05</v>
@@ -62815,10 +62815,10 @@
         <v>0.88</v>
       </c>
       <c r="AS307" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT307" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU307" t="n">
         <v>2</v>
@@ -63224,7 +63224,7 @@
         <v>1.18</v>
       </c>
       <c r="AT309" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU309" t="n">
         <v>1.44</v>
@@ -64033,7 +64033,7 @@
         <v>1</v>
       </c>
       <c r="AS313" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT313" t="n">
         <v>0.9399999999999999</v>
@@ -64239,7 +64239,7 @@
         <v>2.11</v>
       </c>
       <c r="AT314" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU314" t="n">
         <v>1.99</v>
@@ -64900,6 +64900,1021 @@
       </c>
       <c r="BK317" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B318" t="n">
+        <v>4661734</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E318" s="2" t="n">
+        <v>45045.83333333334</v>
+      </c>
+      <c r="F318" t="n">
+        <v>17</v>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Tijuana</t>
+        </is>
+      </c>
+      <c r="I318" t="n">
+        <v>2</v>
+      </c>
+      <c r="J318" t="n">
+        <v>1</v>
+      </c>
+      <c r="K318" t="n">
+        <v>3</v>
+      </c>
+      <c r="L318" t="n">
+        <v>5</v>
+      </c>
+      <c r="M318" t="n">
+        <v>2</v>
+      </c>
+      <c r="N318" t="n">
+        <v>7</v>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>['13', '32', '55', '61', '77']</t>
+        </is>
+      </c>
+      <c r="P318" t="inlineStr">
+        <is>
+          <t>['25', '68']</t>
+        </is>
+      </c>
+      <c r="Q318" t="n">
+        <v>8</v>
+      </c>
+      <c r="R318" t="n">
+        <v>6</v>
+      </c>
+      <c r="S318" t="n">
+        <v>14</v>
+      </c>
+      <c r="T318" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="U318" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V318" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="W318" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X318" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Y318" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Z318" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA318" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB318" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC318" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AD318" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AE318" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AF318" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG318" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH318" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI318" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ318" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK318" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL318" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM318" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN318" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO318" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP318" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ318" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR318" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AS318" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT318" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AU318" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV318" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW318" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX318" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AY318" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ318" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BA318" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB318" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC318" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD318" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE318" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BF318" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG318" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH318" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI318" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ318" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK318" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B319" t="n">
+        <v>4661736</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E319" s="2" t="n">
+        <v>45045.91666666666</v>
+      </c>
+      <c r="F319" t="n">
+        <v>17</v>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>Atlético San Luis</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Atlas</t>
+        </is>
+      </c>
+      <c r="I319" t="n">
+        <v>0</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0</v>
+      </c>
+      <c r="L319" t="n">
+        <v>0</v>
+      </c>
+      <c r="M319" t="n">
+        <v>0</v>
+      </c>
+      <c r="N319" t="n">
+        <v>0</v>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P319" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q319" t="n">
+        <v>9</v>
+      </c>
+      <c r="R319" t="n">
+        <v>3</v>
+      </c>
+      <c r="S319" t="n">
+        <v>12</v>
+      </c>
+      <c r="T319" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U319" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V319" t="n">
+        <v>3</v>
+      </c>
+      <c r="W319" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X319" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y319" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z319" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA319" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB319" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC319" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD319" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE319" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF319" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG319" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH319" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI319" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ319" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK319" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL319" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM319" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN319" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO319" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP319" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ319" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR319" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS319" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT319" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AU319" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV319" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW319" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX319" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AY319" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ319" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BA319" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB319" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC319" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD319" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE319" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF319" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG319" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH319" t="n">
+        <v>20</v>
+      </c>
+      <c r="BI319" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ319" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK319" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B320" t="n">
+        <v>4661737</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E320" s="2" t="n">
+        <v>45045.92013888889</v>
+      </c>
+      <c r="F320" t="n">
+        <v>17</v>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Pumas UNAM</t>
+        </is>
+      </c>
+      <c r="I320" t="n">
+        <v>4</v>
+      </c>
+      <c r="J320" t="n">
+        <v>1</v>
+      </c>
+      <c r="K320" t="n">
+        <v>5</v>
+      </c>
+      <c r="L320" t="n">
+        <v>4</v>
+      </c>
+      <c r="M320" t="n">
+        <v>1</v>
+      </c>
+      <c r="N320" t="n">
+        <v>5</v>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>['2', '17', '22', '27']</t>
+        </is>
+      </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q320" t="n">
+        <v>5</v>
+      </c>
+      <c r="R320" t="n">
+        <v>6</v>
+      </c>
+      <c r="S320" t="n">
+        <v>11</v>
+      </c>
+      <c r="T320" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U320" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V320" t="n">
+        <v>5</v>
+      </c>
+      <c r="W320" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X320" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y320" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z320" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA320" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB320" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC320" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD320" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE320" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF320" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG320" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH320" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI320" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ320" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK320" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL320" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM320" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN320" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO320" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP320" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ320" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR320" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS320" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AT320" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AU320" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AV320" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW320" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AX320" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY320" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ320" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="BA320" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB320" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC320" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD320" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE320" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF320" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG320" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH320" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI320" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ320" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK320" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B321" t="n">
+        <v>4661738</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E321" s="2" t="n">
+        <v>45045.92013888889</v>
+      </c>
+      <c r="F321" t="n">
+        <v>17</v>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Mazatlán</t>
+        </is>
+      </c>
+      <c r="I321" t="n">
+        <v>2</v>
+      </c>
+      <c r="J321" t="n">
+        <v>1</v>
+      </c>
+      <c r="K321" t="n">
+        <v>3</v>
+      </c>
+      <c r="L321" t="n">
+        <v>4</v>
+      </c>
+      <c r="M321" t="n">
+        <v>1</v>
+      </c>
+      <c r="N321" t="n">
+        <v>5</v>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>['12', '21', '56', '75']</t>
+        </is>
+      </c>
+      <c r="P321" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q321" t="n">
+        <v>9</v>
+      </c>
+      <c r="R321" t="n">
+        <v>8</v>
+      </c>
+      <c r="S321" t="n">
+        <v>17</v>
+      </c>
+      <c r="T321" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U321" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V321" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W321" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X321" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y321" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z321" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA321" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB321" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC321" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AD321" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AE321" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AF321" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG321" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH321" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI321" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AJ321" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK321" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL321" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM321" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN321" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO321" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP321" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AQ321" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR321" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS321" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT321" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU321" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV321" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW321" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX321" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AY321" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ321" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="BA321" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB321" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC321" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD321" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE321" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF321" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG321" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH321" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI321" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ321" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK321" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B322" t="n">
+        <v>4661739</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E322" s="2" t="n">
+        <v>45046.00347222222</v>
+      </c>
+      <c r="F322" t="n">
+        <v>17</v>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>Cruz Azul</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Santos Laguna</t>
+        </is>
+      </c>
+      <c r="I322" t="n">
+        <v>2</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0</v>
+      </c>
+      <c r="K322" t="n">
+        <v>2</v>
+      </c>
+      <c r="L322" t="n">
+        <v>3</v>
+      </c>
+      <c r="M322" t="n">
+        <v>2</v>
+      </c>
+      <c r="N322" t="n">
+        <v>5</v>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>['31', '41', '64']</t>
+        </is>
+      </c>
+      <c r="P322" t="inlineStr">
+        <is>
+          <t>['87', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q322" t="n">
+        <v>3</v>
+      </c>
+      <c r="R322" t="n">
+        <v>6</v>
+      </c>
+      <c r="S322" t="n">
+        <v>9</v>
+      </c>
+      <c r="T322" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U322" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V322" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W322" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X322" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y322" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z322" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA322" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB322" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC322" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD322" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE322" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF322" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG322" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH322" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI322" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ322" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK322" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL322" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM322" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN322" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO322" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP322" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ322" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR322" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS322" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AT322" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU322" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV322" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW322" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX322" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY322" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ322" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BA322" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB322" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC322" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD322" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE322" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BF322" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG322" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH322" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI322" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ322" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK322" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK322"/>
+  <dimension ref="A1:BK325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,7 +2730,7 @@
         <v>0.71</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT14" t="n">
         <v>0.53</v>
@@ -3745,7 +3745,7 @@
         <v>1.84</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT18" t="n">
         <v>0.76</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>1.35</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU25" t="n">
         <v>1.68</v>
@@ -6584,7 +6584,7 @@
         <v>1.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT30" t="n">
         <v>1.95</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT33" t="n">
         <v>0.9399999999999999</v>
@@ -8067,7 +8067,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>2280730</v>
+        <v>2280729</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -8087,59 +8087,59 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Juárez</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Tigres UANL</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>1</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
           <t>[]</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>['45+3']</t>
         </is>
       </c>
       <c r="Q38" t="n">
         <v>4</v>
       </c>
       <c r="R38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S38" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T38" t="n">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="U38" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V38" t="n">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="W38" t="n">
         <v>1.44</v>
@@ -8160,109 +8160,109 @@
         <v>1.06</v>
       </c>
       <c r="AC38" t="n">
-        <v>3.9</v>
+        <v>1.53</v>
       </c>
       <c r="AD38" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AG38" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AI38" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="AJ38" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AK38" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="AL38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP38" t="n">
         <v>1.95</v>
       </c>
-      <c r="AM38" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>1.33</v>
-      </c>
       <c r="AQ38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI38" t="n">
         <v>3</v>
       </c>
-      <c r="AS38" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AW38" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AX38" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AY38" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AZ38" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="BA38" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="BB38" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="BC38" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="BD38" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="BE38" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BF38" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG38" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH38" t="n">
+      <c r="BJ38" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK38" t="n">
         <v>5</v>
-      </c>
-      <c r="BI38" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ38" t="n">
-        <v>8</v>
-      </c>
-      <c r="BK38" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="39">
@@ -8270,7 +8270,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>2280729</v>
+        <v>2280730</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -8290,59 +8290,59 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Tigres UANL</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" t="n">
         <v>1</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>['30']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['45+3']</t>
         </is>
       </c>
       <c r="Q39" t="n">
         <v>4</v>
       </c>
       <c r="R39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S39" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T39" t="n">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="U39" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V39" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="W39" t="n">
         <v>1.44</v>
@@ -8363,109 +8363,109 @@
         <v>1.06</v>
       </c>
       <c r="AC39" t="n">
-        <v>1.53</v>
+        <v>3.9</v>
       </c>
       <c r="AD39" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="AE39" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="AF39" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AG39" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH39" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO39" t="n">
         <v>1.33</v>
       </c>
-      <c r="AI39" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM39" t="n">
+      <c r="AP39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB39" t="n">
         <v>1.75</v>
       </c>
-      <c r="AN39" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AQ39" t="n">
+      <c r="BC39" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF39" t="n">
         <v>3</v>
       </c>
-      <c r="AR39" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BA39" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="BB39" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BC39" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="BD39" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="BE39" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="BF39" t="n">
+      <c r="BG39" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ39" t="n">
         <v>8</v>
       </c>
-      <c r="BG39" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH39" t="n">
-        <v>15</v>
-      </c>
-      <c r="BI39" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ39" t="n">
-        <v>23</v>
-      </c>
       <c r="BK39" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT42" t="n">
         <v>1.45</v>
@@ -9223,7 +9223,7 @@
         <v>1</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT43" t="n">
         <v>1.56</v>
@@ -9429,7 +9429,7 @@
         <v>1.18</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AU44" t="n">
         <v>1.23</v>
@@ -10038,7 +10038,7 @@
         <v>1.84</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU47" t="n">
         <v>1.67</v>
@@ -10444,7 +10444,7 @@
         <v>1.71</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AU49" t="n">
         <v>1.75</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT54" t="n">
         <v>2.05</v>
@@ -11659,7 +11659,7 @@
         <v>1.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT55" t="n">
         <v>0.89</v>
@@ -12877,7 +12877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT61" t="n">
         <v>0.76</v>
@@ -13083,7 +13083,7 @@
         <v>1.35</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU62" t="n">
         <v>1.28</v>
@@ -13286,7 +13286,7 @@
         <v>2.1</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU63" t="n">
         <v>2.23</v>
@@ -13689,7 +13689,7 @@
         <v>1.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT65" t="n">
         <v>0.82</v>
@@ -14298,7 +14298,7 @@
         <v>0.67</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT68" t="n">
         <v>0.71</v>
@@ -15172,7 +15172,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>2280765</v>
+        <v>2280766</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -15192,12 +15192,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Mazatlán</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Juárez</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -15210,164 +15210,164 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
       <c r="N73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['88']</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>['65']</t>
+          <t>['84']</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R73" t="n">
+        <v>6</v>
+      </c>
+      <c r="S73" t="n">
+        <v>9</v>
+      </c>
+      <c r="T73" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V73" t="n">
         <v>4</v>
       </c>
-      <c r="S73" t="n">
-        <v>12</v>
-      </c>
-      <c r="T73" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U73" t="n">
+      <c r="W73" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ73" t="n">
         <v>2.05</v>
       </c>
-      <c r="V73" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="W73" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X73" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Z73" t="n">
+      <c r="AK73" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN73" t="n">
         <v>1.3</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AL73" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AM73" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AN73" t="n">
-        <v>1.19</v>
       </c>
       <c r="AO73" t="n">
         <v>1.3</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="AQ73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR73" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.24</v>
+        <v>0.71</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.78</v>
+        <v>0.65</v>
       </c>
       <c r="AU73" t="n">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="AV73" t="n">
-        <v>1.28</v>
+        <v>1.13</v>
       </c>
       <c r="AW73" t="n">
-        <v>2.98</v>
+        <v>2.56</v>
       </c>
       <c r="AX73" t="n">
-        <v>1.37</v>
+        <v>1.83</v>
       </c>
       <c r="AY73" t="n">
-        <v>8.6</v>
+        <v>5.5</v>
       </c>
       <c r="AZ73" t="n">
-        <v>4.15</v>
+        <v>2.3</v>
       </c>
       <c r="BA73" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="BB73" t="n">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="BC73" t="n">
-        <v>2.21</v>
+        <v>2.05</v>
       </c>
       <c r="BD73" t="n">
-        <v>2.93</v>
+        <v>2.71</v>
       </c>
       <c r="BE73" t="n">
-        <v>3.8</v>
+        <v>3.98</v>
       </c>
       <c r="BF73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG73" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BH73" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BI73" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BJ73" t="n">
         <v>9</v>
       </c>
       <c r="BK73" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
@@ -15375,7 +15375,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>2280766</v>
+        <v>2280765</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -15395,12 +15395,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Mazatlán</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Querétaro</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -15413,164 +15413,164 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>['88']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>['84']</t>
+          <t>['65']</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R74" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S74" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T74" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U74" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="V74" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="W74" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="X74" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Y74" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="Z74" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AA74" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AB74" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="AC74" t="n">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="AD74" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AE74" t="n">
-        <v>3.15</v>
+        <v>4.7</v>
       </c>
       <c r="AF74" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="AG74" t="n">
-        <v>14</v>
+        <v>7.25</v>
       </c>
       <c r="AH74" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="AI74" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="AJ74" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL74" t="n">
         <v>2.05</v>
       </c>
-      <c r="AK74" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AL74" t="n">
+      <c r="AM74" t="n">
         <v>1.7</v>
       </c>
-      <c r="AM74" t="n">
-        <v>2.05</v>
-      </c>
       <c r="AN74" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AO74" t="n">
         <v>1.3</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR74" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.71</v>
+        <v>1.24</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU74" t="n">
-        <v>1.43</v>
+        <v>1.7</v>
       </c>
       <c r="AV74" t="n">
-        <v>1.13</v>
+        <v>1.28</v>
       </c>
       <c r="AW74" t="n">
-        <v>2.56</v>
+        <v>2.98</v>
       </c>
       <c r="AX74" t="n">
-        <v>1.83</v>
+        <v>1.37</v>
       </c>
       <c r="AY74" t="n">
-        <v>5.5</v>
+        <v>8.6</v>
       </c>
       <c r="AZ74" t="n">
-        <v>2.3</v>
+        <v>4.15</v>
       </c>
       <c r="BA74" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="BB74" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="BC74" t="n">
-        <v>2.05</v>
+        <v>2.21</v>
       </c>
       <c r="BD74" t="n">
-        <v>2.71</v>
+        <v>2.93</v>
       </c>
       <c r="BE74" t="n">
-        <v>3.98</v>
+        <v>3.8</v>
       </c>
       <c r="BF74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BG74" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BH74" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BI74" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BJ74" t="n">
         <v>9</v>
       </c>
       <c r="BK74" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75">
@@ -15722,7 +15722,7 @@
         <v>1.42</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU75" t="n">
         <v>1.88</v>
@@ -15922,7 +15922,7 @@
         <v>2</v>
       </c>
       <c r="AS76" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT76" t="n">
         <v>1.95</v>
@@ -15984,7 +15984,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>2280769</v>
+        <v>2280770</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -16004,59 +16004,59 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Tijuana</t>
+          <t>América</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N77" t="n">
         <v>3</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>['21']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>['24', '66']</t>
+          <t>['34', '49', '75']</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S77" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T77" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="U77" t="n">
         <v>2.1</v>
       </c>
       <c r="V77" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="W77" t="n">
         <v>1.44</v>
@@ -16077,13 +16077,13 @@
         <v>1.07</v>
       </c>
       <c r="AC77" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="AD77" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="AE77" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AF77" t="n">
         <v>1.07</v>
@@ -16092,94 +16092,94 @@
         <v>7.5</v>
       </c>
       <c r="AH77" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AI77" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AJ77" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AK77" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="AL77" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AM77" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AN77" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AO77" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR77" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.84</v>
+        <v>2.1</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.76</v>
+        <v>2.05</v>
       </c>
       <c r="AU77" t="n">
-        <v>1.59</v>
+        <v>2.19</v>
       </c>
       <c r="AV77" t="n">
-        <v>1.09</v>
+        <v>1.63</v>
       </c>
       <c r="AW77" t="n">
-        <v>2.68</v>
+        <v>3.82</v>
       </c>
       <c r="AX77" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="AY77" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AZ77" t="n">
-        <v>2.99</v>
+        <v>2.83</v>
       </c>
       <c r="BA77" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="BB77" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="BC77" t="n">
         <v>2</v>
       </c>
       <c r="BD77" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="BE77" t="n">
-        <v>3.42</v>
+        <v>3.64</v>
       </c>
       <c r="BF77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG77" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BH77" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BI77" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BJ77" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK77" t="n">
         <v>16</v>
-      </c>
-      <c r="BK77" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="78">
@@ -16187,7 +16187,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>2280770</v>
+        <v>2280769</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -16207,59 +16207,59 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>América</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N78" t="n">
         <v>3</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['21']</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>['34', '49', '75']</t>
+          <t>['24', '66']</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S78" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T78" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="U78" t="n">
         <v>2.1</v>
       </c>
       <c r="V78" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="W78" t="n">
         <v>1.44</v>
@@ -16280,13 +16280,13 @@
         <v>1.07</v>
       </c>
       <c r="AC78" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="AD78" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AE78" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="AF78" t="n">
         <v>1.07</v>
@@ -16295,94 +16295,94 @@
         <v>7.5</v>
       </c>
       <c r="AH78" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AI78" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AJ78" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AK78" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="AL78" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AM78" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AN78" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="BA78" t="n">
         <v>1.27</v>
       </c>
-      <c r="AO78" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AP78" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AQ78" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR78" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AS78" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AT78" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AU78" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AV78" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AW78" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="AX78" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AY78" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AZ78" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="BA78" t="n">
-        <v>1.31</v>
-      </c>
       <c r="BB78" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="BC78" t="n">
         <v>2</v>
       </c>
       <c r="BD78" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="BE78" t="n">
-        <v>3.64</v>
+        <v>3.42</v>
       </c>
       <c r="BF78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG78" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BH78" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK78" t="n">
         <v>9</v>
-      </c>
-      <c r="BI78" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ78" t="n">
-        <v>12</v>
-      </c>
-      <c r="BK78" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="79">
@@ -17140,7 +17140,7 @@
         <v>1.4</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT82" t="n">
         <v>0.76</v>
@@ -17549,7 +17549,7 @@
         <v>2.21</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU84" t="n">
         <v>2.06</v>
@@ -18967,7 +18967,7 @@
         <v>1.2</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT91" t="n">
         <v>2.05</v>
@@ -19173,7 +19173,7 @@
         <v>1.35</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU92" t="n">
         <v>1.81</v>
@@ -20391,7 +20391,7 @@
         <v>1.74</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU98" t="n">
         <v>2.35</v>
@@ -20794,10 +20794,10 @@
         <v>1.33</v>
       </c>
       <c r="AS100" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AU100" t="n">
         <v>2.01</v>
@@ -20997,7 +20997,7 @@
         <v>0.33</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT101" t="n">
         <v>0.76</v>
@@ -21809,7 +21809,7 @@
         <v>1.17</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT105" t="n">
         <v>0.89</v>
@@ -22480,7 +22480,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>2280802</v>
+        <v>2280803</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -22500,12 +22500,12 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Mazatlán</t>
+          <t>Pumas UNAM</t>
         </is>
       </c>
       <c r="I109" t="n">
@@ -22537,145 +22537,145 @@
         </is>
       </c>
       <c r="Q109" t="n">
+        <v>2</v>
+      </c>
+      <c r="R109" t="n">
         <v>6</v>
       </c>
-      <c r="R109" t="n">
+      <c r="S109" t="n">
+        <v>8</v>
+      </c>
+      <c r="T109" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V109" t="n">
         <v>4</v>
       </c>
-      <c r="S109" t="n">
-        <v>10</v>
-      </c>
-      <c r="T109" t="n">
+      <c r="W109" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X109" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB109" t="n">
         <v>1.9</v>
       </c>
-      <c r="U109" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V109" t="n">
+      <c r="BC109" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG109" t="n">
         <v>6</v>
       </c>
-      <c r="W109" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X109" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Y109" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Z109" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AA109" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="AB109" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC109" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AD109" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="AE109" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AF109" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG109" t="n">
+      <c r="BH109" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ109" t="n">
         <v>9</v>
       </c>
-      <c r="AH109" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI109" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ109" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AK109" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AL109" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM109" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN109" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AO109" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AP109" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AQ109" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AR109" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AS109" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AT109" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AU109" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AV109" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AW109" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AX109" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AY109" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ109" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="BA109" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BB109" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="BC109" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="BD109" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="BE109" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="BF109" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG109" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH109" t="n">
-        <v>15</v>
-      </c>
-      <c r="BI109" t="n">
-        <v>10</v>
-      </c>
-      <c r="BJ109" t="n">
-        <v>23</v>
-      </c>
       <c r="BK109" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110">
@@ -22683,7 +22683,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>2280803</v>
+        <v>2280802</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -22703,12 +22703,12 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Pumas UNAM</t>
+          <t>Mazatlán</t>
         </is>
       </c>
       <c r="I110" t="n">
@@ -22740,145 +22740,145 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R110" t="n">
+        <v>4</v>
+      </c>
+      <c r="S110" t="n">
+        <v>10</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V110" t="n">
         <v>6</v>
       </c>
-      <c r="S110" t="n">
+      <c r="W110" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X110" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="BF110" t="n">
         <v>8</v>
       </c>
-      <c r="T110" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U110" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V110" t="n">
-        <v>4</v>
-      </c>
-      <c r="W110" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X110" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y110" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z110" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA110" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB110" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC110" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AD110" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="AE110" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="AF110" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG110" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH110" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AI110" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AJ110" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AK110" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AL110" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM110" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN110" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AO110" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP110" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AQ110" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AR110" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AS110" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AT110" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AU110" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AV110" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AW110" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="AX110" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AY110" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AZ110" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="BA110" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="BB110" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="BC110" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BD110" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="BE110" t="n">
-        <v>4</v>
-      </c>
-      <c r="BF110" t="n">
-        <v>2</v>
-      </c>
       <c r="BG110" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BH110" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BI110" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BJ110" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="BK110" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111">
@@ -23030,7 +23030,7 @@
         <v>2.11</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU111" t="n">
         <v>2.02</v>
@@ -23230,7 +23230,7 @@
         <v>1.25</v>
       </c>
       <c r="AS112" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT112" t="n">
         <v>1.56</v>
@@ -23433,7 +23433,7 @@
         <v>1.33</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT113" t="n">
         <v>0.78</v>
@@ -23639,7 +23639,7 @@
         <v>1.94</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU114" t="n">
         <v>1.89</v>
@@ -23698,7 +23698,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>2280809</v>
+        <v>2280808</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -23718,98 +23718,98 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>América</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Atlético San Luis</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L115" t="n">
         <v>3</v>
       </c>
       <c r="M115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N115" t="n">
+        <v>5</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>['17', '28', '65']</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>['30', '49']</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
         <v>3</v>
       </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>['45', '54', '56']</t>
-        </is>
-      </c>
-      <c r="P115" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q115" t="n">
-        <v>8</v>
-      </c>
       <c r="R115" t="n">
+        <v>0</v>
+      </c>
+      <c r="S115" t="n">
         <v>3</v>
       </c>
-      <c r="S115" t="n">
-        <v>11</v>
-      </c>
       <c r="T115" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="U115" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="V115" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="W115" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="X115" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Y115" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Z115" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AA115" t="n">
-        <v>6</v>
+        <v>6.45</v>
       </c>
       <c r="AB115" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AC115" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AD115" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="AE115" t="n">
-        <v>5.05</v>
+        <v>5.2</v>
       </c>
       <c r="AF115" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG115" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH115" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AI115" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="AJ115" t="n">
         <v>1.75</v>
@@ -23818,82 +23818,82 @@
         <v>1.89</v>
       </c>
       <c r="AL115" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM115" t="n">
         <v>1.87</v>
       </c>
-      <c r="AM115" t="n">
-        <v>1.86</v>
-      </c>
       <c r="AN115" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="AO115" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AP115" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ115" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AR115" t="n">
-        <v>1.17</v>
+        <v>0.83</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.11</v>
+        <v>2.21</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU115" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="AV115" t="n">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AW115" t="n">
-        <v>3.3</v>
+        <v>3.18</v>
       </c>
       <c r="AX115" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AY115" t="n">
-        <v>7.25</v>
+        <v>6.75</v>
       </c>
       <c r="AZ115" t="n">
-        <v>5.25</v>
+        <v>4.25</v>
       </c>
       <c r="BA115" t="n">
         <v>1.25</v>
       </c>
       <c r="BB115" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="BC115" t="n">
         <v>1.9</v>
       </c>
       <c r="BD115" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="BE115" t="n">
         <v>3.28</v>
       </c>
       <c r="BF115" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH115" t="n">
         <v>7</v>
       </c>
-      <c r="BG115" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH115" t="n">
-        <v>12</v>
-      </c>
       <c r="BI115" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BJ115" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BK115" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116">
@@ -23901,7 +23901,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>2280808</v>
+        <v>2280809</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -23921,98 +23921,98 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>América</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Atlético San Luis</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L116" t="n">
         <v>3</v>
       </c>
       <c r="M116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>['17', '28', '65']</t>
+          <t>['45', '54', '56']</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>['30', '49']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q116" t="n">
+        <v>8</v>
+      </c>
+      <c r="R116" t="n">
         <v>3</v>
       </c>
-      <c r="R116" t="n">
-        <v>0</v>
-      </c>
       <c r="S116" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="T116" t="n">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="U116" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="V116" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="W116" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="X116" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Y116" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Z116" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AA116" t="n">
-        <v>6.45</v>
+        <v>6</v>
       </c>
       <c r="AB116" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="AC116" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="AD116" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="AE116" t="n">
-        <v>5.2</v>
+        <v>5.05</v>
       </c>
       <c r="AF116" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG116" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH116" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AI116" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="AJ116" t="n">
         <v>1.75</v>
@@ -24021,82 +24021,82 @@
         <v>1.89</v>
       </c>
       <c r="AL116" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="AM116" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="AN116" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="AO116" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ116" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="AR116" t="n">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.21</v>
+        <v>2.11</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AU116" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="AV116" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="AW116" t="n">
-        <v>3.18</v>
+        <v>3.3</v>
       </c>
       <c r="AX116" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AY116" t="n">
-        <v>6.75</v>
+        <v>7.25</v>
       </c>
       <c r="AZ116" t="n">
-        <v>4.25</v>
+        <v>5.25</v>
       </c>
       <c r="BA116" t="n">
         <v>1.25</v>
       </c>
       <c r="BB116" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="BC116" t="n">
         <v>1.9</v>
       </c>
       <c r="BD116" t="n">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="BE116" t="n">
         <v>3.28</v>
       </c>
       <c r="BF116" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BG116" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH116" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI116" t="n">
         <v>7</v>
       </c>
-      <c r="BI116" t="n">
-        <v>1</v>
-      </c>
       <c r="BJ116" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BK116" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117">
@@ -24104,7 +24104,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>2280810</v>
+        <v>2280811</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -24124,12 +24124,12 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Tigres UANL</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="I117" t="n">
@@ -24142,68 +24142,68 @@
         <v>1</v>
       </c>
       <c r="L117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N117" t="n">
         <v>4</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>['17', '52']</t>
+          <t>['41', '62', '80']</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>['78', '90']</t>
+          <t>['67']</t>
         </is>
       </c>
       <c r="Q117" t="n">
+        <v>6</v>
+      </c>
+      <c r="R117" t="n">
         <v>3</v>
       </c>
-      <c r="R117" t="n">
-        <v>4</v>
-      </c>
       <c r="S117" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T117" t="n">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="U117" t="n">
-        <v>2.1</v>
+        <v>2.46</v>
       </c>
       <c r="V117" t="n">
-        <v>2.8</v>
+        <v>5.27</v>
       </c>
       <c r="W117" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="X117" t="n">
-        <v>2.8</v>
+        <v>3.37</v>
       </c>
       <c r="Y117" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="Z117" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="AA117" t="n">
-        <v>6.45</v>
+        <v>5.95</v>
       </c>
       <c r="AB117" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="AC117" t="n">
-        <v>3.36</v>
+        <v>1.64</v>
       </c>
       <c r="AD117" t="n">
-        <v>3.67</v>
+        <v>4.11</v>
       </c>
       <c r="AE117" t="n">
-        <v>2.08</v>
+        <v>5.09</v>
       </c>
       <c r="AF117" t="n">
         <v>1.05</v>
@@ -24212,94 +24212,94 @@
         <v>9</v>
       </c>
       <c r="AH117" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AI117" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AJ117" t="n">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="AK117" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="AL117" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AM117" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AN117" t="n">
-        <v>1.63</v>
+        <v>1.2</v>
       </c>
       <c r="AO117" t="n">
         <v>1.25</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.35</v>
+        <v>2.28</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR117" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.42</v>
+        <v>1.74</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.74</v>
+        <v>1.45</v>
       </c>
       <c r="AU117" t="n">
-        <v>1.97</v>
+        <v>2.27</v>
       </c>
       <c r="AV117" t="n">
-        <v>1.9</v>
+        <v>1.44</v>
       </c>
       <c r="AW117" t="n">
-        <v>3.87</v>
+        <v>3.71</v>
       </c>
       <c r="AX117" t="n">
-        <v>2.28</v>
+        <v>1.37</v>
       </c>
       <c r="AY117" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ117" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="BA117" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="BB117" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="BC117" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="BD117" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="BE117" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="BF117" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG117" t="n">
         <v>5</v>
       </c>
-      <c r="BG117" t="n">
-        <v>3</v>
-      </c>
       <c r="BH117" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BI117" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="BJ117" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="BK117" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118">
@@ -24307,7 +24307,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>2280811</v>
+        <v>2280810</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -24327,12 +24327,12 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Tigres UANL</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="I118" t="n">
@@ -24345,68 +24345,68 @@
         <v>1</v>
       </c>
       <c r="L118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N118" t="n">
         <v>4</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>['41', '62', '80']</t>
+          <t>['17', '52']</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>['67']</t>
+          <t>['78', '90']</t>
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R118" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S118" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T118" t="n">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="U118" t="n">
-        <v>2.46</v>
+        <v>2.1</v>
       </c>
       <c r="V118" t="n">
-        <v>5.27</v>
+        <v>2.8</v>
       </c>
       <c r="W118" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="X118" t="n">
-        <v>3.37</v>
+        <v>2.8</v>
       </c>
       <c r="Y118" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="Z118" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="AA118" t="n">
-        <v>5.95</v>
+        <v>6.45</v>
       </c>
       <c r="AB118" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AC118" t="n">
-        <v>1.64</v>
+        <v>3.36</v>
       </c>
       <c r="AD118" t="n">
-        <v>4.11</v>
+        <v>3.67</v>
       </c>
       <c r="AE118" t="n">
-        <v>5.09</v>
+        <v>2.08</v>
       </c>
       <c r="AF118" t="n">
         <v>1.05</v>
@@ -24415,94 +24415,94 @@
         <v>9</v>
       </c>
       <c r="AH118" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AI118" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AJ118" t="n">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="AK118" t="n">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="AL118" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AM118" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AN118" t="n">
-        <v>1.2</v>
+        <v>1.63</v>
       </c>
       <c r="AO118" t="n">
         <v>1.25</v>
       </c>
       <c r="AP118" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="AX118" t="n">
         <v>2.28</v>
       </c>
-      <c r="AQ118" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AR118" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AS118" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AT118" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AU118" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AV118" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AW118" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="AX118" t="n">
-        <v>1.37</v>
-      </c>
       <c r="AY118" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ118" t="n">
-        <v>3.7</v>
+        <v>1.85</v>
       </c>
       <c r="BA118" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="BB118" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="BC118" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="BD118" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="BE118" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="BF118" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BG118" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH118" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BI118" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="BJ118" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="BK118" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119">
@@ -24713,7 +24713,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>2280812</v>
+        <v>2280813</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -24733,71 +24733,71 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Pumas UNAM</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Querétaro</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N120" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>['25', '62', '68', '90+3']</t>
+          <t>['58']</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>['43']</t>
+          <t>['47', '67']</t>
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R120" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S120" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T120" t="n">
-        <v>2.65</v>
+        <v>3.25</v>
       </c>
       <c r="U120" t="n">
         <v>2.05</v>
       </c>
       <c r="V120" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="W120" t="n">
         <v>1.4</v>
       </c>
       <c r="X120" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Y120" t="n">
         <v>2.75</v>
       </c>
       <c r="Z120" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="AA120" t="n">
         <v>7</v>
@@ -24806,109 +24806,109 @@
         <v>1.08</v>
       </c>
       <c r="AC120" t="n">
-        <v>1.96</v>
+        <v>2.77</v>
       </c>
       <c r="AD120" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AE120" t="n">
-        <v>3.45</v>
+        <v>2.43</v>
       </c>
       <c r="AF120" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AG120" t="n">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="AH120" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AI120" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AJ120" t="n">
-        <v>1.97</v>
+        <v>2.19</v>
       </c>
       <c r="AK120" t="n">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="AL120" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AM120" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AN120" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AO120" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.73</v>
+        <v>1.4</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR120" t="n">
-        <v>0.33</v>
+        <v>1.2</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU120" t="n">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="AV120" t="n">
-        <v>1.3</v>
+        <v>1.69</v>
       </c>
       <c r="AW120" t="n">
-        <v>2.98</v>
+        <v>3.14</v>
       </c>
       <c r="AX120" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="AY120" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI120" t="n">
         <v>8</v>
       </c>
-      <c r="AZ120" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="BA120" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="BB120" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="BC120" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="BD120" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BE120" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="BF120" t="n">
-        <v>7</v>
-      </c>
-      <c r="BG120" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH120" t="n">
-        <v>9</v>
-      </c>
-      <c r="BI120" t="n">
-        <v>6</v>
-      </c>
       <c r="BJ120" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BK120" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121">
@@ -24916,7 +24916,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>2280813</v>
+        <v>2280812</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -24936,71 +24936,71 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Tijuana</t>
+          <t>Pumas UNAM</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L121" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N121" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>['58']</t>
+          <t>['25', '62', '68', '90+3']</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>['47', '67']</t>
+          <t>['43']</t>
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R121" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S121" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T121" t="n">
-        <v>3.25</v>
+        <v>2.65</v>
       </c>
       <c r="U121" t="n">
         <v>2.05</v>
       </c>
       <c r="V121" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="W121" t="n">
         <v>1.4</v>
       </c>
       <c r="X121" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Y121" t="n">
         <v>2.75</v>
       </c>
       <c r="Z121" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="AA121" t="n">
         <v>7</v>
@@ -25009,109 +25009,109 @@
         <v>1.08</v>
       </c>
       <c r="AC121" t="n">
-        <v>2.77</v>
+        <v>1.96</v>
       </c>
       <c r="AD121" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AE121" t="n">
-        <v>2.43</v>
+        <v>3.45</v>
       </c>
       <c r="AF121" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AG121" t="n">
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH121" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AI121" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG121" t="n">
         <v>3</v>
       </c>
-      <c r="AJ121" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AK121" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AL121" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM121" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AN121" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AO121" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP121" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AQ121" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AR121" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AS121" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AT121" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AU121" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AV121" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AW121" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AX121" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AY121" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ121" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA121" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BB121" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="BC121" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BD121" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="BE121" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="BF121" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG121" t="n">
-        <v>4</v>
-      </c>
       <c r="BH121" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BI121" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BJ121" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BK121" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122">
@@ -25463,7 +25463,7 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT123" t="n">
         <v>0.9399999999999999</v>
@@ -26072,7 +26072,7 @@
         <v>0.6</v>
       </c>
       <c r="AS126" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT126" t="n">
         <v>0.53</v>
@@ -27090,7 +27090,7 @@
         <v>1.71</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU131" t="n">
         <v>1.79</v>
@@ -27496,7 +27496,7 @@
         <v>1.18</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AU133" t="n">
         <v>1.44</v>
@@ -27902,7 +27902,7 @@
         <v>1.42</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU135" t="n">
         <v>1.87</v>
@@ -29117,7 +29117,7 @@
         <v>0.29</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT141" t="n">
         <v>0.65</v>
@@ -29323,7 +29323,7 @@
         <v>1.35</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AU142" t="n">
         <v>1.33</v>
@@ -29526,7 +29526,7 @@
         <v>1.18</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU143" t="n">
         <v>1.46</v>
@@ -30541,7 +30541,7 @@
         <v>1.35</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU148" t="n">
         <v>1.28</v>
@@ -30744,7 +30744,7 @@
         <v>2.21</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AU149" t="n">
         <v>2.01</v>
@@ -30947,7 +30947,7 @@
         <v>1.24</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU150" t="n">
         <v>1.5</v>
@@ -31350,7 +31350,7 @@
         <v>0.25</v>
       </c>
       <c r="AS152" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT152" t="n">
         <v>0.65</v>
@@ -31756,7 +31756,7 @@
         <v>1</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT154" t="n">
         <v>0.76</v>
@@ -31959,10 +31959,10 @@
         <v>1.12</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU155" t="n">
         <v>2.21</v>
@@ -32165,7 +32165,7 @@
         <v>1.41</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="AU156" t="n">
         <v>1.63</v>
@@ -32365,7 +32365,7 @@
         <v>1.12</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="AT157" t="n">
         <v>0.97</v>
@@ -33177,7 +33177,7 @@
         <v>1.94</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="AT161" t="n">
         <v>1.44</v>
@@ -33380,10 +33380,10 @@
         <v>1.88</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AU162" t="n">
         <v>2.12</v>
@@ -33992,7 +33992,7 @@
         <v>1.44</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="AU165" t="n">
         <v>1.9</v>
@@ -34192,10 +34192,10 @@
         <v>1.89</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AU166" t="n">
         <v>2.13</v>
@@ -34395,7 +34395,7 @@
         <v>2.32</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="AT167" t="n">
         <v>2.08</v>
@@ -34598,7 +34598,7 @@
         <v>2.05</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AT168" t="n">
         <v>2.08</v>
@@ -34804,7 +34804,7 @@
         <v>2.08</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="AU169" t="n">
         <v>2.08</v>
@@ -35007,7 +35007,7 @@
         <v>2.08</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AU170" t="n">
         <v>1.92</v>
@@ -35207,10 +35207,10 @@
         <v>1.95</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AU171" t="n">
         <v>1.78</v>
@@ -35410,10 +35410,10 @@
         <v>1.74</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="AU172" t="n">
         <v>2.06</v>
@@ -36428,7 +36428,7 @@
         <v>1.94</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU177" t="n">
         <v>1.94</v>
@@ -37846,7 +37846,7 @@
         <v>1.91</v>
       </c>
       <c r="AS184" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT184" t="n">
         <v>2.05</v>
@@ -38458,7 +38458,7 @@
         <v>1.74</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AU187" t="n">
         <v>2.03</v>
@@ -38658,10 +38658,10 @@
         <v>0.9</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU188" t="n">
         <v>1.65</v>
@@ -39067,7 +39067,7 @@
         <v>1.18</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU190" t="n">
         <v>1.65</v>
@@ -39532,7 +39532,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>4661613</v>
+        <v>4661612</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -39552,12 +39552,12 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="I193" t="n">
@@ -39573,50 +39573,50 @@
         <v>1</v>
       </c>
       <c r="M193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N193" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>['14']</t>
+          <t>['31']</t>
         </is>
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['60', '84']</t>
         </is>
       </c>
       <c r="Q193" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R193" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S193" t="n">
         <v>10</v>
       </c>
       <c r="T193" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V193" t="n">
+        <v>4</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X193" t="n">
         <v>3</v>
       </c>
-      <c r="U193" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V193" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="W193" t="n">
+      <c r="Y193" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z193" t="n">
         <v>1.4</v>
-      </c>
-      <c r="X193" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y193" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z193" t="n">
-        <v>1.36</v>
       </c>
       <c r="AA193" t="n">
         <v>8</v>
@@ -39625,109 +39625,109 @@
         <v>1.08</v>
       </c>
       <c r="AC193" t="n">
-        <v>2.56</v>
+        <v>2.01</v>
       </c>
       <c r="AD193" t="n">
         <v>3.24</v>
       </c>
       <c r="AE193" t="n">
-        <v>2.4</v>
+        <v>3.24</v>
       </c>
       <c r="AF193" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AG193" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH193" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AI193" t="n">
-        <v>3.14</v>
+        <v>3.4</v>
       </c>
       <c r="AJ193" t="n">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="AK193" t="n">
-        <v>1.77</v>
+        <v>1.96</v>
       </c>
       <c r="AL193" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AM193" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AN193" t="n">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="AO193" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.52</v>
+        <v>1.79</v>
       </c>
       <c r="AQ193" t="n">
-        <v>1.11</v>
+        <v>1.44</v>
       </c>
       <c r="AR193" t="n">
-        <v>0.9</v>
+        <v>1.36</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.18</v>
+        <v>1.71</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="AU193" t="n">
-        <v>1.4</v>
+        <v>1.87</v>
       </c>
       <c r="AV193" t="n">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AW193" t="n">
-        <v>2.72</v>
+        <v>3.3</v>
       </c>
       <c r="AX193" t="n">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
       <c r="AY193" t="n">
         <v>8</v>
       </c>
       <c r="AZ193" t="n">
-        <v>2.2</v>
+        <v>2.77</v>
       </c>
       <c r="BA193" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="BB193" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="BC193" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BD193" t="n">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="BE193" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="BF193" t="n">
         <v>4</v>
       </c>
       <c r="BG193" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BH193" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BI193" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BJ193" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BK193" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194">
@@ -39735,7 +39735,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>4661612</v>
+        <v>4661613</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -39755,12 +39755,12 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="I194" t="n">
@@ -39776,50 +39776,50 @@
         <v>1</v>
       </c>
       <c r="M194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N194" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>['31']</t>
+          <t>['14']</t>
         </is>
       </c>
       <c r="P194" t="inlineStr">
         <is>
-          <t>['60', '84']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q194" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R194" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S194" t="n">
         <v>10</v>
       </c>
       <c r="T194" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U194" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V194" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="W194" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X194" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z194" t="n">
         <v>1.36</v>
-      </c>
-      <c r="X194" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y194" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z194" t="n">
-        <v>1.4</v>
       </c>
       <c r="AA194" t="n">
         <v>8</v>
@@ -39828,109 +39828,109 @@
         <v>1.08</v>
       </c>
       <c r="AC194" t="n">
-        <v>2.01</v>
+        <v>2.56</v>
       </c>
       <c r="AD194" t="n">
         <v>3.24</v>
       </c>
       <c r="AE194" t="n">
-        <v>3.24</v>
+        <v>2.4</v>
       </c>
       <c r="AF194" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AG194" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH194" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AI194" t="n">
-        <v>3.4</v>
+        <v>3.14</v>
       </c>
       <c r="AJ194" t="n">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="AK194" t="n">
-        <v>1.96</v>
+        <v>1.77</v>
       </c>
       <c r="AL194" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AM194" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AN194" t="n">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="AO194" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AP194" t="n">
-        <v>1.79</v>
+        <v>1.52</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.44</v>
+        <v>1.11</v>
       </c>
       <c r="AR194" t="n">
-        <v>1.36</v>
+        <v>0.9</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.71</v>
+        <v>1.18</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.45</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU194" t="n">
-        <v>1.87</v>
+        <v>1.4</v>
       </c>
       <c r="AV194" t="n">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="AW194" t="n">
-        <v>3.3</v>
+        <v>2.72</v>
       </c>
       <c r="AX194" t="n">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="AY194" t="n">
         <v>8</v>
       </c>
       <c r="AZ194" t="n">
-        <v>2.77</v>
+        <v>2.2</v>
       </c>
       <c r="BA194" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="BB194" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="BC194" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BD194" t="n">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="BE194" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="BF194" t="n">
         <v>4</v>
       </c>
       <c r="BG194" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH194" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BI194" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BJ194" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BK194" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="195">
@@ -40282,7 +40282,7 @@
         <v>0.22</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT196" t="n">
         <v>0.76</v>
@@ -41359,7 +41359,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>4661623</v>
+        <v>4661622</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -41379,182 +41379,182 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Juárez</t>
+          <t>América</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Mazatlán</t>
         </is>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K202" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L202" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N202" t="n">
+        <v>6</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['30', '32', '34', '40', '59', '90+3']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>5</v>
+      </c>
+      <c r="R202" t="n">
+        <v>4</v>
+      </c>
+      <c r="S202" t="n">
+        <v>9</v>
+      </c>
+      <c r="T202" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V202" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X202" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE202" t="n">
         <v>3</v>
       </c>
-      <c r="O202" t="inlineStr">
-        <is>
-          <t>['60']</t>
-        </is>
-      </c>
-      <c r="P202" t="inlineStr">
-        <is>
-          <t>['23', '38']</t>
-        </is>
-      </c>
-      <c r="Q202" t="n">
-        <v>9</v>
-      </c>
-      <c r="R202" t="n">
-        <v>2</v>
-      </c>
-      <c r="S202" t="n">
-        <v>11</v>
-      </c>
-      <c r="T202" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U202" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V202" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="W202" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X202" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y202" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Z202" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA202" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB202" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC202" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AD202" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AE202" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AF202" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG202" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH202" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AI202" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AJ202" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AK202" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AL202" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM202" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN202" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AO202" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP202" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AQ202" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AR202" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AS202" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AT202" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AU202" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AV202" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AW202" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="AX202" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AY202" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AZ202" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA202" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="BB202" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="BC202" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="BD202" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="BE202" t="n">
-        <v>4.1</v>
-      </c>
       <c r="BF202" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BG202" t="n">
         <v>3</v>
       </c>
       <c r="BH202" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="BI202" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BJ202" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="BK202" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203">
@@ -41562,7 +41562,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>4661622</v>
+        <v>4661623</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -41582,182 +41582,182 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>América</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Mazatlán</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="I203" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K203" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="n">
+        <v>2</v>
+      </c>
+      <c r="N203" t="n">
+        <v>3</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['23', '38']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>9</v>
+      </c>
+      <c r="R203" t="n">
+        <v>2</v>
+      </c>
+      <c r="S203" t="n">
+        <v>11</v>
+      </c>
+      <c r="T203" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V203" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X203" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF203" t="n">
         <v>6</v>
-      </c>
-      <c r="M203" t="n">
-        <v>0</v>
-      </c>
-      <c r="N203" t="n">
-        <v>6</v>
-      </c>
-      <c r="O203" t="inlineStr">
-        <is>
-          <t>['30', '32', '34', '40', '59', '90+3']</t>
-        </is>
-      </c>
-      <c r="P203" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q203" t="n">
-        <v>5</v>
-      </c>
-      <c r="R203" t="n">
-        <v>4</v>
-      </c>
-      <c r="S203" t="n">
-        <v>9</v>
-      </c>
-      <c r="T203" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U203" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="V203" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W203" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="X203" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y203" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Z203" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA203" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AB203" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AC203" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AD203" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE203" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AF203" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG203" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH203" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AI203" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AJ203" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AK203" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AL203" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM203" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN203" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AO203" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AP203" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AQ203" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AR203" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AS203" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AT203" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AU203" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AV203" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AW203" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="AX203" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AY203" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ203" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA203" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="BB203" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BC203" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="BD203" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="BE203" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF203" t="n">
-        <v>10</v>
       </c>
       <c r="BG203" t="n">
         <v>3</v>
       </c>
       <c r="BH203" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="BI203" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>28</v>
+      </c>
+      <c r="BK203" t="n">
         <v>7</v>
-      </c>
-      <c r="BJ203" t="n">
-        <v>18</v>
-      </c>
-      <c r="BK203" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="204">
@@ -41906,7 +41906,7 @@
         <v>0.73</v>
       </c>
       <c r="AS204" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT204" t="n">
         <v>1.17</v>
@@ -42112,7 +42112,7 @@
         <v>2.1</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU205" t="n">
         <v>1.94</v>
@@ -43124,10 +43124,10 @@
         <v>1.5</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AU210" t="n">
         <v>1.69</v>
@@ -43330,7 +43330,7 @@
         <v>1.84</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU211" t="n">
         <v>1.59</v>
@@ -44342,7 +44342,7 @@
         <v>0.75</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT216" t="n">
         <v>1.17</v>
@@ -45157,7 +45157,7 @@
         <v>2.11</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU220" t="n">
         <v>2.16</v>
@@ -45966,7 +45966,7 @@
         <v>0.82</v>
       </c>
       <c r="AS224" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT224" t="n">
         <v>0.9399999999999999</v>
@@ -46028,7 +46028,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>4661644</v>
+        <v>4661645</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -46048,12 +46048,12 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>León</t>
+          <t>Tigres UANL</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="I225" t="n">
@@ -46066,17 +46066,17 @@
         <v>0</v>
       </c>
       <c r="L225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M225" t="n">
         <v>0</v>
       </c>
       <c r="N225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>['64', '82']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P225" t="inlineStr">
@@ -46085,34 +46085,34 @@
         </is>
       </c>
       <c r="Q225" t="n">
+        <v>3</v>
+      </c>
+      <c r="R225" t="n">
+        <v>7</v>
+      </c>
+      <c r="S225" t="n">
         <v>10</v>
       </c>
-      <c r="R225" t="n">
-        <v>3</v>
-      </c>
-      <c r="S225" t="n">
-        <v>13</v>
-      </c>
       <c r="T225" t="n">
-        <v>2.75</v>
+        <v>2.11</v>
       </c>
       <c r="U225" t="n">
-        <v>2.15</v>
+        <v>2.31</v>
       </c>
       <c r="V225" t="n">
-        <v>3.4</v>
+        <v>5.35</v>
       </c>
       <c r="W225" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X225" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="Y225" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="Z225" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="AA225" t="n">
         <v>6.25</v>
@@ -46121,109 +46121,109 @@
         <v>1.1</v>
       </c>
       <c r="AC225" t="n">
-        <v>2.12</v>
+        <v>1.52</v>
       </c>
       <c r="AD225" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="AE225" t="n">
-        <v>3.05</v>
+        <v>5.65</v>
       </c>
       <c r="AF225" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="AG225" t="n">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="AH225" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="BA225" t="n">
         <v>1.25</v>
       </c>
-      <c r="AI225" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AJ225" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AK225" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AL225" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AM225" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AN225" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AO225" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP225" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AQ225" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AR225" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AS225" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AT225" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AU225" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AV225" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AW225" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="AX225" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AY225" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ225" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="BA225" t="n">
-        <v>1.22</v>
-      </c>
       <c r="BB225" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="BC225" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="BD225" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="BE225" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="BF225" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BG225" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH225" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="BI225" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BJ225" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="BK225" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="226">
@@ -46231,7 +46231,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="n">
-        <v>4661645</v>
+        <v>4661644</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -46251,12 +46251,12 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>Tigres UANL</t>
+          <t>León</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Juárez</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="I226" t="n">
@@ -46269,53 +46269,53 @@
         <v>0</v>
       </c>
       <c r="L226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M226" t="n">
         <v>0</v>
       </c>
       <c r="N226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O226" t="inlineStr">
         <is>
+          <t>['64', '82']</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P226" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q226" t="n">
+        <v>10</v>
+      </c>
+      <c r="R226" t="n">
         <v>3</v>
       </c>
-      <c r="R226" t="n">
-        <v>7</v>
-      </c>
       <c r="S226" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T226" t="n">
-        <v>2.11</v>
+        <v>2.75</v>
       </c>
       <c r="U226" t="n">
-        <v>2.31</v>
+        <v>2.15</v>
       </c>
       <c r="V226" t="n">
-        <v>5.35</v>
+        <v>3.4</v>
       </c>
       <c r="W226" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X226" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="Y226" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="Z226" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="AA226" t="n">
         <v>6.25</v>
@@ -46324,109 +46324,109 @@
         <v>1.1</v>
       </c>
       <c r="AC226" t="n">
-        <v>1.52</v>
+        <v>2.12</v>
       </c>
       <c r="AD226" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI226" t="n">
         <v>3.75</v>
       </c>
-      <c r="AE226" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="AF226" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG226" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH226" t="n">
+      <c r="AJ226" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA226" t="n">
         <v>1.22</v>
       </c>
-      <c r="AI226" t="n">
+      <c r="BB226" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>14</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>21</v>
+      </c>
+      <c r="BI226" t="n">
         <v>4</v>
       </c>
-      <c r="AJ226" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AK226" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AL226" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AM226" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN226" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AO226" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AP226" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AQ226" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AR226" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AS226" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AT226" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AU226" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AV226" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AW226" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AX226" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AY226" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AZ226" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="BA226" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="BB226" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="BC226" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="BD226" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="BE226" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="BF226" t="n">
-        <v>7</v>
-      </c>
-      <c r="BG226" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH226" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI226" t="n">
-        <v>7</v>
-      </c>
       <c r="BJ226" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="BK226" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="227">
@@ -47390,7 +47390,7 @@
         <v>0.71</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AU231" t="n">
         <v>1.64</v>
@@ -48202,7 +48202,7 @@
         <v>2.21</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU235" t="n">
         <v>2.02</v>
@@ -48405,7 +48405,7 @@
         <v>1.24</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU236" t="n">
         <v>1.54</v>
@@ -48808,7 +48808,7 @@
         <v>0.67</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT238" t="n">
         <v>0.71</v>
@@ -50838,7 +50838,7 @@
         <v>1.17</v>
       </c>
       <c r="AS248" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT248" t="n">
         <v>0.82</v>
@@ -51247,7 +51247,7 @@
         <v>1.18</v>
       </c>
       <c r="AT250" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AU250" t="n">
         <v>1.75</v>
@@ -51447,7 +51447,7 @@
         <v>1.93</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT251" t="n">
         <v>1.95</v>
@@ -51653,7 +51653,7 @@
         <v>1.18</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU252" t="n">
         <v>1.43</v>
@@ -52259,7 +52259,7 @@
         <v>1.08</v>
       </c>
       <c r="AS255" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT255" t="n">
         <v>0.82</v>
@@ -52465,7 +52465,7 @@
         <v>2.11</v>
       </c>
       <c r="AT256" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AU256" t="n">
         <v>2.1</v>
@@ -53274,7 +53274,7 @@
         <v>1.56</v>
       </c>
       <c r="AS260" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT260" t="n">
         <v>1.45</v>
@@ -54492,7 +54492,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS266" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT266" t="n">
         <v>0.71</v>
@@ -55104,7 +55104,7 @@
         <v>1.18</v>
       </c>
       <c r="AT269" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU269" t="n">
         <v>1.47</v>
@@ -55510,7 +55510,7 @@
         <v>0.71</v>
       </c>
       <c r="AT271" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU271" t="n">
         <v>1.57</v>
@@ -56525,7 +56525,7 @@
         <v>1.35</v>
       </c>
       <c r="AT276" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AU276" t="n">
         <v>1.73</v>
@@ -56725,7 +56725,7 @@
         <v>0.8</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT277" t="n">
         <v>0.78</v>
@@ -56928,7 +56928,7 @@
         <v>0.93</v>
       </c>
       <c r="AS278" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT278" t="n">
         <v>0.9399999999999999</v>
@@ -57334,7 +57334,7 @@
         <v>0.86</v>
       </c>
       <c r="AS280" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT280" t="n">
         <v>0.9399999999999999</v>
@@ -58755,10 +58755,10 @@
         <v>1.8</v>
       </c>
       <c r="AS287" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT287" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU287" t="n">
         <v>1.9</v>
@@ -59161,7 +59161,7 @@
         <v>0.57</v>
       </c>
       <c r="AS289" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT289" t="n">
         <v>0.53</v>
@@ -59773,7 +59773,7 @@
         <v>1.71</v>
       </c>
       <c r="AT292" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AU292" t="n">
         <v>1.86</v>
@@ -59832,7 +59832,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="n">
-        <v>4661711</v>
+        <v>4661709</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -59852,179 +59852,179 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>Tigres UANL</t>
+          <t>León</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Mazatlán</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
       <c r="J293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>['76']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P293" t="inlineStr">
         <is>
-          <t>['18', '38']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q293" t="n">
         <v>9</v>
       </c>
       <c r="R293" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S293" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T293" t="n">
-        <v>1.76</v>
+        <v>2.6</v>
       </c>
       <c r="U293" t="n">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="V293" t="n">
-        <v>8.77</v>
+        <v>3.7</v>
       </c>
       <c r="W293" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X293" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="Y293" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="Z293" t="n">
-        <v>1.59</v>
+        <v>1.43</v>
       </c>
       <c r="AA293" t="n">
-        <v>5.45</v>
+        <v>6.5</v>
       </c>
       <c r="AB293" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="AC293" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD293" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE293" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF293" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG293" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH293" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI293" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ293" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK293" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL293" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM293" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN293" t="n">
         <v>1.31</v>
       </c>
-      <c r="AD293" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="AE293" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="AF293" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG293" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH293" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AI293" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="AJ293" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AK293" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AL293" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AM293" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AN293" t="n">
-        <v>1.03</v>
-      </c>
       <c r="AO293" t="n">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="AP293" t="n">
-        <v>3.6</v>
+        <v>1.71</v>
       </c>
       <c r="AQ293" t="n">
-        <v>1.76</v>
+        <v>1.93</v>
       </c>
       <c r="AR293" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AS293" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="AT293" t="n">
-        <v>0.71</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU293" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="AV293" t="n">
-        <v>1.1</v>
+        <v>1.35</v>
       </c>
       <c r="AW293" t="n">
-        <v>3.14</v>
+        <v>3.27</v>
       </c>
       <c r="AX293" t="n">
-        <v>1.13</v>
+        <v>1.69</v>
       </c>
       <c r="AY293" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AZ293" t="n">
-        <v>7.6</v>
+        <v>2.63</v>
       </c>
       <c r="BA293" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="BB293" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="BC293" t="n">
         <v>1.95</v>
       </c>
       <c r="BD293" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="BE293" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="BF293" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="BG293" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BH293" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BI293" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BJ293" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="BK293" t="n">
         <v>8</v>
@@ -60035,7 +60035,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
-        <v>4661709</v>
+        <v>4661711</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -60055,179 +60055,179 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>León</t>
+          <t>Tigres UANL</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Mazatlán</t>
         </is>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
       <c r="J294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N294" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['76']</t>
         </is>
       </c>
       <c r="P294" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['18', '38']</t>
         </is>
       </c>
       <c r="Q294" t="n">
         <v>9</v>
       </c>
       <c r="R294" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S294" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T294" t="n">
-        <v>2.6</v>
+        <v>1.76</v>
       </c>
       <c r="U294" t="n">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="V294" t="n">
-        <v>3.7</v>
+        <v>8.77</v>
       </c>
       <c r="W294" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="X294" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="Y294" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="Z294" t="n">
-        <v>1.43</v>
+        <v>1.59</v>
       </c>
       <c r="AA294" t="n">
-        <v>6.5</v>
+        <v>5.45</v>
       </c>
       <c r="AB294" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC294" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD294" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AE294" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="AF294" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG294" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH294" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI294" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="AJ294" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK294" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL294" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM294" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN294" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO294" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP294" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AQ294" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AR294" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS294" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AT294" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU294" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AV294" t="n">
         <v>1.1</v>
       </c>
-      <c r="AC294" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AD294" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE294" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AF294" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG294" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH294" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AI294" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AJ294" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AK294" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AL294" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AM294" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AN294" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AO294" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP294" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AQ294" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AR294" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS294" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AT294" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AU294" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AV294" t="n">
-        <v>1.35</v>
-      </c>
       <c r="AW294" t="n">
-        <v>3.27</v>
+        <v>3.14</v>
       </c>
       <c r="AX294" t="n">
-        <v>1.69</v>
+        <v>1.13</v>
       </c>
       <c r="AY294" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ294" t="n">
-        <v>2.63</v>
+        <v>7.6</v>
       </c>
       <c r="BA294" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="BB294" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="BC294" t="n">
         <v>1.95</v>
       </c>
       <c r="BD294" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="BE294" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="BF294" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BG294" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BH294" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BI294" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BJ294" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="BK294" t="n">
         <v>8</v>
@@ -60788,7 +60788,7 @@
         <v>1.94</v>
       </c>
       <c r="AT297" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AU297" t="n">
         <v>1.99</v>
@@ -61803,7 +61803,7 @@
         <v>1.24</v>
       </c>
       <c r="AT302" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AU302" t="n">
         <v>1.57</v>
@@ -62003,7 +62003,7 @@
         <v>1.47</v>
       </c>
       <c r="AS303" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT303" t="n">
         <v>1.56</v>
@@ -62612,10 +62612,10 @@
         <v>1.69</v>
       </c>
       <c r="AS306" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT306" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AU306" t="n">
         <v>1.61</v>
@@ -64439,7 +64439,7 @@
         <v>0.76</v>
       </c>
       <c r="AS315" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AT315" t="n">
         <v>0.78</v>
@@ -65915,6 +65915,615 @@
       </c>
       <c r="BK322" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B323" t="n">
+        <v>4661740</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E323" s="2" t="n">
+        <v>45046.625</v>
+      </c>
+      <c r="F323" t="n">
+        <v>17</v>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>Toluca</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Necaxa</t>
+        </is>
+      </c>
+      <c r="I323" t="n">
+        <v>1</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0</v>
+      </c>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="n">
+        <v>3</v>
+      </c>
+      <c r="M323" t="n">
+        <v>0</v>
+      </c>
+      <c r="N323" t="n">
+        <v>3</v>
+      </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>['31', '52', '71']</t>
+        </is>
+      </c>
+      <c r="P323" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q323" t="n">
+        <v>2</v>
+      </c>
+      <c r="R323" t="n">
+        <v>3</v>
+      </c>
+      <c r="S323" t="n">
+        <v>5</v>
+      </c>
+      <c r="T323" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U323" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V323" t="n">
+        <v>5</v>
+      </c>
+      <c r="W323" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X323" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y323" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z323" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA323" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB323" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC323" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AD323" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE323" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF323" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG323" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH323" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI323" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ323" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK323" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL323" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM323" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN323" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO323" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP323" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ323" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR323" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AS323" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AT323" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AU323" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV323" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW323" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX323" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY323" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ323" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BA323" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB323" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC323" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD323" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE323" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF323" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG323" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH323" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI323" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ323" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK323" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B324" t="n">
+        <v>4661741</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E324" s="2" t="n">
+        <v>45046.83333333334</v>
+      </c>
+      <c r="F324" t="n">
+        <v>17</v>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Pachuca</t>
+        </is>
+      </c>
+      <c r="I324" t="n">
+        <v>0</v>
+      </c>
+      <c r="J324" t="n">
+        <v>1</v>
+      </c>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="n">
+        <v>0</v>
+      </c>
+      <c r="M324" t="n">
+        <v>1</v>
+      </c>
+      <c r="N324" t="n">
+        <v>1</v>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P324" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q324" t="n">
+        <v>4</v>
+      </c>
+      <c r="R324" t="n">
+        <v>1</v>
+      </c>
+      <c r="S324" t="n">
+        <v>5</v>
+      </c>
+      <c r="T324" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U324" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V324" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W324" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X324" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y324" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z324" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA324" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB324" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC324" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AD324" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE324" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AF324" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG324" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH324" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI324" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ324" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK324" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL324" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM324" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN324" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AO324" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP324" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ324" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR324" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AS324" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT324" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU324" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV324" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AW324" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX324" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AY324" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ324" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BA324" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB324" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC324" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD324" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE324" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF324" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG324" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH324" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI324" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ324" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK324" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B325" t="n">
+        <v>4661742</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E325" s="2" t="n">
+        <v>45046.92013888889</v>
+      </c>
+      <c r="F325" t="n">
+        <v>17</v>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>León</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Tigres UANL</t>
+        </is>
+      </c>
+      <c r="I325" t="n">
+        <v>2</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0</v>
+      </c>
+      <c r="K325" t="n">
+        <v>2</v>
+      </c>
+      <c r="L325" t="n">
+        <v>3</v>
+      </c>
+      <c r="M325" t="n">
+        <v>0</v>
+      </c>
+      <c r="N325" t="n">
+        <v>3</v>
+      </c>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>['17', '45', '67']</t>
+        </is>
+      </c>
+      <c r="P325" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q325" t="n">
+        <v>4</v>
+      </c>
+      <c r="R325" t="n">
+        <v>6</v>
+      </c>
+      <c r="S325" t="n">
+        <v>10</v>
+      </c>
+      <c r="T325" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U325" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V325" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W325" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X325" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y325" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z325" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA325" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB325" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC325" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD325" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE325" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF325" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG325" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH325" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI325" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ325" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK325" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL325" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM325" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN325" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO325" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP325" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ325" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR325" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS325" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT325" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU325" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV325" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW325" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX325" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AY325" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ325" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA325" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB325" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC325" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD325" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE325" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF325" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG325" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH325" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI325" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ325" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK325" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK325"/>
+  <dimension ref="A1:BK327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>2.11</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AT10" t="n">
         <v>0.65</v>
@@ -2933,7 +2933,7 @@
         <v>1.42</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT16" t="n">
         <v>1.8</v>
@@ -4151,7 +4151,7 @@
         <v>2.05</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AT28" t="n">
         <v>0.71</v>
@@ -7196,7 +7196,7 @@
         <v>2.05</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AU33" t="n">
         <v>1.79</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT34" t="n">
         <v>0.89</v>
@@ -7805,7 +7805,7 @@
         <v>1.74</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU36" t="n">
         <v>2.14</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AT37" t="n">
         <v>0.53</v>
@@ -10035,7 +10035,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT47" t="n">
         <v>0.72</v>
@@ -11256,7 +11256,7 @@
         <v>1.94</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU53" t="n">
         <v>1.7</v>
@@ -13283,7 +13283,7 @@
         <v>3</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AT63" t="n">
         <v>1.56</v>
@@ -14707,7 +14707,7 @@
         <v>1.71</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU70" t="n">
         <v>1.75</v>
@@ -14907,7 +14907,7 @@
         <v>1.75</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT71" t="n">
         <v>1.45</v>
@@ -15113,7 +15113,7 @@
         <v>1.74</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AU72" t="n">
         <v>2.42</v>
@@ -16125,7 +16125,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AT77" t="n">
         <v>2.05</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT78" t="n">
         <v>0.76</v>
@@ -18158,7 +18158,7 @@
         <v>1.35</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AU87" t="n">
         <v>1.77</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AT89" t="n">
         <v>1.17</v>
@@ -19373,10 +19373,10 @@
         <v>0.4</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU93" t="n">
         <v>2.03</v>
@@ -19579,7 +19579,7 @@
         <v>1.18</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AU94" t="n">
         <v>1.32</v>
@@ -20185,7 +20185,7 @@
         <v>0.4</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT97" t="n">
         <v>0.65</v>
@@ -21000,7 +21000,7 @@
         <v>1.82</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU101" t="n">
         <v>1.57</v>
@@ -22418,10 +22418,10 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AU108" t="n">
         <v>2.06</v>
@@ -24654,7 +24654,7 @@
         <v>0.71</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU119" t="n">
         <v>1.36</v>
@@ -25466,7 +25466,7 @@
         <v>1.06</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AU123" t="n">
         <v>1.69</v>
@@ -26478,7 +26478,7 @@
         <v>1.17</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT128" t="n">
         <v>0.71</v>
@@ -26884,7 +26884,7 @@
         <v>1.14</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AT130" t="n">
         <v>0.76</v>
@@ -27293,7 +27293,7 @@
         <v>2.11</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AU132" t="n">
         <v>2.05</v>
@@ -27696,7 +27696,7 @@
         <v>1</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT134" t="n">
         <v>1.17</v>
@@ -28308,7 +28308,7 @@
         <v>2.21</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU137" t="n">
         <v>2.07</v>
@@ -31147,7 +31147,7 @@
         <v>1.29</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT151" t="n">
         <v>1.56</v>
@@ -32162,7 +32162,7 @@
         <v>1.29</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="AT156" t="n">
         <v>1.49</v>
@@ -32974,7 +32974,7 @@
         <v>2.06</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="AT160" t="n">
         <v>2.08</v>
@@ -33180,7 +33180,7 @@
         <v>1.76</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AU161" t="n">
         <v>1.78</v>
@@ -33383,7 +33383,7 @@
         <v>1.65</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AU162" t="n">
         <v>2.12</v>
@@ -33586,7 +33586,7 @@
         <v>2.08</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="AU163" t="n">
         <v>1.94</v>
@@ -33989,7 +33989,7 @@
         <v>1.74</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AT165" t="n">
         <v>1.76</v>
@@ -34192,7 +34192,7 @@
         <v>1.89</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AT166" t="n">
         <v>1.65</v>
@@ -34598,7 +34598,7 @@
         <v>2.05</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AT168" t="n">
         <v>2.08</v>
@@ -35007,7 +35007,7 @@
         <v>2.08</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AU170" t="n">
         <v>1.92</v>
@@ -35210,7 +35210,7 @@
         <v>1.76</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AU171" t="n">
         <v>1.78</v>
@@ -35410,7 +35410,7 @@
         <v>1.74</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AT172" t="n">
         <v>1.76</v>
@@ -36831,7 +36831,7 @@
         <v>0.89</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AT179" t="n">
         <v>0.89</v>
@@ -37643,7 +37643,7 @@
         <v>1.64</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT183" t="n">
         <v>1.95</v>
@@ -38864,7 +38864,7 @@
         <v>0.71</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AU189" t="n">
         <v>1.55</v>
@@ -40285,7 +40285,7 @@
         <v>1.06</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU196" t="n">
         <v>1.76</v>
@@ -40485,7 +40485,7 @@
         <v>0.8</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AT197" t="n">
         <v>0.78</v>
@@ -40691,7 +40691,7 @@
         <v>1.24</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AU198" t="n">
         <v>1.55</v>
@@ -42109,7 +42109,7 @@
         <v>0.82</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AT205" t="n">
         <v>0.72</v>
@@ -43327,7 +43327,7 @@
         <v>1.5</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT211" t="n">
         <v>1.56</v>
@@ -43736,7 +43736,7 @@
         <v>1.35</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU213" t="n">
         <v>1.76</v>
@@ -45360,7 +45360,7 @@
         <v>1.18</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AU221" t="n">
         <v>1.49</v>
@@ -45763,7 +45763,7 @@
         <v>1.42</v>
       </c>
       <c r="AS223" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AT223" t="n">
         <v>1.56</v>
@@ -47999,7 +47999,7 @@
         <v>1.35</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AU234" t="n">
         <v>1.29</v>
@@ -49214,7 +49214,7 @@
         <v>1.36</v>
       </c>
       <c r="AS240" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AT240" t="n">
         <v>1.45</v>
@@ -49417,10 +49417,10 @@
         <v>0.36</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT241" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU241" t="n">
         <v>1.6</v>
@@ -50229,7 +50229,7 @@
         <v>0.92</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT245" t="n">
         <v>0.78</v>
@@ -52059,7 +52059,7 @@
         <v>1.18</v>
       </c>
       <c r="AT254" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU254" t="n">
         <v>1.72</v>
@@ -52871,7 +52871,7 @@
         <v>1.71</v>
       </c>
       <c r="AT258" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AU258" t="n">
         <v>1.82</v>
@@ -54086,7 +54086,7 @@
         <v>0.62</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT264" t="n">
         <v>0.53</v>
@@ -54695,7 +54695,7 @@
         <v>1.87</v>
       </c>
       <c r="AS267" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AT267" t="n">
         <v>1.95</v>
@@ -55307,7 +55307,7 @@
         <v>1.42</v>
       </c>
       <c r="AT270" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU270" t="n">
         <v>1.55</v>
@@ -55913,7 +55913,7 @@
         <v>1</v>
       </c>
       <c r="AS273" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT273" t="n">
         <v>0.82</v>
@@ -56931,7 +56931,7 @@
         <v>1.82</v>
       </c>
       <c r="AT278" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AU278" t="n">
         <v>1.87</v>
@@ -57540,7 +57540,7 @@
         <v>1.18</v>
       </c>
       <c r="AT281" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AU281" t="n">
         <v>1.43</v>
@@ -57943,7 +57943,7 @@
         <v>0.87</v>
       </c>
       <c r="AS283" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AT283" t="n">
         <v>0.9399999999999999</v>
@@ -60991,7 +60991,7 @@
         <v>1.18</v>
       </c>
       <c r="AT298" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU298" t="n">
         <v>1.45</v>
@@ -62206,7 +62206,7 @@
         <v>1.94</v>
       </c>
       <c r="AS304" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT304" t="n">
         <v>2.05</v>
@@ -62818,7 +62818,7 @@
         <v>2.21</v>
       </c>
       <c r="AT307" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AU307" t="n">
         <v>2</v>
@@ -63224,7 +63224,7 @@
         <v>1.18</v>
       </c>
       <c r="AT309" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU309" t="n">
         <v>1.44</v>
@@ -63830,7 +63830,7 @@
         <v>0.88</v>
       </c>
       <c r="AS312" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AT312" t="n">
         <v>0.82</v>
@@ -65254,7 +65254,7 @@
         <v>1.35</v>
       </c>
       <c r="AT319" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU319" t="n">
         <v>1.31</v>
@@ -65860,10 +65860,10 @@
         <v>1</v>
       </c>
       <c r="AS322" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT322" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AU322" t="n">
         <v>1.55</v>
@@ -66524,6 +66524,412 @@
       </c>
       <c r="BK325" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B326" t="n">
+        <v>6022641</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E326" s="2" t="n">
+        <v>45052.83333333334</v>
+      </c>
+      <c r="F326" t="n">
+        <v>0</v>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>Cruz Azul</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Atlas</t>
+        </is>
+      </c>
+      <c r="I326" t="n">
+        <v>0</v>
+      </c>
+      <c r="J326" t="n">
+        <v>1</v>
+      </c>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="n">
+        <v>0</v>
+      </c>
+      <c r="M326" t="n">
+        <v>1</v>
+      </c>
+      <c r="N326" t="n">
+        <v>1</v>
+      </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P326" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="Q326" t="n">
+        <v>5</v>
+      </c>
+      <c r="R326" t="n">
+        <v>4</v>
+      </c>
+      <c r="S326" t="n">
+        <v>9</v>
+      </c>
+      <c r="T326" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U326" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V326" t="n">
+        <v>4</v>
+      </c>
+      <c r="W326" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X326" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y326" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z326" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA326" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB326" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC326" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD326" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE326" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF326" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG326" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH326" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI326" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ326" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK326" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL326" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM326" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN326" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO326" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP326" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ326" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AR326" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS326" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT326" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU326" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV326" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW326" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX326" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY326" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ326" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BA326" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB326" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC326" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD326" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE326" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF326" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG326" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH326" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI326" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ326" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK326" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B327" t="n">
+        <v>6022638</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E327" s="2" t="n">
+        <v>45052.92361111111</v>
+      </c>
+      <c r="F327" t="n">
+        <v>0</v>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>Pachuca</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Santos Laguna</t>
+        </is>
+      </c>
+      <c r="I327" t="n">
+        <v>3</v>
+      </c>
+      <c r="J327" t="n">
+        <v>2</v>
+      </c>
+      <c r="K327" t="n">
+        <v>5</v>
+      </c>
+      <c r="L327" t="n">
+        <v>4</v>
+      </c>
+      <c r="M327" t="n">
+        <v>4</v>
+      </c>
+      <c r="N327" t="n">
+        <v>8</v>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>['7', '14', '43', '90+2']</t>
+        </is>
+      </c>
+      <c r="P327" t="inlineStr">
+        <is>
+          <t>['11', '26', '52', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q327" t="n">
+        <v>7</v>
+      </c>
+      <c r="R327" t="n">
+        <v>2</v>
+      </c>
+      <c r="S327" t="n">
+        <v>9</v>
+      </c>
+      <c r="T327" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U327" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V327" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W327" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X327" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y327" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z327" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA327" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB327" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC327" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD327" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="AE327" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AF327" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG327" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH327" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI327" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AJ327" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK327" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL327" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM327" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN327" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO327" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP327" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AQ327" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AR327" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS327" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT327" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU327" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV327" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW327" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AX327" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY327" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ327" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BA327" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB327" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC327" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD327" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE327" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF327" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG327" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH327" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI327" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ327" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK327" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK327"/>
+  <dimension ref="A1:BK329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.71</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AT5" t="n">
         <v>0.9399999999999999</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT14" t="n">
         <v>0.53</v>
@@ -3542,7 +3542,7 @@
         <v>1.71</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU15" t="n">
         <v>1.82</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AT27" t="n">
         <v>0.76</v>
@@ -6790,7 +6790,7 @@
         <v>0.71</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU31" t="n">
         <v>0.58</v>
@@ -7399,7 +7399,7 @@
         <v>1.75</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU34" t="n">
         <v>1</v>
@@ -7802,7 +7802,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AT36" t="n">
         <v>0.89</v>
@@ -8067,7 +8067,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>2280729</v>
+        <v>2280728</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -8087,59 +8087,59 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>['30']</t>
+          <t>['5']</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['40', '45']</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T38" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="U38" t="n">
         <v>2.1</v>
       </c>
       <c r="V38" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="W38" t="n">
         <v>1.44</v>
@@ -8160,109 +8160,109 @@
         <v>1.06</v>
       </c>
       <c r="AC38" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="AD38" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="AE38" t="n">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="AF38" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AG38" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH38" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AI38" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="AJ38" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="AK38" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AL38" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AM38" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AN38" t="n">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AO38" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AQ38" t="n">
         <v>3</v>
       </c>
       <c r="AR38" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.21</v>
+        <v>1.24</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
       <c r="AU38" t="n">
-        <v>2.07</v>
+        <v>1.67</v>
       </c>
       <c r="AV38" t="n">
-        <v>1.31</v>
+        <v>0.73</v>
       </c>
       <c r="AW38" t="n">
-        <v>3.38</v>
+        <v>2.4</v>
       </c>
       <c r="AX38" t="n">
-        <v>1.53</v>
+        <v>1.27</v>
       </c>
       <c r="AY38" t="n">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ38" t="n">
-        <v>3.3</v>
+        <v>5.35</v>
       </c>
       <c r="BA38" t="n">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="BB38" t="n">
-        <v>1.5</v>
+        <v>1.76</v>
       </c>
       <c r="BC38" t="n">
-        <v>1.9</v>
+        <v>2.28</v>
       </c>
       <c r="BD38" t="n">
-        <v>2.44</v>
+        <v>3.04</v>
       </c>
       <c r="BE38" t="n">
-        <v>3.34</v>
+        <v>4.4</v>
       </c>
       <c r="BF38" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BG38" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BH38" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK38" t="n">
         <v>15</v>
-      </c>
-      <c r="BI38" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ38" t="n">
-        <v>23</v>
-      </c>
-      <c r="BK38" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -8270,7 +8270,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>2280730</v>
+        <v>2280729</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -8290,59 +8290,59 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Juárez</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Tigres UANL</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>1</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
           <t>[]</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>['45+3']</t>
         </is>
       </c>
       <c r="Q39" t="n">
         <v>4</v>
       </c>
       <c r="R39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S39" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T39" t="n">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="U39" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V39" t="n">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="W39" t="n">
         <v>1.44</v>
@@ -8363,109 +8363,109 @@
         <v>1.06</v>
       </c>
       <c r="AC39" t="n">
-        <v>3.9</v>
+        <v>1.53</v>
       </c>
       <c r="AD39" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AG39" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AI39" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="AJ39" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AK39" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="AL39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP39" t="n">
         <v>1.95</v>
       </c>
-      <c r="AM39" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>1.33</v>
-      </c>
       <c r="AQ39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI39" t="n">
         <v>3</v>
       </c>
-      <c r="AS39" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="BA39" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="BB39" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="BC39" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="BD39" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="BE39" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BF39" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG39" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH39" t="n">
+      <c r="BJ39" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK39" t="n">
         <v>5</v>
-      </c>
-      <c r="BI39" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ39" t="n">
-        <v>8</v>
-      </c>
-      <c r="BK39" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -8473,7 +8473,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>2280728</v>
+        <v>2280730</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -8493,59 +8493,59 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Tijuana</t>
+          <t>Tigres UANL</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>['45+3']</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
         <v>3</v>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="n">
-        <v>2</v>
-      </c>
-      <c r="N40" t="n">
+      <c r="S40" t="n">
+        <v>7</v>
+      </c>
+      <c r="T40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V40" t="n">
         <v>3</v>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>['5']</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>['40', '45']</t>
-        </is>
-      </c>
-      <c r="Q40" t="n">
-        <v>10</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1</v>
-      </c>
-      <c r="S40" t="n">
-        <v>11</v>
-      </c>
-      <c r="T40" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U40" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V40" t="n">
-        <v>6</v>
       </c>
       <c r="W40" t="n">
         <v>1.44</v>
@@ -8566,13 +8566,13 @@
         <v>1.06</v>
       </c>
       <c r="AC40" t="n">
-        <v>1.73</v>
+        <v>3.9</v>
       </c>
       <c r="AD40" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="AE40" t="n">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="AF40" t="n">
         <v>1.08</v>
@@ -8590,58 +8590,58 @@
         <v>2.12</v>
       </c>
       <c r="AK40" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="AL40" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AM40" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AN40" t="n">
-        <v>1.15</v>
+        <v>1.63</v>
       </c>
       <c r="AO40" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR40" t="n">
         <v>3</v>
       </c>
-      <c r="AR40" t="n">
-        <v>0.5</v>
-      </c>
       <c r="AS40" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.76</v>
+        <v>1.56</v>
       </c>
       <c r="AU40" t="n">
-        <v>1.67</v>
+        <v>0.98</v>
       </c>
       <c r="AV40" t="n">
-        <v>0.73</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AW40" t="n">
-        <v>2.4</v>
+        <v>1.92</v>
       </c>
       <c r="AX40" t="n">
-        <v>1.27</v>
+        <v>2.84</v>
       </c>
       <c r="AY40" t="n">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AZ40" t="n">
-        <v>5.35</v>
+        <v>1.68</v>
       </c>
       <c r="BA40" t="n">
         <v>1.41</v>
       </c>
       <c r="BB40" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="BC40" t="n">
         <v>2.28</v>
@@ -8653,22 +8653,22 @@
         <v>4.4</v>
       </c>
       <c r="BF40" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG40" t="n">
         <v>4</v>
       </c>
-      <c r="BG40" t="n">
-        <v>6</v>
-      </c>
       <c r="BH40" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BI40" t="n">
         <v>9</v>
       </c>
       <c r="BJ40" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="BK40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT42" t="n">
         <v>1.45</v>
@@ -9082,7 +9082,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>2280733</v>
+        <v>2280734</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -9102,86 +9102,86 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Querétaro</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
         <v>2</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>['45+1', '90']</t>
+          <t>['34', '48']</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>['26', '81']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
         <v>9</v>
       </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
       <c r="S43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T43" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V43" t="n">
         <v>3.4</v>
       </c>
-      <c r="U43" t="n">
-        <v>2</v>
-      </c>
-      <c r="V43" t="n">
-        <v>3.5</v>
-      </c>
       <c r="W43" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X43" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Z43" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AA43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB43" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC43" t="n">
         <v>2.5</v>
       </c>
       <c r="AD43" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AE43" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="AF43" t="n">
         <v>1.08</v>
@@ -9190,94 +9190,94 @@
         <v>7</v>
       </c>
       <c r="AH43" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AI43" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AJ43" t="n">
-        <v>2.17</v>
+        <v>2.03</v>
       </c>
       <c r="AK43" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AL43" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AM43" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AN43" t="n">
         <v>1.44</v>
       </c>
       <c r="AO43" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AP43" t="n">
         <v>1.49</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.56</v>
+        <v>1.8</v>
       </c>
       <c r="AU43" t="n">
-        <v>1.56</v>
+        <v>1.23</v>
       </c>
       <c r="AV43" t="n">
-        <v>1.96</v>
+        <v>2.13</v>
       </c>
       <c r="AW43" t="n">
-        <v>3.52</v>
+        <v>3.36</v>
       </c>
       <c r="AX43" t="n">
         <v>1.95</v>
       </c>
       <c r="AY43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ43" t="n">
         <v>2.1</v>
       </c>
       <c r="BA43" t="n">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="BB43" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="BC43" t="n">
-        <v>2.28</v>
+        <v>1.95</v>
       </c>
       <c r="BD43" t="n">
-        <v>3.04</v>
+        <v>2.52</v>
       </c>
       <c r="BE43" t="n">
-        <v>4.25</v>
+        <v>3.48</v>
       </c>
       <c r="BF43" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BG43" t="n">
         <v>4</v>
       </c>
       <c r="BH43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI43" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ43" t="n">
         <v>9</v>
       </c>
-      <c r="BJ43" t="n">
-        <v>16</v>
-      </c>
       <c r="BK43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -9285,7 +9285,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>2280734</v>
+        <v>2280733</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -9305,86 +9305,86 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L44" t="n">
         <v>2</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>['34', '48']</t>
+          <t>['45+1', '90']</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['26', '81']</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R44" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T44" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U44" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V44" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y44" t="n">
         <v>3.4</v>
       </c>
-      <c r="W44" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X44" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Z44" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AA44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB44" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC44" t="n">
         <v>2.5</v>
       </c>
       <c r="AD44" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AE44" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="AF44" t="n">
         <v>1.08</v>
@@ -9393,94 +9393,94 @@
         <v>7</v>
       </c>
       <c r="AH44" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AI44" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AJ44" t="n">
-        <v>2.03</v>
+        <v>2.17</v>
       </c>
       <c r="AK44" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AL44" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AM44" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AN44" t="n">
         <v>1.44</v>
       </c>
       <c r="AO44" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AP44" t="n">
         <v>1.49</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AR44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.8</v>
+        <v>1.56</v>
       </c>
       <c r="AU44" t="n">
-        <v>1.23</v>
+        <v>1.56</v>
       </c>
       <c r="AV44" t="n">
-        <v>2.13</v>
+        <v>1.96</v>
       </c>
       <c r="AW44" t="n">
-        <v>3.36</v>
+        <v>3.52</v>
       </c>
       <c r="AX44" t="n">
         <v>1.95</v>
       </c>
       <c r="AY44" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ44" t="n">
         <v>2.1</v>
       </c>
       <c r="BA44" t="n">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="BB44" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="BC44" t="n">
-        <v>1.95</v>
+        <v>2.28</v>
       </c>
       <c r="BD44" t="n">
-        <v>2.52</v>
+        <v>3.04</v>
       </c>
       <c r="BE44" t="n">
-        <v>3.48</v>
+        <v>4.25</v>
       </c>
       <c r="BF44" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BG44" t="n">
         <v>4</v>
       </c>
       <c r="BH44" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI44" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BJ44" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BK44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AT48" t="n">
         <v>0.65</v>
@@ -10647,7 +10647,7 @@
         <v>1.42</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU50" t="n">
         <v>1.49</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT54" t="n">
         <v>2.05</v>
@@ -11662,7 +11662,7 @@
         <v>2.05</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU55" t="n">
         <v>2.07</v>
@@ -11865,7 +11865,7 @@
         <v>1.18</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU56" t="n">
         <v>1.2</v>
@@ -13692,7 +13692,7 @@
         <v>1.06</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU65" t="n">
         <v>1.69</v>
@@ -14098,7 +14098,7 @@
         <v>1.18</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU67" t="n">
         <v>1.17</v>
@@ -14298,7 +14298,7 @@
         <v>0.67</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT68" t="n">
         <v>0.71</v>
@@ -15110,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AT72" t="n">
         <v>0.95</v>
@@ -15172,7 +15172,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>2280766</v>
+        <v>2280765</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -15192,12 +15192,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Mazatlán</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Querétaro</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -15210,164 +15210,164 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
       <c r="N73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>['88']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>['84']</t>
+          <t>['65']</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R73" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S73" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T73" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U73" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="V73" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="W73" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="X73" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Y73" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="Z73" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AA73" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AB73" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="AC73" t="n">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="AD73" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AE73" t="n">
-        <v>3.15</v>
+        <v>4.7</v>
       </c>
       <c r="AF73" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="AG73" t="n">
-        <v>14</v>
+        <v>7.25</v>
       </c>
       <c r="AH73" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="AI73" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="AJ73" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL73" t="n">
         <v>2.05</v>
       </c>
-      <c r="AK73" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AL73" t="n">
+      <c r="AM73" t="n">
         <v>1.7</v>
       </c>
-      <c r="AM73" t="n">
-        <v>2.05</v>
-      </c>
       <c r="AN73" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AO73" t="n">
         <v>1.3</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR73" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.71</v>
+        <v>1.24</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU73" t="n">
-        <v>1.43</v>
+        <v>1.7</v>
       </c>
       <c r="AV73" t="n">
-        <v>1.13</v>
+        <v>1.28</v>
       </c>
       <c r="AW73" t="n">
-        <v>2.56</v>
+        <v>2.98</v>
       </c>
       <c r="AX73" t="n">
-        <v>1.83</v>
+        <v>1.37</v>
       </c>
       <c r="AY73" t="n">
-        <v>5.5</v>
+        <v>8.6</v>
       </c>
       <c r="AZ73" t="n">
-        <v>2.3</v>
+        <v>4.15</v>
       </c>
       <c r="BA73" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="BB73" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="BC73" t="n">
-        <v>2.05</v>
+        <v>2.21</v>
       </c>
       <c r="BD73" t="n">
-        <v>2.71</v>
+        <v>2.93</v>
       </c>
       <c r="BE73" t="n">
-        <v>3.98</v>
+        <v>3.8</v>
       </c>
       <c r="BF73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BG73" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BH73" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BI73" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BJ73" t="n">
         <v>9</v>
       </c>
       <c r="BK73" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74">
@@ -15375,7 +15375,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>2280765</v>
+        <v>2280766</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -15395,12 +15395,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Mazatlán</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Juárez</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -15413,164 +15413,164 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['88']</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>['65']</t>
+          <t>['84']</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R74" t="n">
+        <v>6</v>
+      </c>
+      <c r="S74" t="n">
+        <v>9</v>
+      </c>
+      <c r="T74" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V74" t="n">
         <v>4</v>
       </c>
-      <c r="S74" t="n">
-        <v>12</v>
-      </c>
-      <c r="T74" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U74" t="n">
+      <c r="W74" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ74" t="n">
         <v>2.05</v>
       </c>
-      <c r="V74" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="W74" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X74" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Z74" t="n">
+      <c r="AK74" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN74" t="n">
         <v>1.3</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AM74" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>1.19</v>
       </c>
       <c r="AO74" t="n">
         <v>1.3</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="AQ74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR74" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.24</v>
+        <v>0.71</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.78</v>
+        <v>0.65</v>
       </c>
       <c r="AU74" t="n">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="AV74" t="n">
-        <v>1.28</v>
+        <v>1.13</v>
       </c>
       <c r="AW74" t="n">
-        <v>2.98</v>
+        <v>2.56</v>
       </c>
       <c r="AX74" t="n">
-        <v>1.37</v>
+        <v>1.83</v>
       </c>
       <c r="AY74" t="n">
-        <v>8.6</v>
+        <v>5.5</v>
       </c>
       <c r="AZ74" t="n">
-        <v>4.15</v>
+        <v>2.3</v>
       </c>
       <c r="BA74" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="BB74" t="n">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="BC74" t="n">
-        <v>2.21</v>
+        <v>2.05</v>
       </c>
       <c r="BD74" t="n">
-        <v>2.93</v>
+        <v>2.71</v>
       </c>
       <c r="BE74" t="n">
-        <v>3.8</v>
+        <v>3.98</v>
       </c>
       <c r="BF74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG74" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BH74" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BI74" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BJ74" t="n">
         <v>9</v>
       </c>
       <c r="BK74" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75">
@@ -15984,7 +15984,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>2280770</v>
+        <v>2280769</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -16004,59 +16004,59 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>América</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N77" t="n">
         <v>3</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['21']</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>['34', '49', '75']</t>
+          <t>['24', '66']</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T77" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="U77" t="n">
         <v>2.1</v>
       </c>
       <c r="V77" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="W77" t="n">
         <v>1.44</v>
@@ -16077,13 +16077,13 @@
         <v>1.07</v>
       </c>
       <c r="AC77" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="AD77" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AE77" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="AF77" t="n">
         <v>1.07</v>
@@ -16092,94 +16092,94 @@
         <v>7.5</v>
       </c>
       <c r="AH77" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AI77" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AJ77" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AK77" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="AL77" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AM77" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AN77" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="BA77" t="n">
         <v>1.27</v>
       </c>
-      <c r="AO77" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AP77" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AQ77" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR77" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AS77" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AT77" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AU77" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AV77" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AW77" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="AX77" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AY77" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AZ77" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="BA77" t="n">
-        <v>1.31</v>
-      </c>
       <c r="BB77" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="BC77" t="n">
         <v>2</v>
       </c>
       <c r="BD77" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="BE77" t="n">
-        <v>3.64</v>
+        <v>3.42</v>
       </c>
       <c r="BF77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG77" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BH77" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK77" t="n">
         <v>9</v>
-      </c>
-      <c r="BI77" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ77" t="n">
-        <v>12</v>
-      </c>
-      <c r="BK77" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="78">
@@ -16187,7 +16187,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>2280769</v>
+        <v>2280770</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -16207,59 +16207,59 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Tijuana</t>
+          <t>América</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N78" t="n">
         <v>3</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>['21']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>['24', '66']</t>
+          <t>['34', '49', '75']</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S78" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T78" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="U78" t="n">
         <v>2.1</v>
       </c>
       <c r="V78" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="W78" t="n">
         <v>1.44</v>
@@ -16280,13 +16280,13 @@
         <v>1.07</v>
       </c>
       <c r="AC78" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="AD78" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="AE78" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AF78" t="n">
         <v>1.07</v>
@@ -16295,94 +16295,94 @@
         <v>7.5</v>
       </c>
       <c r="AH78" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AI78" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AJ78" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AK78" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="AL78" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AM78" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AN78" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AO78" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR78" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.76</v>
+        <v>2.05</v>
       </c>
       <c r="AU78" t="n">
-        <v>1.59</v>
+        <v>2.19</v>
       </c>
       <c r="AV78" t="n">
-        <v>1.09</v>
+        <v>1.63</v>
       </c>
       <c r="AW78" t="n">
-        <v>2.68</v>
+        <v>3.82</v>
       </c>
       <c r="AX78" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="AY78" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AZ78" t="n">
-        <v>2.99</v>
+        <v>2.83</v>
       </c>
       <c r="BA78" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="BB78" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="BC78" t="n">
         <v>2</v>
       </c>
       <c r="BD78" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="BE78" t="n">
-        <v>3.42</v>
+        <v>3.64</v>
       </c>
       <c r="BF78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG78" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BH78" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BI78" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BJ78" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK78" t="n">
         <v>16</v>
-      </c>
-      <c r="BK78" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="79">
@@ -17346,7 +17346,7 @@
         <v>1.24</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU83" t="n">
         <v>1.52</v>
@@ -17608,7 +17608,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>2280774</v>
+        <v>2280778</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -17628,182 +17628,182 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Juárez</t>
+          <t>América</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Mazatlán</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L85" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>['47']</t>
+          <t>['15', '22', '45+9', '53', '73', '85', '90']</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R85" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S85" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="T85" t="n">
-        <v>2.69</v>
+        <v>2.22</v>
       </c>
       <c r="U85" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="V85" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ85" t="n">
         <v>1.95</v>
       </c>
-      <c r="V85" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="W85" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="X85" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="Y85" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="Z85" t="n">
+      <c r="AK85" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX85" t="n">
         <v>1.27</v>
       </c>
-      <c r="AA85" t="n">
+      <c r="AY85" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH85" t="n">
         <v>10</v>
       </c>
-      <c r="AB85" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC85" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AD85" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AF85" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AK85" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AL85" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AM85" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AN85" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AO85" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP85" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AQ85" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AR85" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AS85" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AT85" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AU85" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AV85" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AW85" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AX85" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AY85" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AZ85" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BA85" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BB85" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="BC85" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="BD85" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BE85" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="BF85" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG85" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH85" t="n">
-        <v>6</v>
-      </c>
       <c r="BI85" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BJ85" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="BK85" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86">
@@ -17811,7 +17811,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>2280778</v>
+        <v>2280774</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -17831,182 +17831,182 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>América</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Mazatlán</t>
         </is>
       </c>
       <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="n">
+        <v>2</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>7</v>
+      </c>
+      <c r="R86" t="n">
+        <v>7</v>
+      </c>
+      <c r="S86" t="n">
+        <v>14</v>
+      </c>
+      <c r="T86" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="U86" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V86" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X86" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="BF86" t="n">
         <v>3</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="n">
-        <v>3</v>
-      </c>
-      <c r="L86" t="n">
+      <c r="BG86" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI86" t="n">
         <v>7</v>
       </c>
-      <c r="M86" t="n">
-        <v>0</v>
-      </c>
-      <c r="N86" t="n">
-        <v>7</v>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>['15', '22', '45+9', '53', '73', '85', '90']</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q86" t="n">
-        <v>2</v>
-      </c>
-      <c r="R86" t="n">
-        <v>2</v>
-      </c>
-      <c r="S86" t="n">
-        <v>4</v>
-      </c>
-      <c r="T86" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U86" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="V86" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="W86" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="X86" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="Y86" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AA86" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB86" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC86" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AD86" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AH86" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AK86" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AL86" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM86" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AN86" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AO86" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AP86" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AQ86" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AR86" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS86" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AT86" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AU86" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AV86" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AW86" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AX86" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AY86" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AZ86" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BA86" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="BB86" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="BC86" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="BD86" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="BE86" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BF86" t="n">
+      <c r="BJ86" t="n">
         <v>9</v>
       </c>
-      <c r="BG86" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH86" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI86" t="n">
-        <v>10</v>
-      </c>
-      <c r="BJ86" t="n">
-        <v>19</v>
-      </c>
       <c r="BK86" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87">
@@ -20388,7 +20388,7 @@
         <v>1.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AT98" t="n">
         <v>0.72</v>
@@ -20997,7 +20997,7 @@
         <v>0.33</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT101" t="n">
         <v>0.89</v>
@@ -21203,7 +21203,7 @@
         <v>1.94</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU102" t="n">
         <v>1.79</v>
@@ -21812,7 +21812,7 @@
         <v>1.06</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU105" t="n">
         <v>1.69</v>
@@ -22480,7 +22480,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>2280803</v>
+        <v>2280802</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -22500,12 +22500,12 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Pumas UNAM</t>
+          <t>Mazatlán</t>
         </is>
       </c>
       <c r="I109" t="n">
@@ -22537,145 +22537,145 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>10</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V109" t="n">
         <v>6</v>
       </c>
-      <c r="S109" t="n">
+      <c r="W109" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X109" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="BF109" t="n">
         <v>8</v>
       </c>
-      <c r="T109" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U109" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V109" t="n">
-        <v>4</v>
-      </c>
-      <c r="W109" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X109" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y109" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z109" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA109" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB109" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC109" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AD109" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="AE109" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="AF109" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG109" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH109" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AI109" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AJ109" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AK109" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AL109" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM109" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN109" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AO109" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP109" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AQ109" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AR109" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AS109" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AT109" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AU109" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AV109" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AW109" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="AX109" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AY109" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AZ109" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="BA109" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="BB109" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="BC109" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BD109" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="BE109" t="n">
-        <v>4</v>
-      </c>
-      <c r="BF109" t="n">
-        <v>2</v>
-      </c>
       <c r="BG109" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BH109" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BI109" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BJ109" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="BK109" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110">
@@ -22683,7 +22683,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>2280802</v>
+        <v>2280803</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -22703,12 +22703,12 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Mazatlán</t>
+          <t>Pumas UNAM</t>
         </is>
       </c>
       <c r="I110" t="n">
@@ -22740,145 +22740,145 @@
         </is>
       </c>
       <c r="Q110" t="n">
+        <v>2</v>
+      </c>
+      <c r="R110" t="n">
         <v>6</v>
       </c>
-      <c r="R110" t="n">
+      <c r="S110" t="n">
+        <v>8</v>
+      </c>
+      <c r="T110" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V110" t="n">
         <v>4</v>
       </c>
-      <c r="S110" t="n">
-        <v>10</v>
-      </c>
-      <c r="T110" t="n">
+      <c r="W110" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X110" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB110" t="n">
         <v>1.9</v>
       </c>
-      <c r="U110" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V110" t="n">
+      <c r="BC110" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG110" t="n">
         <v>6</v>
       </c>
-      <c r="W110" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X110" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Y110" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Z110" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AA110" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="AB110" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC110" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AD110" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="AE110" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AF110" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG110" t="n">
+      <c r="BH110" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ110" t="n">
         <v>9</v>
       </c>
-      <c r="AH110" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI110" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ110" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AK110" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AL110" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM110" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN110" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AO110" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AP110" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AQ110" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AR110" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AS110" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AT110" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AU110" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AV110" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AW110" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AX110" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AY110" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ110" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="BA110" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BB110" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="BC110" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="BD110" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="BE110" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="BF110" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG110" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH110" t="n">
-        <v>15</v>
-      </c>
-      <c r="BI110" t="n">
-        <v>10</v>
-      </c>
-      <c r="BJ110" t="n">
-        <v>23</v>
-      </c>
       <c r="BK110" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111">
@@ -23433,7 +23433,7 @@
         <v>1.33</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT113" t="n">
         <v>0.78</v>
@@ -24045,7 +24045,7 @@
         <v>2.11</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU116" t="n">
         <v>2.06</v>
@@ -24104,7 +24104,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>2280811</v>
+        <v>2280810</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -24124,12 +24124,12 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Tigres UANL</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="I117" t="n">
@@ -24142,68 +24142,68 @@
         <v>1</v>
       </c>
       <c r="L117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N117" t="n">
         <v>4</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>['41', '62', '80']</t>
+          <t>['17', '52']</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>['67']</t>
+          <t>['78', '90']</t>
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R117" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S117" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T117" t="n">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="U117" t="n">
-        <v>2.46</v>
+        <v>2.1</v>
       </c>
       <c r="V117" t="n">
-        <v>5.27</v>
+        <v>2.8</v>
       </c>
       <c r="W117" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="X117" t="n">
-        <v>3.37</v>
+        <v>2.8</v>
       </c>
       <c r="Y117" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="Z117" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="AA117" t="n">
-        <v>5.95</v>
+        <v>6.45</v>
       </c>
       <c r="AB117" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AC117" t="n">
-        <v>1.64</v>
+        <v>3.36</v>
       </c>
       <c r="AD117" t="n">
-        <v>4.11</v>
+        <v>3.67</v>
       </c>
       <c r="AE117" t="n">
-        <v>5.09</v>
+        <v>2.08</v>
       </c>
       <c r="AF117" t="n">
         <v>1.05</v>
@@ -24212,94 +24212,94 @@
         <v>9</v>
       </c>
       <c r="AH117" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AI117" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AJ117" t="n">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="AK117" t="n">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="AL117" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AM117" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AN117" t="n">
-        <v>1.2</v>
+        <v>1.63</v>
       </c>
       <c r="AO117" t="n">
         <v>1.25</v>
       </c>
       <c r="AP117" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="AX117" t="n">
         <v>2.28</v>
       </c>
-      <c r="AQ117" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AR117" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AS117" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AT117" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AU117" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AV117" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AW117" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="AX117" t="n">
-        <v>1.37</v>
-      </c>
       <c r="AY117" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ117" t="n">
-        <v>3.7</v>
+        <v>1.85</v>
       </c>
       <c r="BA117" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="BB117" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="BC117" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="BD117" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="BE117" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="BF117" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BG117" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH117" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BI117" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="BJ117" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="BK117" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118">
@@ -24307,7 +24307,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>2280810</v>
+        <v>2280811</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -24327,12 +24327,12 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Tigres UANL</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="I118" t="n">
@@ -24345,68 +24345,68 @@
         <v>1</v>
       </c>
       <c r="L118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N118" t="n">
         <v>4</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>['17', '52']</t>
+          <t>['41', '62', '80']</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>['78', '90']</t>
+          <t>['67']</t>
         </is>
       </c>
       <c r="Q118" t="n">
+        <v>6</v>
+      </c>
+      <c r="R118" t="n">
         <v>3</v>
       </c>
-      <c r="R118" t="n">
-        <v>4</v>
-      </c>
       <c r="S118" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T118" t="n">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="U118" t="n">
-        <v>2.1</v>
+        <v>2.46</v>
       </c>
       <c r="V118" t="n">
-        <v>2.8</v>
+        <v>5.27</v>
       </c>
       <c r="W118" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="X118" t="n">
-        <v>2.8</v>
+        <v>3.37</v>
       </c>
       <c r="Y118" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="Z118" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="AA118" t="n">
-        <v>6.45</v>
+        <v>5.95</v>
       </c>
       <c r="AB118" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="AC118" t="n">
-        <v>3.36</v>
+        <v>1.64</v>
       </c>
       <c r="AD118" t="n">
-        <v>3.67</v>
+        <v>4.11</v>
       </c>
       <c r="AE118" t="n">
-        <v>2.08</v>
+        <v>5.09</v>
       </c>
       <c r="AF118" t="n">
         <v>1.05</v>
@@ -24415,94 +24415,94 @@
         <v>9</v>
       </c>
       <c r="AH118" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AI118" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AJ118" t="n">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="AK118" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="AL118" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AM118" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AN118" t="n">
-        <v>1.63</v>
+        <v>1.2</v>
       </c>
       <c r="AO118" t="n">
         <v>1.25</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.35</v>
+        <v>2.28</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR118" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.42</v>
+        <v>1.8</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="AU118" t="n">
-        <v>1.97</v>
+        <v>2.27</v>
       </c>
       <c r="AV118" t="n">
-        <v>1.9</v>
+        <v>1.44</v>
       </c>
       <c r="AW118" t="n">
-        <v>3.87</v>
+        <v>3.71</v>
       </c>
       <c r="AX118" t="n">
-        <v>2.28</v>
+        <v>1.37</v>
       </c>
       <c r="AY118" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ118" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="BA118" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="BB118" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="BC118" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="BD118" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="BE118" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="BF118" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG118" t="n">
         <v>5</v>
       </c>
-      <c r="BG118" t="n">
-        <v>3</v>
-      </c>
       <c r="BH118" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BI118" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="BJ118" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="BK118" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119">
@@ -25869,7 +25869,7 @@
         <v>0.71</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AT125" t="n">
         <v>1.17</v>
@@ -26278,7 +26278,7 @@
         <v>1.71</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU127" t="n">
         <v>1.81</v>
@@ -26684,7 +26684,7 @@
         <v>1.24</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU129" t="n">
         <v>1.51</v>
@@ -29117,7 +29117,7 @@
         <v>0.29</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT141" t="n">
         <v>0.65</v>
@@ -31756,7 +31756,7 @@
         <v>1</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT154" t="n">
         <v>0.76</v>
@@ -31959,7 +31959,7 @@
         <v>1.12</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AT155" t="n">
         <v>0.9399999999999999</v>
@@ -32165,7 +32165,7 @@
         <v>1.37</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="AU156" t="n">
         <v>1.63</v>
@@ -32568,7 +32568,7 @@
         <v>1.29</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AT158" t="n">
         <v>1.63</v>
@@ -32771,7 +32771,7 @@
         <v>2.24</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AT159" t="n">
         <v>2.08</v>
@@ -33380,7 +33380,7 @@
         <v>1.88</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AT162" t="n">
         <v>1.93</v>
@@ -33789,7 +33789,7 @@
         <v>2.08</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AU164" t="n">
         <v>2.1</v>
@@ -34195,7 +34195,7 @@
         <v>1.93</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AU166" t="n">
         <v>2.13</v>
@@ -35616,7 +35616,7 @@
         <v>1.18</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU173" t="n">
         <v>1.38</v>
@@ -36834,7 +36834,7 @@
         <v>2.05</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU179" t="n">
         <v>2.06</v>
@@ -37705,7 +37705,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>4655340</v>
+        <v>4655342</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -37725,182 +37725,182 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>América</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="I184" t="n">
         <v>2</v>
       </c>
       <c r="J184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K184" t="n">
+        <v>2</v>
+      </c>
+      <c r="L184" t="n">
         <v>3</v>
       </c>
-      <c r="L184" t="n">
-        <v>2</v>
-      </c>
       <c r="M184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N184" t="n">
+        <v>3</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>['14', '33', '54']</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
         <v>4</v>
-      </c>
-      <c r="O184" t="inlineStr">
-        <is>
-          <t>['8', '23']</t>
-        </is>
-      </c>
-      <c r="P184" t="inlineStr">
-        <is>
-          <t>['16', '76']</t>
-        </is>
-      </c>
-      <c r="Q184" t="n">
-        <v>8</v>
       </c>
       <c r="R184" t="n">
         <v>3</v>
       </c>
       <c r="S184" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T184" t="n">
-        <v>4.1</v>
+        <v>2.93</v>
       </c>
       <c r="U184" t="n">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="V184" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X184" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC184" t="n">
         <v>2.3</v>
       </c>
-      <c r="W184" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X184" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y184" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z184" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA184" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AB184" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AC184" t="n">
-        <v>3.9</v>
-      </c>
       <c r="AD184" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="AE184" t="n">
-        <v>1.79</v>
+        <v>2.9</v>
       </c>
       <c r="AF184" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG184" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AH184" t="n">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="AI184" t="n">
-        <v>4.3</v>
+        <v>2.98</v>
       </c>
       <c r="AJ184" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP184" t="n">
         <v>1.64</v>
       </c>
-      <c r="AK184" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AL184" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AM184" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AN184" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AO184" t="n">
+      <c r="AQ184" t="n">
         <v>1.22</v>
       </c>
-      <c r="AP184" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AQ184" t="n">
-        <v>1.92</v>
-      </c>
       <c r="AR184" t="n">
-        <v>1.91</v>
+        <v>1</v>
       </c>
       <c r="AS184" t="n">
-        <v>2.05</v>
+        <v>1.18</v>
       </c>
       <c r="AT184" t="n">
-        <v>2.05</v>
+        <v>0.76</v>
       </c>
       <c r="AU184" t="n">
-        <v>1.8</v>
+        <v>1.37</v>
       </c>
       <c r="AV184" t="n">
-        <v>1.73</v>
+        <v>1.18</v>
       </c>
       <c r="AW184" t="n">
-        <v>3.53</v>
+        <v>2.55</v>
       </c>
       <c r="AX184" t="n">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="AY184" t="n">
         <v>8</v>
       </c>
       <c r="AZ184" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB184" t="n">
         <v>1.59</v>
       </c>
-      <c r="BA184" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="BB184" t="n">
-        <v>1.52</v>
-      </c>
       <c r="BC184" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="BD184" t="n">
-        <v>2.5</v>
+        <v>2.69</v>
       </c>
       <c r="BE184" t="n">
-        <v>3.42</v>
+        <v>3.64</v>
       </c>
       <c r="BF184" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG184" t="n">
         <v>5</v>
       </c>
       <c r="BH184" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ184" t="n">
         <v>14</v>
       </c>
-      <c r="BI184" t="n">
-        <v>14</v>
-      </c>
-      <c r="BJ184" t="n">
+      <c r="BK184" t="n">
         <v>18</v>
-      </c>
-      <c r="BK184" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="185">
@@ -37908,7 +37908,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>4655342</v>
+        <v>4655340</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -37928,182 +37928,182 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Juárez</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Tijuana</t>
+          <t>América</t>
         </is>
       </c>
       <c r="I185" t="n">
         <v>2</v>
       </c>
       <c r="J185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N185" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>['14', '33', '54']</t>
+          <t>['8', '23']</t>
         </is>
       </c>
       <c r="P185" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['16', '76']</t>
         </is>
       </c>
       <c r="Q185" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R185" t="n">
         <v>3</v>
       </c>
       <c r="S185" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="T185" t="n">
-        <v>2.93</v>
+        <v>4.1</v>
       </c>
       <c r="U185" t="n">
-        <v>2.03</v>
+        <v>2.4</v>
       </c>
       <c r="V185" t="n">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="W185" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="X185" t="n">
-        <v>2.69</v>
+        <v>3.25</v>
       </c>
       <c r="Y185" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Z185" t="n">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="AA185" t="n">
-        <v>8.1</v>
+        <v>5.5</v>
       </c>
       <c r="AB185" t="n">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AC185" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="AD185" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="AE185" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AX185" t="n">
         <v>2.9</v>
-      </c>
-      <c r="AF185" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG185" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH185" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AI185" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AJ185" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AK185" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AL185" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AM185" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AN185" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AO185" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AP185" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AQ185" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AR185" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS185" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AT185" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AU185" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AV185" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AW185" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AX185" t="n">
-        <v>1.75</v>
       </c>
       <c r="AY185" t="n">
         <v>8</v>
       </c>
       <c r="AZ185" t="n">
-        <v>2.52</v>
+        <v>1.59</v>
       </c>
       <c r="BA185" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="BB185" t="n">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="BC185" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="BD185" t="n">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
       <c r="BE185" t="n">
-        <v>3.64</v>
+        <v>3.42</v>
       </c>
       <c r="BF185" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG185" t="n">
         <v>5</v>
       </c>
       <c r="BH185" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BI185" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BJ185" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BK185" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186">
@@ -38455,7 +38455,7 @@
         <v>1.64</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AT187" t="n">
         <v>1.8</v>
@@ -38658,7 +38658,7 @@
         <v>0.9</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT188" t="n">
         <v>0.72</v>
@@ -39270,7 +39270,7 @@
         <v>2.21</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU191" t="n">
         <v>2.14</v>
@@ -39473,7 +39473,7 @@
         <v>2.11</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU192" t="n">
         <v>2.17</v>
@@ -41297,10 +41297,10 @@
         <v>1.3</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU201" t="n">
         <v>2.06</v>
@@ -41359,7 +41359,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>4661622</v>
+        <v>4661623</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -41379,182 +41379,182 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>América</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Mazatlán</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="I202" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K202" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="n">
+        <v>2</v>
+      </c>
+      <c r="N202" t="n">
+        <v>3</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['23', '38']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>9</v>
+      </c>
+      <c r="R202" t="n">
+        <v>2</v>
+      </c>
+      <c r="S202" t="n">
+        <v>11</v>
+      </c>
+      <c r="T202" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V202" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X202" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF202" t="n">
         <v>6</v>
-      </c>
-      <c r="M202" t="n">
-        <v>0</v>
-      </c>
-      <c r="N202" t="n">
-        <v>6</v>
-      </c>
-      <c r="O202" t="inlineStr">
-        <is>
-          <t>['30', '32', '34', '40', '59', '90+3']</t>
-        </is>
-      </c>
-      <c r="P202" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q202" t="n">
-        <v>5</v>
-      </c>
-      <c r="R202" t="n">
-        <v>4</v>
-      </c>
-      <c r="S202" t="n">
-        <v>9</v>
-      </c>
-      <c r="T202" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U202" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="V202" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W202" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="X202" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y202" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Z202" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA202" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AB202" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AC202" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AD202" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE202" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AF202" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG202" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH202" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AI202" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AJ202" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AK202" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AL202" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM202" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN202" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AO202" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AP202" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AQ202" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AR202" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AS202" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AT202" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AU202" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AV202" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AW202" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="AX202" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AY202" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ202" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA202" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="BB202" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BC202" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="BD202" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="BE202" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF202" t="n">
-        <v>10</v>
       </c>
       <c r="BG202" t="n">
         <v>3</v>
       </c>
       <c r="BH202" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="BI202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>28</v>
+      </c>
+      <c r="BK202" t="n">
         <v>7</v>
-      </c>
-      <c r="BJ202" t="n">
-        <v>18</v>
-      </c>
-      <c r="BK202" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="203">
@@ -41562,7 +41562,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>4661623</v>
+        <v>4661622</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -41582,182 +41582,182 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Juárez</t>
+          <t>América</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Mazatlán</t>
         </is>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K203" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L203" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N203" t="n">
+        <v>6</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['30', '32', '34', '40', '59', '90+3']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>5</v>
+      </c>
+      <c r="R203" t="n">
+        <v>4</v>
+      </c>
+      <c r="S203" t="n">
+        <v>9</v>
+      </c>
+      <c r="T203" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V203" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X203" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE203" t="n">
         <v>3</v>
       </c>
-      <c r="O203" t="inlineStr">
-        <is>
-          <t>['60']</t>
-        </is>
-      </c>
-      <c r="P203" t="inlineStr">
-        <is>
-          <t>['23', '38']</t>
-        </is>
-      </c>
-      <c r="Q203" t="n">
-        <v>9</v>
-      </c>
-      <c r="R203" t="n">
-        <v>2</v>
-      </c>
-      <c r="S203" t="n">
-        <v>11</v>
-      </c>
-      <c r="T203" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U203" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V203" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="W203" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X203" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y203" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Z203" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA203" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB203" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC203" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AD203" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AE203" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AF203" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG203" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH203" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AI203" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AJ203" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AK203" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AL203" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM203" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN203" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AO203" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP203" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AQ203" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AR203" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AS203" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AT203" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AU203" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AV203" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AW203" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="AX203" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AY203" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AZ203" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA203" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="BB203" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="BC203" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="BD203" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="BE203" t="n">
-        <v>4.1</v>
-      </c>
       <c r="BF203" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BG203" t="n">
         <v>3</v>
       </c>
       <c r="BH203" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="BI203" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BJ203" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="BK203" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204">
@@ -42518,7 +42518,7 @@
         <v>1.35</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU207" t="n">
         <v>1.18</v>
@@ -43124,7 +43124,7 @@
         <v>1.5</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT210" t="n">
         <v>1.8</v>
@@ -44954,7 +44954,7 @@
         <v>1.18</v>
       </c>
       <c r="AT219" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU219" t="n">
         <v>1.65</v>
@@ -45560,7 +45560,7 @@
         <v>0.5</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AT222" t="n">
         <v>0.53</v>
@@ -46169,7 +46169,7 @@
         <v>0.92</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AT225" t="n">
         <v>0.78</v>
@@ -46372,10 +46372,10 @@
         <v>0.75</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU226" t="n">
         <v>1.73</v>
@@ -50432,7 +50432,7 @@
         <v>1.5</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AT246" t="n">
         <v>1.56</v>
@@ -50841,7 +50841,7 @@
         <v>2.05</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU248" t="n">
         <v>1.87</v>
@@ -51044,7 +51044,7 @@
         <v>1.94</v>
       </c>
       <c r="AT249" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU249" t="n">
         <v>2.02</v>
@@ -51447,7 +51447,7 @@
         <v>1.93</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT251" t="n">
         <v>1.95</v>
@@ -52259,10 +52259,10 @@
         <v>1.08</v>
       </c>
       <c r="AS255" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT255" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU255" t="n">
         <v>1.86</v>
@@ -53074,7 +53074,7 @@
         <v>1.35</v>
       </c>
       <c r="AT259" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU259" t="n">
         <v>1.75</v>
@@ -54289,7 +54289,7 @@
         <v>1.8</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AT265" t="n">
         <v>2.05</v>
@@ -54554,7 +54554,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="n">
-        <v>4661686</v>
+        <v>4661687</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -54574,12 +54574,12 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Santos Laguna</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="I267" t="n">
@@ -54592,164 +54592,164 @@
         <v>2</v>
       </c>
       <c r="L267" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M267" t="n">
         <v>2</v>
       </c>
       <c r="N267" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>['45', '52', '74']</t>
         </is>
       </c>
       <c r="P267" t="inlineStr">
         <is>
-          <t>['17', '53']</t>
+          <t>['45+4', '60']</t>
         </is>
       </c>
       <c r="Q267" t="n">
+        <v>14</v>
+      </c>
+      <c r="R267" t="n">
         <v>4</v>
       </c>
-      <c r="R267" t="n">
-        <v>1</v>
-      </c>
       <c r="S267" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="T267" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U267" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V267" t="n">
+        <v>4</v>
+      </c>
+      <c r="W267" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X267" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB267" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC267" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD267" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE267" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AF267" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG267" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH267" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI267" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ267" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK267" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL267" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM267" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN267" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO267" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP267" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ267" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR267" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AS267" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AT267" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AU267" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AV267" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW267" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX267" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY267" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ267" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA267" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB267" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC267" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD267" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE267" t="n">
         <v>2.95</v>
       </c>
-      <c r="U267" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V267" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="W267" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X267" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Y267" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Z267" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AA267" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB267" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AC267" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AD267" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE267" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AF267" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG267" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AH267" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AI267" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AJ267" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AK267" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AL267" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AM267" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AN267" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AO267" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AP267" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AQ267" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AR267" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AS267" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AT267" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AU267" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AV267" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AW267" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="AX267" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AY267" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AZ267" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="BA267" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="BB267" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="BC267" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="BD267" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="BE267" t="n">
-        <v>3.3</v>
-      </c>
       <c r="BF267" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG267" t="n">
         <v>6</v>
       </c>
       <c r="BH267" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI267" t="n">
         <v>6</v>
       </c>
-      <c r="BI267" t="n">
-        <v>7</v>
-      </c>
       <c r="BJ267" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK267" t="n">
         <v>12</v>
-      </c>
-      <c r="BK267" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="268">
@@ -54757,7 +54757,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="n">
-        <v>4661687</v>
+        <v>4661686</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -54777,12 +54777,12 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>Santos Laguna</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Tijuana</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="I268" t="n">
@@ -54795,164 +54795,164 @@
         <v>2</v>
       </c>
       <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="n">
+        <v>2</v>
+      </c>
+      <c r="N268" t="n">
         <v>3</v>
       </c>
-      <c r="M268" t="n">
-        <v>2</v>
-      </c>
-      <c r="N268" t="n">
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>['17', '53']</t>
+        </is>
+      </c>
+      <c r="Q268" t="n">
+        <v>4</v>
+      </c>
+      <c r="R268" t="n">
+        <v>1</v>
+      </c>
+      <c r="S268" t="n">
         <v>5</v>
       </c>
-      <c r="O268" t="inlineStr">
-        <is>
-          <t>['45', '52', '74']</t>
-        </is>
-      </c>
-      <c r="P268" t="inlineStr">
-        <is>
-          <t>['45+4', '60']</t>
-        </is>
-      </c>
-      <c r="Q268" t="n">
-        <v>14</v>
-      </c>
-      <c r="R268" t="n">
-        <v>4</v>
-      </c>
-      <c r="S268" t="n">
-        <v>18</v>
-      </c>
       <c r="T268" t="n">
-        <v>2.4</v>
+        <v>2.95</v>
       </c>
       <c r="U268" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V268" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W268" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X268" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB268" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC268" t="n">
         <v>2.38</v>
       </c>
-      <c r="V268" t="n">
-        <v>4</v>
-      </c>
-      <c r="W268" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X268" t="n">
+      <c r="AD268" t="n">
         <v>3.4</v>
       </c>
-      <c r="Y268" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z268" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA268" t="n">
+      <c r="AE268" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AF268" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG268" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH268" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI268" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ268" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK268" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL268" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM268" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AN268" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO268" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP268" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ268" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR268" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AS268" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AT268" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AU268" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AV268" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AW268" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AX268" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY268" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ268" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BA268" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB268" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC268" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD268" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE268" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF268" t="n">
         <v>6</v>
-      </c>
-      <c r="AB268" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC268" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AD268" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AE268" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="AF268" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG268" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH268" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI268" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AJ268" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AK268" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AL268" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AM268" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AN268" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AO268" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP268" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AQ268" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AR268" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AS268" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AT268" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AU268" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AV268" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AW268" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="AX268" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AY268" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="AZ268" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BA268" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BB268" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="BC268" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BD268" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BE268" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="BF268" t="n">
-        <v>8</v>
       </c>
       <c r="BG268" t="n">
         <v>6</v>
       </c>
       <c r="BH268" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BI268" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ268" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK268" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="269">
@@ -55916,7 +55916,7 @@
         <v>1.75</v>
       </c>
       <c r="AT273" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU273" t="n">
         <v>1.58</v>
@@ -56116,7 +56116,7 @@
         <v>1.94</v>
       </c>
       <c r="AS274" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AT274" t="n">
         <v>1.95</v>
@@ -56928,7 +56928,7 @@
         <v>0.93</v>
       </c>
       <c r="AS278" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT278" t="n">
         <v>0.95</v>
@@ -57743,7 +57743,7 @@
         <v>1.18</v>
       </c>
       <c r="AT282" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU282" t="n">
         <v>1.45</v>
@@ -59973,7 +59973,7 @@
         <v>1</v>
       </c>
       <c r="AS293" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT293" t="n">
         <v>0.9399999999999999</v>
@@ -60176,7 +60176,7 @@
         <v>0.6</v>
       </c>
       <c r="AS294" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AT294" t="n">
         <v>0.71</v>
@@ -60585,7 +60585,7 @@
         <v>1.35</v>
       </c>
       <c r="AT296" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU296" t="n">
         <v>1.68</v>
@@ -61397,7 +61397,7 @@
         <v>1.18</v>
       </c>
       <c r="AT300" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU300" t="n">
         <v>1.42</v>
@@ -62003,7 +62003,7 @@
         <v>1.47</v>
       </c>
       <c r="AS303" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT303" t="n">
         <v>1.56</v>
@@ -63018,10 +63018,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AT308" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU308" t="n">
         <v>2.1</v>
@@ -63833,7 +63833,7 @@
         <v>2.05</v>
       </c>
       <c r="AT312" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU312" t="n">
         <v>1.92</v>
@@ -65313,7 +65313,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="n">
-        <v>4661737</v>
+        <v>4661738</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
@@ -65333,22 +65333,22 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Pumas UNAM</t>
+          <t>Mazatlán</t>
         </is>
       </c>
       <c r="I320" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J320" t="n">
         <v>1</v>
       </c>
       <c r="K320" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L320" t="n">
         <v>4</v>
@@ -65361,58 +65361,58 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>['2', '17', '22', '27']</t>
+          <t>['12', '21', '56', '75']</t>
         </is>
       </c>
       <c r="P320" t="inlineStr">
         <is>
-          <t>['45']</t>
+          <t>['23']</t>
         </is>
       </c>
       <c r="Q320" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R320" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S320" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="T320" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U320" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="V320" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="W320" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X320" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y320" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Z320" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AA320" t="n">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="AB320" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AC320" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AD320" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="AE320" t="n">
-        <v>5.4</v>
+        <v>6.85</v>
       </c>
       <c r="AF320" t="n">
         <v>1.02</v>
@@ -65421,91 +65421,91 @@
         <v>17</v>
       </c>
       <c r="AH320" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="AI320" t="n">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="AJ320" t="n">
         <v>1.62</v>
       </c>
       <c r="AK320" t="n">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AL320" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM320" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN320" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO320" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP320" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AQ320" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR320" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS320" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT320" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU320" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV320" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW320" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX320" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AY320" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ320" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="BA320" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB320" t="n">
         <v>1.7</v>
       </c>
-      <c r="AM320" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AN320" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AO320" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AP320" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AQ320" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AR320" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AS320" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AT320" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AU320" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AV320" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AW320" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="AX320" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AY320" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AZ320" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="BA320" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="BB320" t="n">
-        <v>1.57</v>
-      </c>
       <c r="BC320" t="n">
-        <v>1.96</v>
+        <v>2.16</v>
       </c>
       <c r="BD320" t="n">
-        <v>2.55</v>
+        <v>2.85</v>
       </c>
       <c r="BE320" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="BF320" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BG320" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH320" t="n">
         <v>5</v>
       </c>
-      <c r="BH320" t="n">
-        <v>6</v>
-      </c>
       <c r="BI320" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BJ320" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BK320" t="n">
         <v>9</v>
@@ -65516,7 +65516,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="n">
-        <v>4661738</v>
+        <v>4661737</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -65536,22 +65536,22 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Mazatlán</t>
+          <t>Pumas UNAM</t>
         </is>
       </c>
       <c r="I321" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J321" t="n">
         <v>1</v>
       </c>
       <c r="K321" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L321" t="n">
         <v>4</v>
@@ -65564,58 +65564,58 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>['12', '21', '56', '75']</t>
+          <t>['2', '17', '22', '27']</t>
         </is>
       </c>
       <c r="P321" t="inlineStr">
         <is>
-          <t>['23']</t>
+          <t>['45']</t>
         </is>
       </c>
       <c r="Q321" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R321" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S321" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="T321" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U321" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="V321" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="W321" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X321" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y321" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Z321" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AA321" t="n">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="AB321" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AC321" t="n">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="AD321" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="AE321" t="n">
-        <v>6.85</v>
+        <v>5.4</v>
       </c>
       <c r="AF321" t="n">
         <v>1.02</v>
@@ -65624,91 +65624,91 @@
         <v>17</v>
       </c>
       <c r="AH321" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="AI321" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="AJ321" t="n">
         <v>1.62</v>
       </c>
       <c r="AK321" t="n">
-        <v>2.15</v>
+        <v>2.33</v>
       </c>
       <c r="AL321" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AM321" t="n">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="AN321" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AO321" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="AP321" t="n">
-        <v>2.85</v>
+        <v>2.45</v>
       </c>
       <c r="AQ321" t="n">
-        <v>1.63</v>
+        <v>2.17</v>
       </c>
       <c r="AR321" t="n">
-        <v>0.75</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AS321" t="n">
-        <v>1.71</v>
+        <v>2.21</v>
       </c>
       <c r="AT321" t="n">
-        <v>0.71</v>
+        <v>0.53</v>
       </c>
       <c r="AU321" t="n">
-        <v>1.82</v>
+        <v>2.01</v>
       </c>
       <c r="AV321" t="n">
-        <v>1.1</v>
+        <v>1.62</v>
       </c>
       <c r="AW321" t="n">
-        <v>2.92</v>
+        <v>3.63</v>
       </c>
       <c r="AX321" t="n">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="AY321" t="n">
-        <v>11.5</v>
+        <v>7.6</v>
       </c>
       <c r="AZ321" t="n">
-        <v>4.54</v>
+        <v>3.11</v>
       </c>
       <c r="BA321" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="BB321" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="BC321" t="n">
-        <v>2.16</v>
+        <v>1.96</v>
       </c>
       <c r="BD321" t="n">
-        <v>2.85</v>
+        <v>2.55</v>
       </c>
       <c r="BE321" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF321" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG321" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH321" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI321" t="n">
         <v>4</v>
       </c>
-      <c r="BF321" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG321" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH321" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI321" t="n">
-        <v>2</v>
-      </c>
       <c r="BJ321" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BK321" t="n">
         <v>9</v>
@@ -66469,7 +66469,7 @@
         <v>1.65</v>
       </c>
       <c r="AS325" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT325" t="n">
         <v>1.56</v>
@@ -66930,6 +66930,412 @@
       </c>
       <c r="BK327" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B328" t="n">
+        <v>6022639</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E328" s="2" t="n">
+        <v>45053.92083333333</v>
+      </c>
+      <c r="F328" t="n">
+        <v>0</v>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>León</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>Atlético San Luis</t>
+        </is>
+      </c>
+      <c r="I328" t="n">
+        <v>1</v>
+      </c>
+      <c r="J328" t="n">
+        <v>3</v>
+      </c>
+      <c r="K328" t="n">
+        <v>4</v>
+      </c>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="n">
+        <v>3</v>
+      </c>
+      <c r="N328" t="n">
+        <v>4</v>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="P328" t="inlineStr">
+        <is>
+          <t>['6', '33', '45+1']</t>
+        </is>
+      </c>
+      <c r="Q328" t="n">
+        <v>12</v>
+      </c>
+      <c r="R328" t="n">
+        <v>4</v>
+      </c>
+      <c r="S328" t="n">
+        <v>16</v>
+      </c>
+      <c r="T328" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U328" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V328" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W328" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X328" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y328" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z328" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA328" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB328" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC328" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD328" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE328" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF328" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG328" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH328" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI328" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ328" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK328" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL328" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM328" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN328" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO328" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP328" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AQ328" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AR328" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS328" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT328" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU328" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV328" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW328" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX328" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AY328" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ328" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BA328" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB328" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC328" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD328" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE328" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF328" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG328" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH328" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI328" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ328" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK328" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B329" t="n">
+        <v>6022640</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E329" s="2" t="n">
+        <v>45054.00694444445</v>
+      </c>
+      <c r="F329" t="n">
+        <v>0</v>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>Tigres UANL</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="I329" t="n">
+        <v>0</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0</v>
+      </c>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="n">
+        <v>0</v>
+      </c>
+      <c r="N329" t="n">
+        <v>1</v>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P329" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q329" t="n">
+        <v>3</v>
+      </c>
+      <c r="R329" t="n">
+        <v>6</v>
+      </c>
+      <c r="S329" t="n">
+        <v>9</v>
+      </c>
+      <c r="T329" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U329" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="V329" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W329" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X329" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Y329" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z329" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA329" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB329" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC329" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD329" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE329" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF329" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG329" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH329" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI329" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ329" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK329" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL329" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM329" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN329" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO329" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP329" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ329" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AR329" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AS329" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AT329" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU329" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AV329" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW329" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX329" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AY329" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ329" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BA329" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB329" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC329" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD329" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE329" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF329" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG329" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH329" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI329" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ329" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK329" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK329"/>
+  <dimension ref="A1:BK331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT8" t="n">
         <v>1.17</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>2.21</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT24" t="n">
         <v>1.56</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AU26" t="n">
         <v>1.55</v>
@@ -6587,7 +6587,7 @@
         <v>1.06</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AU30" t="n">
         <v>1.9</v>
@@ -7602,7 +7602,7 @@
         <v>1.18</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AU35" t="n">
         <v>0.33</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT41" t="n">
         <v>0.9399999999999999</v>
@@ -11053,7 +11053,7 @@
         <v>1.35</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AU52" t="n">
         <v>1.9</v>
@@ -11253,7 +11253,7 @@
         <v>0.33</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT53" t="n">
         <v>0.89</v>
@@ -11459,7 +11459,7 @@
         <v>1.72</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AU54" t="n">
         <v>1.45</v>
@@ -12674,7 +12674,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT60" t="n">
         <v>0.9399999999999999</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT62" t="n">
         <v>0.72</v>
@@ -13895,7 +13895,7 @@
         <v>1.18</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AU66" t="n">
         <v>1.16</v>
@@ -14504,7 +14504,7 @@
         <v>1.35</v>
       </c>
       <c r="AT69" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AU69" t="n">
         <v>1.95</v>
@@ -15925,7 +15925,7 @@
         <v>2.05</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AU76" t="n">
         <v>2.31</v>
@@ -16331,7 +16331,7 @@
         <v>2.05</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AU78" t="n">
         <v>2.19</v>
@@ -16531,7 +16531,7 @@
         <v>1.25</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT79" t="n">
         <v>1.17</v>
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT80" t="n">
         <v>0.53</v>
@@ -18358,7 +18358,7 @@
         <v>2</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT88" t="n">
         <v>1.45</v>
@@ -18767,7 +18767,7 @@
         <v>1.71</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AU90" t="n">
         <v>1.9</v>
@@ -18970,7 +18970,7 @@
         <v>1.06</v>
       </c>
       <c r="AT91" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AU91" t="n">
         <v>1.68</v>
@@ -19985,7 +19985,7 @@
         <v>0.71</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AU96" t="n">
         <v>1.39</v>
@@ -21200,7 +21200,7 @@
         <v>1.4</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT102" t="n">
         <v>0.9399999999999999</v>
@@ -21406,7 +21406,7 @@
         <v>1.18</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AU103" t="n">
         <v>1.46</v>
@@ -21606,7 +21606,7 @@
         <v>1.17</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT104" t="n">
         <v>0.76</v>
@@ -23636,7 +23636,7 @@
         <v>1.33</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT114" t="n">
         <v>0.72</v>
@@ -25263,7 +25263,7 @@
         <v>1.18</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AU122" t="n">
         <v>1.41</v>
@@ -25669,7 +25669,7 @@
         <v>1.18</v>
       </c>
       <c r="AT124" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AU124" t="n">
         <v>1.24</v>
@@ -28914,7 +28914,7 @@
         <v>1.14</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT140" t="n">
         <v>0.78</v>
@@ -29320,7 +29320,7 @@
         <v>1.33</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT142" t="n">
         <v>1.8</v>
@@ -30135,7 +30135,7 @@
         <v>1.42</v>
       </c>
       <c r="AT146" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AU146" t="n">
         <v>1.7</v>
@@ -30538,7 +30538,7 @@
         <v>1.38</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT148" t="n">
         <v>1.56</v>
@@ -31553,7 +31553,7 @@
         <v>1</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT153" t="n">
         <v>0.71</v>
@@ -32774,7 +32774,7 @@
         <v>1.13</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="AU159" t="n">
         <v>1.67</v>
@@ -32977,7 +32977,7 @@
         <v>1.37</v>
       </c>
       <c r="AT160" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="AU160" t="n">
         <v>1.62</v>
@@ -33180,7 +33180,7 @@
         <v>1.76</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="AU161" t="n">
         <v>1.78</v>
@@ -33583,7 +33583,7 @@
         <v>1.47</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="AT163" t="n">
         <v>1.37</v>
@@ -33786,7 +33786,7 @@
         <v>1.21</v>
       </c>
       <c r="AS164" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="AT164" t="n">
         <v>1.13</v>
@@ -33989,7 +33989,7 @@
         <v>1.74</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="AT165" t="n">
         <v>1.76</v>
@@ -34398,7 +34398,7 @@
         <v>1.76</v>
       </c>
       <c r="AT167" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="AU167" t="n">
         <v>1.81</v>
@@ -34601,7 +34601,7 @@
         <v>1.93</v>
       </c>
       <c r="AT168" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="AU168" t="n">
         <v>2.06</v>
@@ -34801,7 +34801,7 @@
         <v>1.86</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="AT169" t="n">
         <v>1.76</v>
@@ -35004,7 +35004,7 @@
         <v>1.9</v>
       </c>
       <c r="AS170" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="AT170" t="n">
         <v>1.93</v>
@@ -36425,7 +36425,7 @@
         <v>1.4</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT177" t="n">
         <v>1.56</v>
@@ -37237,7 +37237,7 @@
         <v>1.3</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT181" t="n">
         <v>1.56</v>
@@ -37646,7 +37646,7 @@
         <v>1.75</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AU183" t="n">
         <v>1.58</v>
@@ -38052,7 +38052,7 @@
         <v>2.05</v>
       </c>
       <c r="AT185" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AU185" t="n">
         <v>1.8</v>
@@ -38252,7 +38252,7 @@
         <v>0.5</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT186" t="n">
         <v>0.53</v>
@@ -40894,7 +40894,7 @@
         <v>1.42</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AU199" t="n">
         <v>1.56</v>
@@ -42515,7 +42515,7 @@
         <v>0.82</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT207" t="n">
         <v>0.84</v>
@@ -43530,10 +43530,10 @@
         <v>1.83</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT212" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AU212" t="n">
         <v>2.04</v>
@@ -44548,7 +44548,7 @@
         <v>1.24</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AU217" t="n">
         <v>1.51</v>
@@ -46575,10 +46575,10 @@
         <v>1.77</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT227" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AU227" t="n">
         <v>1.25</v>
@@ -47996,7 +47996,7 @@
         <v>1</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT234" t="n">
         <v>0.95</v>
@@ -49620,7 +49620,7 @@
         <v>1.47</v>
       </c>
       <c r="AS242" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT242" t="n">
         <v>1.45</v>
@@ -50638,7 +50638,7 @@
         <v>1.24</v>
       </c>
       <c r="AT247" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AU247" t="n">
         <v>1.51</v>
@@ -51041,7 +51041,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT249" t="n">
         <v>0.84</v>
@@ -51450,7 +51450,7 @@
         <v>1.72</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AU251" t="n">
         <v>1.9</v>
@@ -53477,7 +53477,7 @@
         <v>0.36</v>
       </c>
       <c r="AS261" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT261" t="n">
         <v>0.65</v>
@@ -54292,7 +54292,7 @@
         <v>1.8</v>
       </c>
       <c r="AT265" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AU265" t="n">
         <v>2.1</v>
@@ -54695,7 +54695,7 @@
         <v>0.77</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT267" t="n">
         <v>0.76</v>
@@ -54901,7 +54901,7 @@
         <v>2.05</v>
       </c>
       <c r="AT268" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AU268" t="n">
         <v>1.97</v>
@@ -56119,7 +56119,7 @@
         <v>1.8</v>
       </c>
       <c r="AT274" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AU274" t="n">
         <v>2.04</v>
@@ -56322,7 +56322,7 @@
         <v>1.71</v>
       </c>
       <c r="AT275" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AU275" t="n">
         <v>1.84</v>
@@ -58958,7 +58958,7 @@
         <v>0.64</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT288" t="n">
         <v>0.71</v>
@@ -60382,7 +60382,7 @@
         <v>2.11</v>
       </c>
       <c r="AT295" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AU295" t="n">
         <v>2.03</v>
@@ -60785,7 +60785,7 @@
         <v>1.76</v>
       </c>
       <c r="AS297" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT297" t="n">
         <v>1.8</v>
@@ -61191,7 +61191,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS299" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT299" t="n">
         <v>0.78</v>
@@ -62209,7 +62209,7 @@
         <v>1.75</v>
       </c>
       <c r="AT304" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AU304" t="n">
         <v>1.6</v>
@@ -63427,7 +63427,7 @@
         <v>0.71</v>
       </c>
       <c r="AT310" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AU310" t="n">
         <v>1.5</v>
@@ -64642,7 +64642,7 @@
         <v>0.5</v>
       </c>
       <c r="AS316" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT316" t="n">
         <v>0.65</v>
@@ -64848,7 +64848,7 @@
         <v>1.18</v>
       </c>
       <c r="AT317" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AU317" t="n">
         <v>1.43</v>
@@ -65251,7 +65251,7 @@
         <v>0.75</v>
       </c>
       <c r="AS319" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT319" t="n">
         <v>0.89</v>
@@ -66878,7 +66878,7 @@
         <v>1.93</v>
       </c>
       <c r="AT327" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="AU327" t="n">
         <v>1.91</v>
@@ -67081,7 +67081,7 @@
         <v>1.44</v>
       </c>
       <c r="AT328" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AU328" t="n">
         <v>1.86</v>
@@ -67336,6 +67336,412 @@
       </c>
       <c r="BK329" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B330" t="n">
+        <v>6076179</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E330" s="2" t="n">
+        <v>45056.91666666666</v>
+      </c>
+      <c r="F330" t="n">
+        <v>0</v>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>Santos Laguna</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="I330" t="n">
+        <v>0</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N330" t="n">
+        <v>0</v>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P330" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q330" t="n">
+        <v>6</v>
+      </c>
+      <c r="R330" t="n">
+        <v>5</v>
+      </c>
+      <c r="S330" t="n">
+        <v>11</v>
+      </c>
+      <c r="T330" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="U330" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="V330" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="W330" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X330" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y330" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="Z330" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA330" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB330" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC330" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AD330" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AE330" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AF330" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG330" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH330" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI330" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ330" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK330" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL330" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AM330" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AN330" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO330" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP330" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ330" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR330" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AS330" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT330" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AU330" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV330" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW330" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AX330" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AY330" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ330" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BA330" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB330" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC330" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD330" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BE330" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BF330" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG330" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH330" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI330" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ330" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK330" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B331" t="n">
+        <v>6080890</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E331" s="2" t="n">
+        <v>45057.00694444445</v>
+      </c>
+      <c r="F331" t="n">
+        <v>0</v>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>Atlético San Luis</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>América</t>
+        </is>
+      </c>
+      <c r="I331" t="n">
+        <v>1</v>
+      </c>
+      <c r="J331" t="n">
+        <v>3</v>
+      </c>
+      <c r="K331" t="n">
+        <v>4</v>
+      </c>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="n">
+        <v>3</v>
+      </c>
+      <c r="N331" t="n">
+        <v>4</v>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P331" t="inlineStr">
+        <is>
+          <t>['10', '20', '35']</t>
+        </is>
+      </c>
+      <c r="Q331" t="n">
+        <v>2</v>
+      </c>
+      <c r="R331" t="n">
+        <v>5</v>
+      </c>
+      <c r="S331" t="n">
+        <v>7</v>
+      </c>
+      <c r="T331" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="U331" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="V331" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="W331" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X331" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Y331" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="Z331" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA331" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AB331" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC331" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AD331" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AE331" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AF331" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG331" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH331" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI331" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ331" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK331" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL331" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AM331" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN331" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AO331" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP331" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ331" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR331" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AS331" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT331" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU331" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV331" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AW331" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX331" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AY331" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ331" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BA331" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB331" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC331" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BD331" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE331" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BF331" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG331" t="n">
+        <v>13</v>
+      </c>
+      <c r="BH331" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI331" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ331" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK331" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK331"/>
+  <dimension ref="A1:BK333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.18</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AT5" t="n">
         <v>0.9399999999999999</v>
@@ -4557,7 +4557,7 @@
         <v>2.11</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AU20" t="n">
         <v>1.71</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT23" t="n">
         <v>0.9399999999999999</v>
@@ -5369,7 +5369,7 @@
         <v>1.89</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU24" t="n">
         <v>1.99</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AT27" t="n">
         <v>0.76</v>
@@ -7802,7 +7802,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AT36" t="n">
         <v>0.89</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT38" t="n">
         <v>0.76</v>
@@ -9023,7 +9023,7 @@
         <v>1.72</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AU42" t="n">
         <v>1.43</v>
@@ -9429,7 +9429,7 @@
         <v>1.06</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU44" t="n">
         <v>1.56</v>
@@ -9835,7 +9835,7 @@
         <v>1.18</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AU46" t="n">
         <v>1.02</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AT48" t="n">
         <v>0.65</v>
@@ -12065,7 +12065,7 @@
         <v>0.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT57" t="n">
         <v>0.65</v>
@@ -12271,7 +12271,7 @@
         <v>0.71</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU58" t="n">
         <v>1.24</v>
@@ -14910,7 +14910,7 @@
         <v>1.75</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AU71" t="n">
         <v>1.59</v>
@@ -15110,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AT72" t="n">
         <v>0.95</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT73" t="n">
         <v>0.78</v>
@@ -16940,7 +16940,7 @@
         <v>1.18</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU81" t="n">
         <v>1.2</v>
@@ -17343,7 +17343,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT83" t="n">
         <v>0.84</v>
@@ -18361,7 +18361,7 @@
         <v>1.28</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AU88" t="n">
         <v>1.38</v>
@@ -20388,7 +20388,7 @@
         <v>1.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AT98" t="n">
         <v>0.72</v>
@@ -22824,7 +22824,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT110" t="n">
         <v>0.53</v>
@@ -23233,7 +23233,7 @@
         <v>2.05</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU112" t="n">
         <v>1.93</v>
@@ -24448,10 +24448,10 @@
         <v>1.67</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AU118" t="n">
         <v>2.27</v>
@@ -24857,7 +24857,7 @@
         <v>1.18</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU120" t="n">
         <v>1.45</v>
@@ -25869,7 +25869,7 @@
         <v>0.71</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AT125" t="n">
         <v>1.17</v>
@@ -26681,7 +26681,7 @@
         <v>1</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT129" t="n">
         <v>0.9399999999999999</v>
@@ -28105,7 +28105,7 @@
         <v>0.71</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AU136" t="n">
         <v>1.39</v>
@@ -28511,7 +28511,7 @@
         <v>2.11</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU138" t="n">
         <v>2.2</v>
@@ -30944,7 +30944,7 @@
         <v>1.13</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT150" t="n">
         <v>0.72</v>
@@ -31150,7 +31150,7 @@
         <v>1.75</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU151" t="n">
         <v>1.66</v>
@@ -31959,7 +31959,7 @@
         <v>1.12</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="AT155" t="n">
         <v>0.9399999999999999</v>
@@ -32365,7 +32365,7 @@
         <v>1.12</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="AT157" t="n">
         <v>0.97</v>
@@ -32571,7 +32571,7 @@
         <v>1.13</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AU158" t="n">
         <v>1.67</v>
@@ -33177,7 +33177,7 @@
         <v>1.94</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="AT161" t="n">
         <v>1.42</v>
@@ -33380,7 +33380,7 @@
         <v>1.88</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="AT162" t="n">
         <v>1.93</v>
@@ -33992,7 +33992,7 @@
         <v>1.42</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="AU165" t="n">
         <v>1.9</v>
@@ -34195,7 +34195,7 @@
         <v>1.93</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="AU166" t="n">
         <v>2.13</v>
@@ -34395,7 +34395,7 @@
         <v>2.32</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="AT167" t="n">
         <v>2.1</v>
@@ -34804,7 +34804,7 @@
         <v>2.1</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="AU169" t="n">
         <v>2.08</v>
@@ -35207,7 +35207,7 @@
         <v>1.95</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="AT171" t="n">
         <v>1.93</v>
@@ -35413,7 +35413,7 @@
         <v>1.93</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="AU172" t="n">
         <v>2.06</v>
@@ -36022,7 +36022,7 @@
         <v>2.21</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU175" t="n">
         <v>2.04</v>
@@ -37034,7 +37034,7 @@
         <v>0.89</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT180" t="n">
         <v>0.71</v>
@@ -37240,7 +37240,7 @@
         <v>1.28</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU181" t="n">
         <v>1.25</v>
@@ -38455,7 +38455,7 @@
         <v>1.64</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AT187" t="n">
         <v>1.8</v>
@@ -39676,7 +39676,7 @@
         <v>1.71</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AU193" t="n">
         <v>1.87</v>
@@ -40688,7 +40688,7 @@
         <v>1.1</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT198" t="n">
         <v>0.95</v>
@@ -41297,7 +41297,7 @@
         <v>1.3</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AT201" t="n">
         <v>0.9399999999999999</v>
@@ -41503,7 +41503,7 @@
         <v>1.18</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU202" t="n">
         <v>1.38</v>
@@ -42312,10 +42312,10 @@
         <v>1.5</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AU206" t="n">
         <v>1.56</v>
@@ -44142,7 +44142,7 @@
         <v>2.21</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AU215" t="n">
         <v>2.1</v>
@@ -44545,7 +44545,7 @@
         <v>1.85</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT217" t="n">
         <v>1.9</v>
@@ -45560,7 +45560,7 @@
         <v>0.5</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AT222" t="n">
         <v>0.53</v>
@@ -45766,7 +45766,7 @@
         <v>2.05</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU223" t="n">
         <v>2.03</v>
@@ -46169,7 +46169,7 @@
         <v>0.92</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AT225" t="n">
         <v>0.78</v>
@@ -48402,7 +48402,7 @@
         <v>1.62</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT236" t="n">
         <v>1.56</v>
@@ -48608,7 +48608,7 @@
         <v>1.35</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU237" t="n">
         <v>1.72</v>
@@ -49217,7 +49217,7 @@
         <v>2.05</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AU240" t="n">
         <v>1.98</v>
@@ -49623,7 +49623,7 @@
         <v>1.89</v>
       </c>
       <c r="AT242" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AU242" t="n">
         <v>2.01</v>
@@ -50432,10 +50432,10 @@
         <v>1.5</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU246" t="n">
         <v>2.1</v>
@@ -50635,7 +50635,7 @@
         <v>1.86</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT247" t="n">
         <v>2.1</v>
@@ -53277,7 +53277,7 @@
         <v>1.06</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AU260" t="n">
         <v>1.72</v>
@@ -53683,7 +53683,7 @@
         <v>1.42</v>
       </c>
       <c r="AT262" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU262" t="n">
         <v>1.6</v>
@@ -53883,7 +53883,7 @@
         <v>0.93</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT263" t="n">
         <v>1.17</v>
@@ -54289,7 +54289,7 @@
         <v>1.8</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AT265" t="n">
         <v>2.1</v>
@@ -55713,7 +55713,7 @@
         <v>1.18</v>
       </c>
       <c r="AT272" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AU272" t="n">
         <v>1.68</v>
@@ -56116,7 +56116,7 @@
         <v>1.94</v>
       </c>
       <c r="AS274" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AT274" t="n">
         <v>1.9</v>
@@ -58552,10 +58552,10 @@
         <v>1.5</v>
       </c>
       <c r="AS286" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT286" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU286" t="n">
         <v>1.51</v>
@@ -59367,7 +59367,7 @@
         <v>1.42</v>
       </c>
       <c r="AT290" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AU290" t="n">
         <v>1.52</v>
@@ -60176,7 +60176,7 @@
         <v>0.6</v>
       </c>
       <c r="AS294" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AT294" t="n">
         <v>0.71</v>
@@ -61800,7 +61800,7 @@
         <v>1.83</v>
       </c>
       <c r="AS302" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT302" t="n">
         <v>1.8</v>
@@ -62006,7 +62006,7 @@
         <v>1.72</v>
       </c>
       <c r="AT303" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU303" t="n">
         <v>1.89</v>
@@ -62412,7 +62412,7 @@
         <v>1.35</v>
       </c>
       <c r="AT305" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AU305" t="n">
         <v>1.65</v>
@@ -63018,7 +63018,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AT308" t="n">
         <v>0.84</v>
@@ -66675,7 +66675,7 @@
         <v>1.37</v>
       </c>
       <c r="AT326" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AU326" t="n">
         <v>1.54</v>
@@ -67281,7 +67281,7 @@
         <v>1.16</v>
       </c>
       <c r="AS329" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="AT329" t="n">
         <v>1.13</v>
@@ -67742,6 +67742,412 @@
       </c>
       <c r="BK331" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B332" t="n">
+        <v>6084612</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E332" s="2" t="n">
+        <v>45057.91666666666</v>
+      </c>
+      <c r="F332" t="n">
+        <v>0</v>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>Atlas</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="I332" t="n">
+        <v>1</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0</v>
+      </c>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N332" t="n">
+        <v>1</v>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q332" t="n">
+        <v>4</v>
+      </c>
+      <c r="R332" t="n">
+        <v>9</v>
+      </c>
+      <c r="S332" t="n">
+        <v>13</v>
+      </c>
+      <c r="T332" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U332" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V332" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W332" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X332" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y332" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z332" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA332" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB332" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC332" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AD332" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE332" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF332" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG332" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH332" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI332" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ332" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK332" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL332" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM332" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN332" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO332" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP332" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ332" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR332" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS332" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT332" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AU332" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV332" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW332" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX332" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY332" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ332" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA332" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB332" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC332" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD332" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BE332" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF332" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG332" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH332" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI332" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ332" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK332" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B333" t="n">
+        <v>6084613</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E333" s="2" t="n">
+        <v>45058.00694444445</v>
+      </c>
+      <c r="F333" t="n">
+        <v>0</v>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>Tigres UANL</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Toluca</t>
+        </is>
+      </c>
+      <c r="I333" t="n">
+        <v>3</v>
+      </c>
+      <c r="J333" t="n">
+        <v>1</v>
+      </c>
+      <c r="K333" t="n">
+        <v>4</v>
+      </c>
+      <c r="L333" t="n">
+        <v>4</v>
+      </c>
+      <c r="M333" t="n">
+        <v>1</v>
+      </c>
+      <c r="N333" t="n">
+        <v>5</v>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>['14', '31', '45+5', '72']</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q333" t="n">
+        <v>1</v>
+      </c>
+      <c r="R333" t="n">
+        <v>5</v>
+      </c>
+      <c r="S333" t="n">
+        <v>6</v>
+      </c>
+      <c r="T333" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U333" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V333" t="n">
+        <v>4</v>
+      </c>
+      <c r="W333" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X333" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y333" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z333" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA333" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB333" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC333" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AD333" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AE333" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AF333" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG333" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH333" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI333" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ333" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK333" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL333" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM333" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN333" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO333" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP333" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ333" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AR333" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS333" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AT333" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU333" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AV333" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW333" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX333" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY333" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ333" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BA333" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB333" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC333" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD333" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE333" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF333" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG333" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH333" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI333" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ333" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK333" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK333"/>
+  <dimension ref="A1:BK337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT4" t="n">
         <v>0.78</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0.71</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.42</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU15" t="n">
         <v>1.82</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="AT17" t="n">
         <v>2.1</v>
@@ -4148,10 +4148,10 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT20" t="n">
         <v>1.38</v>
@@ -6381,7 +6381,7 @@
         <v>2</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT29" t="n">
         <v>1.17</v>
@@ -6790,7 +6790,7 @@
         <v>0.71</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU31" t="n">
         <v>0.58</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AU33" t="n">
         <v>1.79</v>
@@ -7805,7 +7805,7 @@
         <v>1.86</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU36" t="n">
         <v>2.14</v>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="AT39" t="n">
         <v>0.84</v>
@@ -8617,7 +8617,7 @@
         <v>1.18</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU40" t="n">
         <v>0.98</v>
@@ -8676,7 +8676,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>2280731</v>
+        <v>2280732</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -8696,12 +8696,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Atlético San Luis</t>
+          <t>León</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -8717,10 +8717,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -8729,149 +8729,149 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['90']</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S41" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T41" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="U41" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V41" t="n">
+        <v>4</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM41" t="n">
         <v>2.05</v>
       </c>
-      <c r="V41" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X41" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AN41" t="n">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="AO41" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.53</v>
+        <v>1.82</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR41" t="n">
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.28</v>
+        <v>1.72</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="AU41" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AV41" t="n">
-        <v>1.38</v>
+        <v>0.9</v>
       </c>
       <c r="AW41" t="n">
-        <v>2.76</v>
+        <v>2.33</v>
       </c>
       <c r="AX41" t="n">
-        <v>1.89</v>
+        <v>1.5</v>
       </c>
       <c r="AY41" t="n">
-        <v>7.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AZ41" t="n">
-        <v>2.41</v>
+        <v>3.46</v>
       </c>
       <c r="BA41" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="BB41" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="BC41" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="BD41" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="BE41" t="n">
-        <v>3.8</v>
+        <v>3.92</v>
       </c>
       <c r="BF41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG41" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BH41" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BI41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ41" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BK41" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
@@ -8879,7 +8879,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>2280732</v>
+        <v>2280731</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -8899,12 +8899,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>León</t>
+          <t>Atlético San Luis</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -8920,10 +8920,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -8932,149 +8932,149 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>['90']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S42" t="n">
+        <v>13</v>
+      </c>
+      <c r="T42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X42" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA42" t="n">
         <v>10</v>
       </c>
-      <c r="T42" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U42" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V42" t="n">
-        <v>4</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X42" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>7</v>
-      </c>
       <c r="AB42" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF42" t="n">
         <v>1.1</v>
       </c>
-      <c r="AC42" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>1.04</v>
-      </c>
       <c r="AG42" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AI42" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="AJ42" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK42" t="n">
         <v>1.65</v>
       </c>
-      <c r="AK42" t="n">
-        <v>2.11</v>
-      </c>
       <c r="AL42" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="AM42" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="AN42" t="n">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="AO42" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.82</v>
+        <v>1.53</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR42" t="n">
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.72</v>
+        <v>1.28</v>
       </c>
       <c r="AT42" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU42" t="n">
         <v>1.38</v>
       </c>
-      <c r="AU42" t="n">
-        <v>1.43</v>
-      </c>
       <c r="AV42" t="n">
-        <v>0.9</v>
+        <v>1.38</v>
       </c>
       <c r="AW42" t="n">
-        <v>2.33</v>
+        <v>2.76</v>
       </c>
       <c r="AX42" t="n">
-        <v>1.5</v>
+        <v>1.89</v>
       </c>
       <c r="AY42" t="n">
-        <v>8.300000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AZ42" t="n">
-        <v>3.46</v>
+        <v>2.41</v>
       </c>
       <c r="BA42" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="BB42" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="BC42" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="BD42" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="BE42" t="n">
-        <v>3.92</v>
+        <v>3.8</v>
       </c>
       <c r="BF42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI42" t="n">
         <v>8</v>
       </c>
-      <c r="BH42" t="n">
-        <v>11</v>
-      </c>
-      <c r="BI42" t="n">
+      <c r="BJ42" t="n">
         <v>9</v>
       </c>
-      <c r="BJ42" t="n">
-        <v>14</v>
-      </c>
       <c r="BK42" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -9082,7 +9082,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>2280734</v>
+        <v>2280733</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -9102,86 +9102,86 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L43" t="n">
         <v>2</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>['34', '48']</t>
+          <t>['45+1', '90']</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['26', '81']</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R43" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T43" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U43" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y43" t="n">
         <v>3.4</v>
       </c>
-      <c r="W43" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X43" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Z43" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AA43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB43" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC43" t="n">
         <v>2.5</v>
       </c>
       <c r="AD43" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AE43" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="AF43" t="n">
         <v>1.08</v>
@@ -9190,94 +9190,94 @@
         <v>7</v>
       </c>
       <c r="AH43" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AI43" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AJ43" t="n">
-        <v>2.03</v>
+        <v>2.17</v>
       </c>
       <c r="AK43" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AL43" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AM43" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AN43" t="n">
         <v>1.44</v>
       </c>
       <c r="AO43" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AP43" t="n">
         <v>1.49</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AR43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.8</v>
+        <v>1.47</v>
       </c>
       <c r="AU43" t="n">
-        <v>1.23</v>
+        <v>1.56</v>
       </c>
       <c r="AV43" t="n">
-        <v>2.13</v>
+        <v>1.96</v>
       </c>
       <c r="AW43" t="n">
-        <v>3.36</v>
+        <v>3.52</v>
       </c>
       <c r="AX43" t="n">
         <v>1.95</v>
       </c>
       <c r="AY43" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ43" t="n">
         <v>2.1</v>
       </c>
       <c r="BA43" t="n">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="BB43" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="BC43" t="n">
-        <v>1.95</v>
+        <v>2.28</v>
       </c>
       <c r="BD43" t="n">
-        <v>2.52</v>
+        <v>3.04</v>
       </c>
       <c r="BE43" t="n">
-        <v>3.48</v>
+        <v>4.25</v>
       </c>
       <c r="BF43" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BG43" t="n">
         <v>4</v>
       </c>
       <c r="BH43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI43" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BJ43" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BK43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -9285,7 +9285,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>2280733</v>
+        <v>2280734</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -9305,86 +9305,86 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Querétaro</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
         <v>2</v>
       </c>
       <c r="M44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>['45+1', '90']</t>
+          <t>['34', '48']</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>['26', '81']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
         <v>9</v>
       </c>
-      <c r="R44" t="n">
-        <v>4</v>
-      </c>
       <c r="S44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T44" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V44" t="n">
         <v>3.4</v>
       </c>
-      <c r="U44" t="n">
-        <v>2</v>
-      </c>
-      <c r="V44" t="n">
-        <v>3.5</v>
-      </c>
       <c r="W44" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X44" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y44" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AA44" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB44" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC44" t="n">
         <v>2.5</v>
       </c>
       <c r="AD44" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AE44" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="AF44" t="n">
         <v>1.08</v>
@@ -9393,94 +9393,94 @@
         <v>7</v>
       </c>
       <c r="AH44" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AI44" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AJ44" t="n">
-        <v>2.17</v>
+        <v>2.03</v>
       </c>
       <c r="AK44" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AL44" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AM44" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AN44" t="n">
         <v>1.44</v>
       </c>
       <c r="AO44" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AP44" t="n">
         <v>1.49</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.47</v>
+        <v>1.8</v>
       </c>
       <c r="AU44" t="n">
-        <v>1.56</v>
+        <v>1.23</v>
       </c>
       <c r="AV44" t="n">
-        <v>1.96</v>
+        <v>2.13</v>
       </c>
       <c r="AW44" t="n">
-        <v>3.52</v>
+        <v>3.36</v>
       </c>
       <c r="AX44" t="n">
         <v>1.95</v>
       </c>
       <c r="AY44" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ44" t="n">
         <v>2.1</v>
       </c>
       <c r="BA44" t="n">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="BB44" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="BC44" t="n">
-        <v>2.28</v>
+        <v>1.95</v>
       </c>
       <c r="BD44" t="n">
-        <v>3.04</v>
+        <v>2.52</v>
       </c>
       <c r="BE44" t="n">
-        <v>4.25</v>
+        <v>3.48</v>
       </c>
       <c r="BF44" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BG44" t="n">
         <v>4</v>
       </c>
       <c r="BH44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI44" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ44" t="n">
         <v>9</v>
       </c>
-      <c r="BJ44" t="n">
-        <v>16</v>
-      </c>
       <c r="BK44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -10300,7 +10300,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>2280739</v>
+        <v>2280740</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -10320,12 +10320,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Atlético San Luis</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -10360,139 +10360,139 @@
         <v>7</v>
       </c>
       <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>8</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V49" t="n">
         <v>4</v>
       </c>
-      <c r="S49" t="n">
-        <v>11</v>
-      </c>
-      <c r="T49" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U49" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V49" t="n">
-        <v>3.5</v>
-      </c>
       <c r="W49" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="X49" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD49" t="n">
         <v>2.5</v>
       </c>
-      <c r="Y49" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP49" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AQ49" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AR49" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AS49" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AT49" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AU49" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AV49" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AW49" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="AX49" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY49" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ49" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="BA49" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="BB49" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="BC49" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="BD49" t="n">
-        <v>2.77</v>
-      </c>
       <c r="BE49" t="n">
-        <v>3.92</v>
+        <v>3.34</v>
       </c>
       <c r="BF49" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BG49" t="n">
         <v>5</v>
       </c>
       <c r="BH49" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="BI49" t="n">
         <v>6</v>
       </c>
       <c r="BJ49" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="BK49" t="n">
         <v>11</v>
@@ -10503,7 +10503,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>2280740</v>
+        <v>2280739</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -10523,12 +10523,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Atlético San Luis</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -10563,139 +10563,139 @@
         <v>7</v>
       </c>
       <c r="R50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S50" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T50" t="n">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="U50" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="V50" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="W50" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="X50" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="Z50" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AA50" t="n">
-        <v>6.95</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="AB50" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AC50" t="n">
-        <v>1.98</v>
+        <v>2.47</v>
       </c>
       <c r="AD50" t="n">
-        <v>3.33</v>
+        <v>3.1</v>
       </c>
       <c r="AE50" t="n">
-        <v>3.78</v>
+        <v>2.92</v>
       </c>
       <c r="AF50" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AG50" t="n">
-        <v>9.300000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="AH50" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="AI50" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1.88</v>
+        <v>2.11</v>
       </c>
       <c r="AK50" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="AL50" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS50" t="n">
         <v>1.78</v>
       </c>
-      <c r="AM50" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AP50" t="n">
+      <c r="AT50" t="n">
         <v>1.8</v>
       </c>
-      <c r="AQ50" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR50" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS50" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AT50" t="n">
-        <v>0.9399999999999999</v>
-      </c>
       <c r="AU50" t="n">
-        <v>1.49</v>
+        <v>1.75</v>
       </c>
       <c r="AV50" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="AW50" t="n">
-        <v>3.21</v>
+        <v>3.62</v>
       </c>
       <c r="AX50" t="n">
-        <v>1.51</v>
+        <v>2</v>
       </c>
       <c r="AY50" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AZ50" t="n">
-        <v>3.07</v>
+        <v>2.05</v>
       </c>
       <c r="BA50" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="BB50" t="n">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="BC50" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="BD50" t="n">
-        <v>2.5</v>
+        <v>2.77</v>
       </c>
       <c r="BE50" t="n">
-        <v>3.34</v>
+        <v>3.92</v>
       </c>
       <c r="BF50" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BG50" t="n">
         <v>5</v>
       </c>
       <c r="BH50" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="BI50" t="n">
         <v>6</v>
       </c>
       <c r="BJ50" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BK50" t="n">
         <v>11</v>
@@ -11256,7 +11256,7 @@
         <v>1.89</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU53" t="n">
         <v>1.7</v>
@@ -11659,7 +11659,7 @@
         <v>1.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AT55" t="n">
         <v>0.84</v>
@@ -11865,7 +11865,7 @@
         <v>1.18</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU56" t="n">
         <v>1.2</v>
@@ -12471,7 +12471,7 @@
         <v>1.67</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="AT59" t="n">
         <v>1.17</v>
@@ -12877,7 +12877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AT61" t="n">
         <v>0.76</v>
@@ -13286,7 +13286,7 @@
         <v>2.05</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU63" t="n">
         <v>2.23</v>
@@ -13486,7 +13486,7 @@
         <v>1.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT64" t="n">
         <v>0.78</v>
@@ -13692,7 +13692,7 @@
         <v>1.06</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU65" t="n">
         <v>1.69</v>
@@ -14704,10 +14704,10 @@
         <v>0.25</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU70" t="n">
         <v>1.75</v>
@@ -15113,7 +15113,7 @@
         <v>1.86</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AU72" t="n">
         <v>2.42</v>
@@ -15922,7 +15922,7 @@
         <v>2</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AT76" t="n">
         <v>1.9</v>
@@ -15984,7 +15984,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>2280769</v>
+        <v>2280770</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -16004,59 +16004,59 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Tijuana</t>
+          <t>América</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N77" t="n">
         <v>3</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>['21']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>['24', '66']</t>
+          <t>['34', '49', '75']</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S77" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T77" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="U77" t="n">
         <v>2.1</v>
       </c>
       <c r="V77" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="W77" t="n">
         <v>1.44</v>
@@ -16077,13 +16077,13 @@
         <v>1.07</v>
       </c>
       <c r="AC77" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="AD77" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="AE77" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AF77" t="n">
         <v>1.07</v>
@@ -16092,94 +16092,94 @@
         <v>7.5</v>
       </c>
       <c r="AH77" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AI77" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AJ77" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AK77" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="AL77" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AM77" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AN77" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AO77" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR77" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.76</v>
+        <v>2.1</v>
       </c>
       <c r="AU77" t="n">
-        <v>1.59</v>
+        <v>2.19</v>
       </c>
       <c r="AV77" t="n">
-        <v>1.09</v>
+        <v>1.63</v>
       </c>
       <c r="AW77" t="n">
-        <v>2.68</v>
+        <v>3.82</v>
       </c>
       <c r="AX77" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="AY77" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AZ77" t="n">
-        <v>2.99</v>
+        <v>2.83</v>
       </c>
       <c r="BA77" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="BB77" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="BC77" t="n">
         <v>2</v>
       </c>
       <c r="BD77" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="BE77" t="n">
-        <v>3.42</v>
+        <v>3.64</v>
       </c>
       <c r="BF77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG77" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BH77" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BI77" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BJ77" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK77" t="n">
         <v>16</v>
-      </c>
-      <c r="BK77" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="78">
@@ -16187,7 +16187,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>2280770</v>
+        <v>2280769</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -16207,59 +16207,59 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>América</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N78" t="n">
         <v>3</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['21']</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>['34', '49', '75']</t>
+          <t>['24', '66']</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S78" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T78" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="U78" t="n">
         <v>2.1</v>
       </c>
       <c r="V78" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="W78" t="n">
         <v>1.44</v>
@@ -16280,13 +16280,13 @@
         <v>1.07</v>
       </c>
       <c r="AC78" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="AD78" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AE78" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="AF78" t="n">
         <v>1.07</v>
@@ -16295,94 +16295,94 @@
         <v>7.5</v>
       </c>
       <c r="AH78" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AI78" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AJ78" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AK78" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="AL78" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AM78" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AN78" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="BA78" t="n">
         <v>1.27</v>
       </c>
-      <c r="AO78" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AP78" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AQ78" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR78" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AS78" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AT78" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU78" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AV78" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AW78" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="AX78" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AY78" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AZ78" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="BA78" t="n">
-        <v>1.31</v>
-      </c>
       <c r="BB78" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="BC78" t="n">
         <v>2</v>
       </c>
       <c r="BD78" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="BE78" t="n">
-        <v>3.64</v>
+        <v>3.42</v>
       </c>
       <c r="BF78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG78" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BH78" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK78" t="n">
         <v>9</v>
-      </c>
-      <c r="BI78" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ78" t="n">
-        <v>12</v>
-      </c>
-      <c r="BK78" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="79">
@@ -17202,7 +17202,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>2280776</v>
+        <v>2280777</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -17222,182 +17222,182 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Tigres UANL</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>['45+1']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>['11']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S83" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T83" t="n">
-        <v>2.39</v>
+        <v>2.56</v>
       </c>
       <c r="U83" t="n">
-        <v>2.11</v>
+        <v>2.17</v>
       </c>
       <c r="V83" t="n">
-        <v>4.58</v>
+        <v>4.25</v>
       </c>
       <c r="W83" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="X83" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="Y83" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="Z83" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AA83" t="n">
-        <v>6.55</v>
+        <v>7.1</v>
       </c>
       <c r="AB83" t="n">
         <v>1.08</v>
       </c>
       <c r="AC83" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AD83" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AE83" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AF83" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="AG83" t="n">
-        <v>10.75</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH83" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AI83" t="n">
-        <v>3.33</v>
+        <v>3.4</v>
       </c>
       <c r="AJ83" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AK83" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="AL83" t="n">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="AM83" t="n">
-        <v>1.86</v>
+        <v>2.01</v>
       </c>
       <c r="AN83" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AO83" t="n">
         <v>1.29</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AR83" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.33</v>
+        <v>2.25</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.84</v>
+        <v>1.47</v>
       </c>
       <c r="AU83" t="n">
-        <v>1.52</v>
+        <v>2.06</v>
       </c>
       <c r="AV83" t="n">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AW83" t="n">
-        <v>2.83</v>
+        <v>3.19</v>
       </c>
       <c r="AX83" t="n">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="AY83" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG83" t="n">
         <v>8</v>
       </c>
-      <c r="AZ83" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="BA83" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="BB83" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BC83" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="BD83" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="BE83" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="BF83" t="n">
+      <c r="BH83" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI83" t="n">
         <v>7</v>
       </c>
-      <c r="BG83" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH83" t="n">
-        <v>9</v>
-      </c>
-      <c r="BI83" t="n">
-        <v>5</v>
-      </c>
       <c r="BJ83" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BK83" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
@@ -17405,7 +17405,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>2280777</v>
+        <v>2280776</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -17425,182 +17425,182 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Tigres UANL</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['45+1']</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11']</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S84" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T84" t="n">
-        <v>2.56</v>
+        <v>2.39</v>
       </c>
       <c r="U84" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="V84" t="n">
-        <v>4.25</v>
+        <v>4.58</v>
       </c>
       <c r="W84" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X84" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z84" t="n">
         <v>1.39</v>
       </c>
-      <c r="X84" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="Z84" t="n">
-        <v>1.41</v>
-      </c>
       <c r="AA84" t="n">
-        <v>7.1</v>
+        <v>6.55</v>
       </c>
       <c r="AB84" t="n">
         <v>1.08</v>
       </c>
       <c r="AC84" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AD84" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AE84" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AF84" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AG84" t="n">
-        <v>9.199999999999999</v>
+        <v>10.75</v>
       </c>
       <c r="AH84" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AI84" t="n">
-        <v>3.4</v>
+        <v>3.33</v>
       </c>
       <c r="AJ84" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="AK84" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AL84" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="AM84" t="n">
-        <v>2.01</v>
+        <v>1.86</v>
       </c>
       <c r="AN84" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AO84" t="n">
         <v>1.29</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="AQ84" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR84" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT84" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX84" t="n">
         <v>1.56</v>
       </c>
-      <c r="AU84" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AV84" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AW84" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="AX84" t="n">
-        <v>1.82</v>
-      </c>
       <c r="AY84" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ84" t="n">
-        <v>2.52</v>
+        <v>3.18</v>
       </c>
       <c r="BA84" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="BB84" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="BC84" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="BD84" t="n">
-        <v>2.84</v>
+        <v>2.73</v>
       </c>
       <c r="BE84" t="n">
-        <v>3.95</v>
+        <v>3.74</v>
       </c>
       <c r="BF84" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG84" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BH84" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK84" t="n">
         <v>10</v>
-      </c>
-      <c r="BI84" t="n">
-        <v>7</v>
-      </c>
-      <c r="BJ84" t="n">
-        <v>14</v>
-      </c>
-      <c r="BK84" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="85">
@@ -17608,7 +17608,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>2280778</v>
+        <v>2280774</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -17628,182 +17628,182 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>América</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Mazatlán</t>
         </is>
       </c>
       <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="n">
+        <v>2</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>7</v>
+      </c>
+      <c r="R85" t="n">
+        <v>7</v>
+      </c>
+      <c r="S85" t="n">
+        <v>14</v>
+      </c>
+      <c r="T85" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="U85" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V85" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="BF85" t="n">
         <v>3</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>3</v>
-      </c>
-      <c r="L85" t="n">
+      <c r="BG85" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI85" t="n">
         <v>7</v>
       </c>
-      <c r="M85" t="n">
-        <v>0</v>
-      </c>
-      <c r="N85" t="n">
-        <v>7</v>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>['15', '22', '45+9', '53', '73', '85', '90']</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q85" t="n">
-        <v>2</v>
-      </c>
-      <c r="R85" t="n">
-        <v>2</v>
-      </c>
-      <c r="S85" t="n">
-        <v>4</v>
-      </c>
-      <c r="T85" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U85" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="V85" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="W85" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="X85" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="Y85" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Z85" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AA85" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB85" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC85" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AD85" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AF85" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AK85" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AL85" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM85" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AN85" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AO85" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AP85" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AQ85" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AR85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS85" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AT85" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AU85" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AV85" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AW85" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AX85" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AY85" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AZ85" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BA85" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="BB85" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="BC85" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="BD85" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="BE85" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BF85" t="n">
+      <c r="BJ85" t="n">
         <v>9</v>
       </c>
-      <c r="BG85" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH85" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI85" t="n">
-        <v>10</v>
-      </c>
-      <c r="BJ85" t="n">
-        <v>19</v>
-      </c>
       <c r="BK85" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86">
@@ -17811,7 +17811,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>2280774</v>
+        <v>2280778</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -17831,182 +17831,182 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Juárez</t>
+          <t>América</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Mazatlán</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L86" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>['47']</t>
+          <t>['15', '22', '45+9', '53', '73', '85', '90']</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>['10']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R86" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S86" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="T86" t="n">
-        <v>2.69</v>
+        <v>2.22</v>
       </c>
       <c r="U86" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="V86" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X86" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ86" t="n">
         <v>1.95</v>
       </c>
-      <c r="V86" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="W86" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="X86" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="Y86" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="Z86" t="n">
+      <c r="AK86" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX86" t="n">
         <v>1.27</v>
       </c>
-      <c r="AA86" t="n">
+      <c r="AY86" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH86" t="n">
         <v>10</v>
       </c>
-      <c r="AB86" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC86" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AD86" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="AH86" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AK86" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AL86" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AM86" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AN86" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AO86" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP86" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AQ86" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AR86" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AS86" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AT86" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AU86" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AV86" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AW86" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AX86" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AY86" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AZ86" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BA86" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BB86" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="BC86" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="BD86" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BE86" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="BF86" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG86" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH86" t="n">
-        <v>6</v>
-      </c>
       <c r="BI86" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BJ86" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="BK86" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87">
@@ -18158,7 +18158,7 @@
         <v>1.35</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AU87" t="n">
         <v>1.77</v>
@@ -18764,7 +18764,7 @@
         <v>1.83</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT90" t="n">
         <v>1.9</v>
@@ -19173,7 +19173,7 @@
         <v>1.35</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU92" t="n">
         <v>1.81</v>
@@ -19376,7 +19376,7 @@
         <v>2.05</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU93" t="n">
         <v>2.03</v>
@@ -19579,7 +19579,7 @@
         <v>1.18</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AU94" t="n">
         <v>1.32</v>
@@ -20591,7 +20591,7 @@
         <v>0.67</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT99" t="n">
         <v>0.53</v>
@@ -20794,7 +20794,7 @@
         <v>1.33</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AT100" t="n">
         <v>1.8</v>
@@ -21000,7 +21000,7 @@
         <v>1.72</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU101" t="n">
         <v>1.57</v>
@@ -21203,7 +21203,7 @@
         <v>1.89</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU102" t="n">
         <v>1.79</v>
@@ -22421,7 +22421,7 @@
         <v>2.05</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AU108" t="n">
         <v>2.06</v>
@@ -22621,7 +22621,7 @@
         <v>1.2</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="AT109" t="n">
         <v>0.71</v>
@@ -23027,10 +23027,10 @@
         <v>1.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU111" t="n">
         <v>2.02</v>
@@ -23230,7 +23230,7 @@
         <v>1.25</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AT112" t="n">
         <v>1.47</v>
@@ -23698,7 +23698,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>2280808</v>
+        <v>2280809</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -23718,98 +23718,98 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>América</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Atlético San Luis</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L115" t="n">
         <v>3</v>
       </c>
       <c r="M115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>['17', '28', '65']</t>
+          <t>['45', '54', '56']</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>['30', '49']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q115" t="n">
+        <v>8</v>
+      </c>
+      <c r="R115" t="n">
         <v>3</v>
       </c>
-      <c r="R115" t="n">
-        <v>0</v>
-      </c>
       <c r="S115" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="T115" t="n">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="U115" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="V115" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="W115" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="X115" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Y115" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Z115" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AA115" t="n">
-        <v>6.45</v>
+        <v>6</v>
       </c>
       <c r="AB115" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="AC115" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="AD115" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="AE115" t="n">
-        <v>5.2</v>
+        <v>5.05</v>
       </c>
       <c r="AF115" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG115" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH115" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AI115" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="AJ115" t="n">
         <v>1.75</v>
@@ -23818,82 +23818,82 @@
         <v>1.89</v>
       </c>
       <c r="AL115" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="AM115" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="AN115" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="AO115" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AP115" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ115" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="AR115" t="n">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.21</v>
+        <v>2</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU115" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="AV115" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="AW115" t="n">
-        <v>3.18</v>
+        <v>3.3</v>
       </c>
       <c r="AX115" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AY115" t="n">
-        <v>6.75</v>
+        <v>7.25</v>
       </c>
       <c r="AZ115" t="n">
-        <v>4.25</v>
+        <v>5.25</v>
       </c>
       <c r="BA115" t="n">
         <v>1.25</v>
       </c>
       <c r="BB115" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="BC115" t="n">
         <v>1.9</v>
       </c>
       <c r="BD115" t="n">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="BE115" t="n">
         <v>3.28</v>
       </c>
       <c r="BF115" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BG115" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH115" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI115" t="n">
         <v>7</v>
       </c>
-      <c r="BI115" t="n">
-        <v>1</v>
-      </c>
       <c r="BJ115" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BK115" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116">
@@ -23901,7 +23901,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>2280809</v>
+        <v>2280808</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -23921,98 +23921,98 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>América</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Atlético San Luis</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L116" t="n">
         <v>3</v>
       </c>
       <c r="M116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N116" t="n">
+        <v>5</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['17', '28', '65']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>['30', '49']</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
         <v>3</v>
       </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>['45', '54', '56']</t>
-        </is>
-      </c>
-      <c r="P116" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q116" t="n">
-        <v>8</v>
-      </c>
       <c r="R116" t="n">
+        <v>0</v>
+      </c>
+      <c r="S116" t="n">
         <v>3</v>
       </c>
-      <c r="S116" t="n">
-        <v>11</v>
-      </c>
       <c r="T116" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="U116" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="V116" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="W116" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="X116" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Y116" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Z116" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AA116" t="n">
-        <v>6</v>
+        <v>6.45</v>
       </c>
       <c r="AB116" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AC116" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AD116" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="AE116" t="n">
-        <v>5.05</v>
+        <v>5.2</v>
       </c>
       <c r="AF116" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG116" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH116" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AI116" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="AJ116" t="n">
         <v>1.75</v>
@@ -24021,82 +24021,82 @@
         <v>1.89</v>
       </c>
       <c r="AL116" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM116" t="n">
         <v>1.87</v>
       </c>
-      <c r="AM116" t="n">
-        <v>1.86</v>
-      </c>
       <c r="AN116" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="AO116" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ116" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AR116" t="n">
-        <v>1.17</v>
+        <v>0.83</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.11</v>
+        <v>2.25</v>
       </c>
       <c r="AT116" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="AU116" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="AV116" t="n">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AW116" t="n">
-        <v>3.3</v>
+        <v>3.18</v>
       </c>
       <c r="AX116" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AY116" t="n">
-        <v>7.25</v>
+        <v>6.75</v>
       </c>
       <c r="AZ116" t="n">
-        <v>5.25</v>
+        <v>4.25</v>
       </c>
       <c r="BA116" t="n">
         <v>1.25</v>
       </c>
       <c r="BB116" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="BC116" t="n">
         <v>1.9</v>
       </c>
       <c r="BD116" t="n">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="BE116" t="n">
         <v>3.28</v>
       </c>
       <c r="BF116" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH116" t="n">
         <v>7</v>
       </c>
-      <c r="BG116" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH116" t="n">
-        <v>12</v>
-      </c>
       <c r="BI116" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BJ116" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BK116" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117">
@@ -24654,7 +24654,7 @@
         <v>0.71</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU119" t="n">
         <v>1.36</v>
@@ -25466,7 +25466,7 @@
         <v>1.06</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AU123" t="n">
         <v>1.69</v>
@@ -26072,7 +26072,7 @@
         <v>0.6</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AT126" t="n">
         <v>0.53</v>
@@ -26275,7 +26275,7 @@
         <v>1.14</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT127" t="n">
         <v>0.84</v>
@@ -26684,7 +26684,7 @@
         <v>1.33</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU129" t="n">
         <v>1.51</v>
@@ -27087,10 +27087,10 @@
         <v>1.33</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU131" t="n">
         <v>1.79</v>
@@ -27290,10 +27290,10 @@
         <v>1</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AU132" t="n">
         <v>2.05</v>
@@ -27902,7 +27902,7 @@
         <v>1.42</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU135" t="n">
         <v>1.87</v>
@@ -28305,10 +28305,10 @@
         <v>0.25</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU137" t="n">
         <v>2.07</v>
@@ -28508,7 +28508,7 @@
         <v>1.5</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT138" t="n">
         <v>1.47</v>
@@ -30541,7 +30541,7 @@
         <v>1.28</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU148" t="n">
         <v>1.28</v>
@@ -30741,7 +30741,7 @@
         <v>1.57</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="AT149" t="n">
         <v>1.8</v>
@@ -31350,7 +31350,7 @@
         <v>0.25</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AT152" t="n">
         <v>0.65</v>
@@ -31959,7 +31959,7 @@
         <v>1.12</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT155" t="n">
         <v>0.9399999999999999</v>
@@ -32365,7 +32365,7 @@
         <v>1.12</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AT157" t="n">
         <v>0.97</v>
@@ -32571,7 +32571,7 @@
         <v>1.13</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AU158" t="n">
         <v>1.67</v>
@@ -32774,7 +32774,7 @@
         <v>1.13</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AU159" t="n">
         <v>1.67</v>
@@ -32977,7 +32977,7 @@
         <v>1.37</v>
       </c>
       <c r="AT160" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="AU160" t="n">
         <v>1.62</v>
@@ -33177,10 +33177,10 @@
         <v>1.94</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU161" t="n">
         <v>1.78</v>
@@ -33380,7 +33380,7 @@
         <v>1.88</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT162" t="n">
         <v>1.93</v>
@@ -33583,7 +33583,7 @@
         <v>1.47</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="AT163" t="n">
         <v>1.37</v>
@@ -33786,7 +33786,7 @@
         <v>1.21</v>
       </c>
       <c r="AS164" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AT164" t="n">
         <v>1.13</v>
@@ -33989,10 +33989,10 @@
         <v>1.74</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AU165" t="n">
         <v>1.9</v>
@@ -34195,7 +34195,7 @@
         <v>1.93</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AU166" t="n">
         <v>2.13</v>
@@ -34395,10 +34395,10 @@
         <v>2.32</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AT167" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AU167" t="n">
         <v>1.81</v>
@@ -34601,7 +34601,7 @@
         <v>1.93</v>
       </c>
       <c r="AT168" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="AU168" t="n">
         <v>2.06</v>
@@ -34801,10 +34801,10 @@
         <v>1.86</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AU169" t="n">
         <v>2.08</v>
@@ -35004,7 +35004,7 @@
         <v>1.9</v>
       </c>
       <c r="AS170" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="AT170" t="n">
         <v>1.93</v>
@@ -35207,7 +35207,7 @@
         <v>1.95</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AT171" t="n">
         <v>1.93</v>
@@ -35413,7 +35413,7 @@
         <v>1.93</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AU172" t="n">
         <v>2.06</v>
@@ -35616,7 +35616,7 @@
         <v>1.18</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU173" t="n">
         <v>1.38</v>
@@ -35816,7 +35816,7 @@
         <v>0.22</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT174" t="n">
         <v>0.65</v>
@@ -36019,7 +36019,7 @@
         <v>1.11</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="AT175" t="n">
         <v>1.47</v>
@@ -36428,7 +36428,7 @@
         <v>1.89</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU177" t="n">
         <v>1.94</v>
@@ -38049,7 +38049,7 @@
         <v>1.91</v>
       </c>
       <c r="AS185" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AT185" t="n">
         <v>2.1</v>
@@ -38864,7 +38864,7 @@
         <v>0.71</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AU189" t="n">
         <v>1.55</v>
@@ -39067,7 +39067,7 @@
         <v>1.18</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU190" t="n">
         <v>1.65</v>
@@ -39267,10 +39267,10 @@
         <v>1.44</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU191" t="n">
         <v>2.14</v>
@@ -39470,7 +39470,7 @@
         <v>0.8</v>
       </c>
       <c r="AS192" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT192" t="n">
         <v>0.84</v>
@@ -39673,7 +39673,7 @@
         <v>1.36</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT193" t="n">
         <v>1.38</v>
@@ -40285,7 +40285,7 @@
         <v>1.06</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU196" t="n">
         <v>1.76</v>
@@ -40691,7 +40691,7 @@
         <v>1.33</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AU198" t="n">
         <v>1.55</v>
@@ -41300,7 +41300,7 @@
         <v>1.86</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU201" t="n">
         <v>2.06</v>
@@ -41359,7 +41359,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>4661623</v>
+        <v>4661622</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -41379,182 +41379,182 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Juárez</t>
+          <t>América</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Mazatlán</t>
         </is>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K202" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L202" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N202" t="n">
+        <v>6</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['30', '32', '34', '40', '59', '90+3']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>5</v>
+      </c>
+      <c r="R202" t="n">
+        <v>4</v>
+      </c>
+      <c r="S202" t="n">
+        <v>9</v>
+      </c>
+      <c r="T202" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V202" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X202" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE202" t="n">
         <v>3</v>
       </c>
-      <c r="O202" t="inlineStr">
-        <is>
-          <t>['60']</t>
-        </is>
-      </c>
-      <c r="P202" t="inlineStr">
-        <is>
-          <t>['23', '38']</t>
-        </is>
-      </c>
-      <c r="Q202" t="n">
-        <v>9</v>
-      </c>
-      <c r="R202" t="n">
-        <v>2</v>
-      </c>
-      <c r="S202" t="n">
-        <v>11</v>
-      </c>
-      <c r="T202" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U202" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V202" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="W202" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X202" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y202" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Z202" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA202" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB202" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC202" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AD202" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AE202" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AF202" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG202" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH202" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AI202" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AJ202" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AK202" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AL202" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM202" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN202" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AO202" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP202" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AQ202" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AR202" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AS202" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AT202" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AU202" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AV202" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AW202" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="AX202" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AY202" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AZ202" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA202" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="BB202" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="BC202" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="BD202" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="BE202" t="n">
-        <v>4.1</v>
-      </c>
       <c r="BF202" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BG202" t="n">
         <v>3</v>
       </c>
       <c r="BH202" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="BI202" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BJ202" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="BK202" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203">
@@ -41562,7 +41562,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>4661622</v>
+        <v>4661623</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -41582,182 +41582,182 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>América</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Mazatlán</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="I203" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K203" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="n">
+        <v>2</v>
+      </c>
+      <c r="N203" t="n">
+        <v>3</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['23', '38']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>9</v>
+      </c>
+      <c r="R203" t="n">
+        <v>2</v>
+      </c>
+      <c r="S203" t="n">
+        <v>11</v>
+      </c>
+      <c r="T203" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V203" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X203" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF203" t="n">
         <v>6</v>
-      </c>
-      <c r="M203" t="n">
-        <v>0</v>
-      </c>
-      <c r="N203" t="n">
-        <v>6</v>
-      </c>
-      <c r="O203" t="inlineStr">
-        <is>
-          <t>['30', '32', '34', '40', '59', '90+3']</t>
-        </is>
-      </c>
-      <c r="P203" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q203" t="n">
-        <v>5</v>
-      </c>
-      <c r="R203" t="n">
-        <v>4</v>
-      </c>
-      <c r="S203" t="n">
-        <v>9</v>
-      </c>
-      <c r="T203" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U203" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="V203" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W203" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="X203" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y203" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Z203" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA203" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AB203" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AC203" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AD203" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE203" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AF203" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG203" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH203" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AI203" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AJ203" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AK203" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AL203" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM203" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN203" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AO203" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AP203" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AQ203" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AR203" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AS203" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AT203" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AU203" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AV203" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AW203" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="AX203" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AY203" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ203" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA203" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="BB203" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BC203" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="BD203" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="BE203" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF203" t="n">
-        <v>10</v>
       </c>
       <c r="BG203" t="n">
         <v>3</v>
       </c>
       <c r="BH203" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="BI203" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>28</v>
+      </c>
+      <c r="BK203" t="n">
         <v>7</v>
-      </c>
-      <c r="BJ203" t="n">
-        <v>18</v>
-      </c>
-      <c r="BK203" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="204">
@@ -41906,7 +41906,7 @@
         <v>0.73</v>
       </c>
       <c r="AS204" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AT204" t="n">
         <v>1.17</v>
@@ -43330,7 +43330,7 @@
         <v>1.75</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU211" t="n">
         <v>1.59</v>
@@ -43736,7 +43736,7 @@
         <v>1.35</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU213" t="n">
         <v>1.76</v>
@@ -43936,7 +43936,7 @@
         <v>0.27</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT214" t="n">
         <v>0.65</v>
@@ -44139,7 +44139,7 @@
         <v>1.46</v>
       </c>
       <c r="AS215" t="n">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="AT215" t="n">
         <v>1.38</v>
@@ -44954,7 +44954,7 @@
         <v>1.18</v>
       </c>
       <c r="AT219" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU219" t="n">
         <v>1.65</v>
@@ -45154,7 +45154,7 @@
         <v>0.75</v>
       </c>
       <c r="AS220" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT220" t="n">
         <v>0.72</v>
@@ -45360,7 +45360,7 @@
         <v>1.18</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AU221" t="n">
         <v>1.49</v>
@@ -45966,7 +45966,7 @@
         <v>0.82</v>
       </c>
       <c r="AS224" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AT224" t="n">
         <v>0.9399999999999999</v>
@@ -46028,7 +46028,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>4661645</v>
+        <v>4661644</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -46048,12 +46048,12 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>Tigres UANL</t>
+          <t>León</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Juárez</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="I225" t="n">
@@ -46066,53 +46066,53 @@
         <v>0</v>
       </c>
       <c r="L225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M225" t="n">
         <v>0</v>
       </c>
       <c r="N225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O225" t="inlineStr">
         <is>
+          <t>['64', '82']</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P225" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q225" t="n">
+        <v>10</v>
+      </c>
+      <c r="R225" t="n">
         <v>3</v>
       </c>
-      <c r="R225" t="n">
-        <v>7</v>
-      </c>
       <c r="S225" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T225" t="n">
-        <v>2.11</v>
+        <v>2.75</v>
       </c>
       <c r="U225" t="n">
-        <v>2.31</v>
+        <v>2.15</v>
       </c>
       <c r="V225" t="n">
-        <v>5.35</v>
+        <v>3.4</v>
       </c>
       <c r="W225" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X225" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="Y225" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="Z225" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="AA225" t="n">
         <v>6.25</v>
@@ -46121,109 +46121,109 @@
         <v>1.1</v>
       </c>
       <c r="AC225" t="n">
-        <v>1.52</v>
+        <v>2.12</v>
       </c>
       <c r="AD225" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI225" t="n">
         <v>3.75</v>
       </c>
-      <c r="AE225" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="AF225" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG225" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH225" t="n">
+      <c r="AJ225" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA225" t="n">
         <v>1.22</v>
       </c>
-      <c r="AI225" t="n">
+      <c r="BB225" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>14</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>21</v>
+      </c>
+      <c r="BI225" t="n">
         <v>4</v>
       </c>
-      <c r="AJ225" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AK225" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AL225" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AM225" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN225" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AO225" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AP225" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AQ225" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AR225" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AS225" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AT225" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AU225" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AV225" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AW225" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AX225" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AY225" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AZ225" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="BA225" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="BB225" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="BC225" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="BD225" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="BE225" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="BF225" t="n">
-        <v>7</v>
-      </c>
-      <c r="BG225" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH225" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI225" t="n">
-        <v>7</v>
-      </c>
       <c r="BJ225" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="BK225" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226">
@@ -46231,7 +46231,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="n">
-        <v>4661644</v>
+        <v>4661645</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -46251,12 +46251,12 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>León</t>
+          <t>Tigres UANL</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="I226" t="n">
@@ -46269,17 +46269,17 @@
         <v>0</v>
       </c>
       <c r="L226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M226" t="n">
         <v>0</v>
       </c>
       <c r="N226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>['64', '82']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P226" t="inlineStr">
@@ -46288,34 +46288,34 @@
         </is>
       </c>
       <c r="Q226" t="n">
+        <v>3</v>
+      </c>
+      <c r="R226" t="n">
+        <v>7</v>
+      </c>
+      <c r="S226" t="n">
         <v>10</v>
       </c>
-      <c r="R226" t="n">
-        <v>3</v>
-      </c>
-      <c r="S226" t="n">
-        <v>13</v>
-      </c>
       <c r="T226" t="n">
-        <v>2.75</v>
+        <v>2.11</v>
       </c>
       <c r="U226" t="n">
-        <v>2.15</v>
+        <v>2.31</v>
       </c>
       <c r="V226" t="n">
-        <v>3.4</v>
+        <v>5.35</v>
       </c>
       <c r="W226" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X226" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="Y226" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="Z226" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="AA226" t="n">
         <v>6.25</v>
@@ -46324,109 +46324,109 @@
         <v>1.1</v>
       </c>
       <c r="AC226" t="n">
-        <v>2.12</v>
+        <v>1.52</v>
       </c>
       <c r="AD226" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="AE226" t="n">
-        <v>3.05</v>
+        <v>5.65</v>
       </c>
       <c r="AF226" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="AG226" t="n">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="AH226" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="BA226" t="n">
         <v>1.25</v>
       </c>
-      <c r="AI226" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AJ226" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AK226" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AL226" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AM226" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AN226" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AO226" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP226" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AQ226" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AR226" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AS226" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AT226" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AU226" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AV226" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AW226" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="AX226" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AY226" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ226" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="BA226" t="n">
-        <v>1.22</v>
-      </c>
       <c r="BB226" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="BC226" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="BD226" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="BE226" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="BF226" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BG226" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH226" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="BI226" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BJ226" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="BK226" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="227">
@@ -46637,7 +46637,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="n">
-        <v>4661647</v>
+        <v>4661648</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -46657,19 +46657,19 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Querétaro</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="I228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K228" t="n">
         <v>2</v>
@@ -46678,152 +46678,152 @@
         <v>2</v>
       </c>
       <c r="M228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N228" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>['25', '35']</t>
+          <t>['39', '90']</t>
         </is>
       </c>
       <c r="P228" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['26']</t>
         </is>
       </c>
       <c r="Q228" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R228" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S228" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="T228" t="n">
-        <v>1.93</v>
+        <v>2.35</v>
       </c>
       <c r="U228" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="V228" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="W228" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X228" t="n">
-        <v>3.2</v>
+        <v>2.87</v>
       </c>
       <c r="Y228" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="Z228" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="AA228" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB228" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="AC228" t="n">
-        <v>1.47</v>
+        <v>1.8</v>
       </c>
       <c r="AD228" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="AE228" t="n">
-        <v>6.25</v>
+        <v>4.2</v>
       </c>
       <c r="AF228" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AG228" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AH228" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AI228" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="AJ228" t="n">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="AK228" t="n">
-        <v>2.15</v>
+        <v>1.87</v>
       </c>
       <c r="AL228" t="n">
         <v>1.77</v>
       </c>
       <c r="AM228" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AN228" t="n">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="AO228" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AP228" t="n">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="AQ228" t="n">
-        <v>2.08</v>
+        <v>1.27</v>
       </c>
       <c r="AR228" t="n">
-        <v>0.33</v>
+        <v>0.91</v>
       </c>
       <c r="AS228" t="n">
-        <v>2.21</v>
+        <v>1.78</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.65</v>
+        <v>0.76</v>
       </c>
       <c r="AU228" t="n">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="AV228" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="AW228" t="n">
-        <v>3.4</v>
+        <v>3.12</v>
       </c>
       <c r="AX228" t="n">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="AY228" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AZ228" t="n">
-        <v>3.48</v>
+        <v>3.01</v>
       </c>
       <c r="BA228" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="BB228" t="n">
         <v>1.55</v>
       </c>
       <c r="BC228" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="BD228" t="n">
         <v>2.3</v>
       </c>
       <c r="BE228" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF228" t="n">
         <v>3</v>
       </c>
-      <c r="BF228" t="n">
-        <v>5</v>
-      </c>
       <c r="BG228" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH228" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BI228" t="n">
         <v>10</v>
@@ -46832,7 +46832,7 @@
         <v>14</v>
       </c>
       <c r="BK228" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="229">
@@ -46840,7 +46840,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="n">
-        <v>4661648</v>
+        <v>4661647</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -46860,19 +46860,19 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Tijuana</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="I229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K229" t="n">
         <v>2</v>
@@ -46881,152 +46881,152 @@
         <v>2</v>
       </c>
       <c r="M229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>['39', '90']</t>
+          <t>['25', '35']</t>
         </is>
       </c>
       <c r="P229" t="inlineStr">
         <is>
-          <t>['26']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q229" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R229" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S229" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="T229" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U229" t="n">
         <v>2.35</v>
       </c>
-      <c r="U229" t="n">
+      <c r="V229" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X229" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK229" t="n">
         <v>2.15</v>
-      </c>
-      <c r="V229" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="W229" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X229" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="Y229" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Z229" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AA229" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB229" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC229" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AD229" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE229" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AF229" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG229" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH229" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AI229" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AJ229" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AK229" t="n">
-        <v>1.87</v>
       </c>
       <c r="AL229" t="n">
         <v>1.77</v>
       </c>
       <c r="AM229" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AN229" t="n">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="AO229" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AP229" t="n">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="AQ229" t="n">
-        <v>1.27</v>
+        <v>2.08</v>
       </c>
       <c r="AR229" t="n">
-        <v>0.91</v>
+        <v>0.33</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.71</v>
+        <v>2.25</v>
       </c>
       <c r="AT229" t="n">
-        <v>0.76</v>
+        <v>0.65</v>
       </c>
       <c r="AU229" t="n">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="AV229" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="AW229" t="n">
-        <v>3.12</v>
+        <v>3.4</v>
       </c>
       <c r="AX229" t="n">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="AY229" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AZ229" t="n">
-        <v>3.01</v>
+        <v>3.48</v>
       </c>
       <c r="BA229" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="BB229" t="n">
         <v>1.55</v>
       </c>
       <c r="BC229" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="BD229" t="n">
         <v>2.3</v>
       </c>
       <c r="BE229" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="BF229" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG229" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BH229" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BI229" t="n">
         <v>10</v>
@@ -47035,7 +47035,7 @@
         <v>14</v>
       </c>
       <c r="BK229" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230">
@@ -47999,7 +47999,7 @@
         <v>1.28</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AU234" t="n">
         <v>1.29</v>
@@ -48199,7 +48199,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS235" t="n">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="AT235" t="n">
         <v>0.72</v>
@@ -48405,7 +48405,7 @@
         <v>1.33</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU236" t="n">
         <v>1.54</v>
@@ -49011,7 +49011,7 @@
         <v>0.83</v>
       </c>
       <c r="AS239" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT239" t="n">
         <v>0.76</v>
@@ -49420,7 +49420,7 @@
         <v>1.75</v>
       </c>
       <c r="AT241" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU241" t="n">
         <v>1.6</v>
@@ -50838,10 +50838,10 @@
         <v>1.17</v>
       </c>
       <c r="AS248" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU248" t="n">
         <v>1.87</v>
@@ -51653,7 +51653,7 @@
         <v>1.18</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU252" t="n">
         <v>1.43</v>
@@ -52059,7 +52059,7 @@
         <v>1.18</v>
       </c>
       <c r="AT254" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU254" t="n">
         <v>1.72</v>
@@ -52262,7 +52262,7 @@
         <v>1.72</v>
       </c>
       <c r="AT255" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU255" t="n">
         <v>1.86</v>
@@ -52462,7 +52462,7 @@
         <v>1.6</v>
       </c>
       <c r="AS256" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT256" t="n">
         <v>1.8</v>
@@ -52665,7 +52665,7 @@
         <v>0.86</v>
       </c>
       <c r="AS257" t="n">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="AT257" t="n">
         <v>0.78</v>
@@ -52868,10 +52868,10 @@
         <v>1</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT258" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AU258" t="n">
         <v>1.82</v>
@@ -54492,7 +54492,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS266" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AT266" t="n">
         <v>0.71</v>
@@ -54554,7 +54554,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="n">
-        <v>4661687</v>
+        <v>4661686</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -54574,12 +54574,12 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>Santos Laguna</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Tijuana</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="I267" t="n">
@@ -54592,164 +54592,164 @@
         <v>2</v>
       </c>
       <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="n">
+        <v>2</v>
+      </c>
+      <c r="N267" t="n">
         <v>3</v>
       </c>
-      <c r="M267" t="n">
-        <v>2</v>
-      </c>
-      <c r="N267" t="n">
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>['17', '53']</t>
+        </is>
+      </c>
+      <c r="Q267" t="n">
+        <v>4</v>
+      </c>
+      <c r="R267" t="n">
+        <v>1</v>
+      </c>
+      <c r="S267" t="n">
         <v>5</v>
       </c>
-      <c r="O267" t="inlineStr">
-        <is>
-          <t>['45', '52', '74']</t>
-        </is>
-      </c>
-      <c r="P267" t="inlineStr">
-        <is>
-          <t>['45+4', '60']</t>
-        </is>
-      </c>
-      <c r="Q267" t="n">
-        <v>14</v>
-      </c>
-      <c r="R267" t="n">
-        <v>4</v>
-      </c>
-      <c r="S267" t="n">
-        <v>18</v>
-      </c>
       <c r="T267" t="n">
-        <v>2.4</v>
+        <v>2.95</v>
       </c>
       <c r="U267" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V267" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W267" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X267" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB267" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC267" t="n">
         <v>2.38</v>
       </c>
-      <c r="V267" t="n">
-        <v>4</v>
-      </c>
-      <c r="W267" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X267" t="n">
+      <c r="AD267" t="n">
         <v>3.4</v>
       </c>
-      <c r="Y267" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z267" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA267" t="n">
+      <c r="AE267" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AF267" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG267" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH267" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI267" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ267" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK267" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL267" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM267" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AN267" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO267" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP267" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ267" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR267" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AS267" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AT267" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AU267" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AV267" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AW267" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AX267" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY267" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ267" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BA267" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB267" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC267" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD267" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE267" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF267" t="n">
         <v>6</v>
-      </c>
-      <c r="AB267" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC267" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AD267" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AE267" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="AF267" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG267" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH267" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI267" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AJ267" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AK267" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AL267" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AM267" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AN267" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AO267" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP267" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AQ267" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AR267" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AS267" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AT267" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AU267" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AV267" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AW267" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="AX267" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AY267" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="AZ267" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BA267" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BB267" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="BC267" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BD267" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BE267" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="BF267" t="n">
-        <v>8</v>
       </c>
       <c r="BG267" t="n">
         <v>6</v>
       </c>
       <c r="BH267" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BI267" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ267" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK267" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268">
@@ -54757,7 +54757,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="n">
-        <v>4661686</v>
+        <v>4661687</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -54777,12 +54777,12 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Santos Laguna</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="I268" t="n">
@@ -54795,164 +54795,164 @@
         <v>2</v>
       </c>
       <c r="L268" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M268" t="n">
         <v>2</v>
       </c>
       <c r="N268" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>['45', '52', '74']</t>
         </is>
       </c>
       <c r="P268" t="inlineStr">
         <is>
-          <t>['17', '53']</t>
+          <t>['45+4', '60']</t>
         </is>
       </c>
       <c r="Q268" t="n">
+        <v>14</v>
+      </c>
+      <c r="R268" t="n">
         <v>4</v>
       </c>
-      <c r="R268" t="n">
-        <v>1</v>
-      </c>
       <c r="S268" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="T268" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U268" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V268" t="n">
+        <v>4</v>
+      </c>
+      <c r="W268" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X268" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB268" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC268" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD268" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE268" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AF268" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG268" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH268" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI268" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ268" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK268" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL268" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM268" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN268" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO268" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP268" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ268" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR268" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AS268" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT268" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AU268" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AV268" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW268" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX268" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY268" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ268" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA268" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB268" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC268" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD268" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE268" t="n">
         <v>2.95</v>
       </c>
-      <c r="U268" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V268" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="W268" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X268" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Y268" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Z268" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AA268" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB268" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AC268" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AD268" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE268" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AF268" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG268" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AH268" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AI268" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AJ268" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AK268" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AL268" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AM268" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AN268" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AO268" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AP268" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AQ268" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AR268" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AS268" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AT268" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AU268" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AV268" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AW268" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="AX268" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AY268" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AZ268" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="BA268" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="BB268" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="BC268" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="BD268" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="BE268" t="n">
-        <v>3.3</v>
-      </c>
       <c r="BF268" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG268" t="n">
         <v>6</v>
       </c>
       <c r="BH268" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI268" t="n">
         <v>6</v>
       </c>
-      <c r="BI268" t="n">
-        <v>7</v>
-      </c>
       <c r="BJ268" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK268" t="n">
         <v>12</v>
-      </c>
-      <c r="BK268" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="269">
@@ -55307,7 +55307,7 @@
         <v>1.42</v>
       </c>
       <c r="AT270" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU270" t="n">
         <v>1.55</v>
@@ -55366,7 +55366,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="n">
-        <v>4661690</v>
+        <v>4661691</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -55386,179 +55386,179 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>Mazatlán</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
       <c r="J271" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K271" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L271" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M271" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N271" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['48', '58', '77']</t>
         </is>
       </c>
       <c r="P271" t="inlineStr">
         <is>
-          <t>['45+4']</t>
+          <t>['22', '24', '35']</t>
         </is>
       </c>
       <c r="Q271" t="n">
+        <v>4</v>
+      </c>
+      <c r="R271" t="n">
+        <v>5</v>
+      </c>
+      <c r="S271" t="n">
+        <v>9</v>
+      </c>
+      <c r="T271" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U271" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V271" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W271" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X271" t="n">
         <v>3</v>
       </c>
-      <c r="R271" t="n">
-        <v>4</v>
-      </c>
-      <c r="S271" t="n">
-        <v>7</v>
-      </c>
-      <c r="T271" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U271" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V271" t="n">
-        <v>3</v>
-      </c>
-      <c r="W271" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X271" t="n">
-        <v>2.83</v>
-      </c>
       <c r="Y271" t="n">
-        <v>2.88</v>
+        <v>2.62</v>
       </c>
       <c r="Z271" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AA271" t="n">
-        <v>7.3</v>
+        <v>5.5</v>
       </c>
       <c r="AB271" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AC271" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="AD271" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AE271" t="n">
-        <v>2.86</v>
+        <v>2.62</v>
       </c>
       <c r="AF271" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AG271" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH271" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI271" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ271" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK271" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL271" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM271" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN271" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO271" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP271" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ271" t="n">
         <v>1.29</v>
       </c>
-      <c r="AI271" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AJ271" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AK271" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AL271" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AM271" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AN271" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AO271" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AP271" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AQ271" t="n">
-        <v>0.92</v>
-      </c>
       <c r="AR271" t="n">
-        <v>0.67</v>
+        <v>1.47</v>
       </c>
       <c r="AS271" t="n">
-        <v>0.71</v>
+        <v>1.18</v>
       </c>
       <c r="AT271" t="n">
-        <v>0.72</v>
+        <v>1.38</v>
       </c>
       <c r="AU271" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="AV271" t="n">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="AW271" t="n">
-        <v>2.95</v>
+        <v>3.23</v>
       </c>
       <c r="AX271" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AY271" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AZ271" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="BA271" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="BB271" t="n">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="BC271" t="n">
-        <v>2.08</v>
+        <v>1.7</v>
       </c>
       <c r="BD271" t="n">
-        <v>2.76</v>
+        <v>2.1</v>
       </c>
       <c r="BE271" t="n">
-        <v>3.84</v>
+        <v>2.63</v>
       </c>
       <c r="BF271" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BG271" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BH271" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI271" t="n">
         <v>5</v>
       </c>
-      <c r="BI271" t="n">
-        <v>9</v>
-      </c>
       <c r="BJ271" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="BK271" t="n">
         <v>11</v>
@@ -55569,7 +55569,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="n">
-        <v>4661691</v>
+        <v>4661690</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -55589,179 +55589,179 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>Tijuana</t>
+          <t>Mazatlán</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
       <c r="J272" t="n">
+        <v>1</v>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+      <c r="N272" t="n">
+        <v>1</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>['45+4']</t>
+        </is>
+      </c>
+      <c r="Q272" t="n">
         <v>3</v>
       </c>
-      <c r="K272" t="n">
+      <c r="R272" t="n">
+        <v>4</v>
+      </c>
+      <c r="S272" t="n">
+        <v>7</v>
+      </c>
+      <c r="T272" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U272" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V272" t="n">
         <v>3</v>
       </c>
-      <c r="L272" t="n">
+      <c r="W272" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X272" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP272" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ272" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR272" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS272" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT272" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AU272" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW272" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX272" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY272" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ272" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA272" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB272" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC272" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD272" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BE272" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BF272" t="n">
         <v>3</v>
       </c>
-      <c r="M272" t="n">
-        <v>3</v>
-      </c>
-      <c r="N272" t="n">
-        <v>6</v>
-      </c>
-      <c r="O272" t="inlineStr">
-        <is>
-          <t>['48', '58', '77']</t>
-        </is>
-      </c>
-      <c r="P272" t="inlineStr">
-        <is>
-          <t>['22', '24', '35']</t>
-        </is>
-      </c>
-      <c r="Q272" t="n">
-        <v>4</v>
-      </c>
-      <c r="R272" t="n">
+      <c r="BG272" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH272" t="n">
         <v>5</v>
       </c>
-      <c r="S272" t="n">
+      <c r="BI272" t="n">
         <v>9</v>
       </c>
-      <c r="T272" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U272" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V272" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="W272" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X272" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y272" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Z272" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA272" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AB272" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AC272" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AD272" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AE272" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AF272" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG272" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH272" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI272" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AJ272" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AK272" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AL272" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AM272" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AN272" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AO272" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP272" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ272" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AR272" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AS272" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AT272" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AU272" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AV272" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AW272" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AX272" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AY272" t="n">
+      <c r="BJ272" t="n">
         <v>8</v>
-      </c>
-      <c r="AZ272" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BA272" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="BB272" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="BC272" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BD272" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BE272" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="BF272" t="n">
-        <v>9</v>
-      </c>
-      <c r="BG272" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH272" t="n">
-        <v>9</v>
-      </c>
-      <c r="BI272" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ272" t="n">
-        <v>18</v>
       </c>
       <c r="BK272" t="n">
         <v>11</v>
@@ -55916,7 +55916,7 @@
         <v>1.75</v>
       </c>
       <c r="AT273" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU273" t="n">
         <v>1.58</v>
@@ -56319,7 +56319,7 @@
         <v>1.88</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT275" t="n">
         <v>2.1</v>
@@ -56931,7 +56931,7 @@
         <v>1.72</v>
       </c>
       <c r="AT278" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AU278" t="n">
         <v>1.87</v>
@@ -57540,7 +57540,7 @@
         <v>1.18</v>
       </c>
       <c r="AT281" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AU281" t="n">
         <v>1.43</v>
@@ -58146,7 +58146,7 @@
         <v>1.19</v>
       </c>
       <c r="AS284" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT284" t="n">
         <v>1.17</v>
@@ -58349,7 +58349,7 @@
         <v>0.71</v>
       </c>
       <c r="AS285" t="n">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="AT285" t="n">
         <v>0.76</v>
@@ -58755,10 +58755,10 @@
         <v>1.8</v>
       </c>
       <c r="AS287" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AT287" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU287" t="n">
         <v>1.9</v>
@@ -59770,7 +59770,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS292" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT292" t="n">
         <v>0.72</v>
@@ -60379,7 +60379,7 @@
         <v>2</v>
       </c>
       <c r="AS295" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT295" t="n">
         <v>1.9</v>
@@ -60585,7 +60585,7 @@
         <v>1.35</v>
       </c>
       <c r="AT296" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU296" t="n">
         <v>1.68</v>
@@ -60991,7 +60991,7 @@
         <v>1.18</v>
       </c>
       <c r="AT298" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU298" t="n">
         <v>1.45</v>
@@ -62615,7 +62615,7 @@
         <v>1.06</v>
       </c>
       <c r="AT306" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU306" t="n">
         <v>1.61</v>
@@ -62815,10 +62815,10 @@
         <v>0.88</v>
       </c>
       <c r="AS307" t="n">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="AT307" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AU307" t="n">
         <v>2</v>
@@ -63080,7 +63080,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="n">
-        <v>4661726</v>
+        <v>4661727</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -63100,182 +63100,182 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Mazatlán</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
       <c r="J309" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K309" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N309" t="n">
+        <v>2</v>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>['27', '88']</t>
+        </is>
+      </c>
+      <c r="Q309" t="n">
+        <v>5</v>
+      </c>
+      <c r="R309" t="n">
+        <v>2</v>
+      </c>
+      <c r="S309" t="n">
+        <v>7</v>
+      </c>
+      <c r="T309" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="U309" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V309" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="W309" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X309" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Y309" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Z309" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA309" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB309" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC309" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AD309" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="AE309" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF309" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG309" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH309" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI309" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="AJ309" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK309" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AL309" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AM309" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AN309" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO309" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP309" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ309" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR309" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS309" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT309" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AU309" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV309" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW309" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX309" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AY309" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ309" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BA309" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB309" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC309" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD309" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE309" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF309" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG309" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH309" t="n">
         <v>4</v>
       </c>
-      <c r="O309" t="inlineStr">
-        <is>
-          <t>['82']</t>
-        </is>
-      </c>
-      <c r="P309" t="inlineStr">
-        <is>
-          <t>['22', '24', '45']</t>
-        </is>
-      </c>
-      <c r="Q309" t="n">
+      <c r="BI309" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ309" t="n">
         <v>4</v>
       </c>
-      <c r="R309" t="n">
-        <v>4</v>
-      </c>
-      <c r="S309" t="n">
-        <v>8</v>
-      </c>
-      <c r="T309" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="U309" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V309" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="W309" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="X309" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Y309" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Z309" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA309" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AB309" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC309" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AD309" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE309" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AF309" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG309" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH309" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI309" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AJ309" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK309" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AL309" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AM309" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AN309" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AO309" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP309" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AQ309" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AR309" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AS309" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AT309" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AU309" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AV309" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AW309" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AX309" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AY309" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AZ309" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="BA309" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="BB309" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="BC309" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="BD309" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BE309" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF309" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG309" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH309" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI309" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ309" t="n">
+      <c r="BK309" t="n">
         <v>13</v>
-      </c>
-      <c r="BK309" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="310">
@@ -63283,7 +63283,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="n">
-        <v>4661727</v>
+        <v>4661726</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
@@ -63303,182 +63303,182 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>Mazatlán</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
       <c r="J310" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K310" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M310" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N310" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['82']</t>
         </is>
       </c>
       <c r="P310" t="inlineStr">
         <is>
-          <t>['27', '88']</t>
+          <t>['22', '24', '45']</t>
         </is>
       </c>
       <c r="Q310" t="n">
+        <v>4</v>
+      </c>
+      <c r="R310" t="n">
+        <v>4</v>
+      </c>
+      <c r="S310" t="n">
+        <v>8</v>
+      </c>
+      <c r="T310" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U310" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V310" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W310" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X310" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y310" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z310" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA310" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB310" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC310" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD310" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE310" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF310" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG310" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH310" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI310" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ310" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK310" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL310" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM310" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AN310" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO310" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP310" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ310" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR310" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS310" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT310" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU310" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV310" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW310" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX310" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY310" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ310" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BA310" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BB310" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BC310" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BD310" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BE310" t="n">
         <v>5</v>
       </c>
-      <c r="R310" t="n">
-        <v>2</v>
-      </c>
-      <c r="S310" t="n">
+      <c r="BF310" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG310" t="n">
         <v>7</v>
       </c>
-      <c r="T310" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="U310" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V310" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="W310" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="X310" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="Y310" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Z310" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AA310" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AB310" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AC310" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AD310" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="AE310" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AF310" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG310" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH310" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI310" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="AJ310" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AK310" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AL310" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AM310" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AN310" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO310" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AP310" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AQ310" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AR310" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AS310" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AT310" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AU310" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AV310" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AW310" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AX310" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="AY310" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AZ310" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="BA310" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="BB310" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="BC310" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BD310" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="BE310" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="BF310" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG310" t="n">
+      <c r="BH310" t="n">
         <v>8</v>
       </c>
-      <c r="BH310" t="n">
+      <c r="BI310" t="n">
         <v>4</v>
       </c>
-      <c r="BI310" t="n">
-        <v>5</v>
-      </c>
       <c r="BJ310" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BK310" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311">
@@ -63833,7 +63833,7 @@
         <v>2.05</v>
       </c>
       <c r="AT312" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU312" t="n">
         <v>1.92</v>
@@ -64033,7 +64033,7 @@
         <v>1</v>
       </c>
       <c r="AS313" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT313" t="n">
         <v>0.9399999999999999</v>
@@ -64236,7 +64236,7 @@
         <v>0.53</v>
       </c>
       <c r="AS314" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT314" t="n">
         <v>0.53</v>
@@ -64439,7 +64439,7 @@
         <v>0.76</v>
       </c>
       <c r="AS315" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AT315" t="n">
         <v>0.78</v>
@@ -65254,7 +65254,7 @@
         <v>1.28</v>
       </c>
       <c r="AT319" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU319" t="n">
         <v>1.31</v>
@@ -65454,7 +65454,7 @@
         <v>0.75</v>
       </c>
       <c r="AS320" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT320" t="n">
         <v>0.71</v>
@@ -65657,7 +65657,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS321" t="n">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="AT321" t="n">
         <v>0.53</v>
@@ -65863,7 +65863,7 @@
         <v>1.75</v>
       </c>
       <c r="AT322" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AU322" t="n">
         <v>1.55</v>
@@ -66063,7 +66063,7 @@
         <v>0.76</v>
       </c>
       <c r="AS323" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AT323" t="n">
         <v>0.72</v>
@@ -66472,7 +66472,7 @@
         <v>1.72</v>
       </c>
       <c r="AT325" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AU325" t="n">
         <v>1.86</v>
@@ -66675,7 +66675,7 @@
         <v>1.37</v>
       </c>
       <c r="AT326" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AU326" t="n">
         <v>1.54</v>
@@ -66878,7 +66878,7 @@
         <v>1.93</v>
       </c>
       <c r="AT327" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU327" t="n">
         <v>1.91</v>
@@ -67081,7 +67081,7 @@
         <v>1.44</v>
       </c>
       <c r="AT328" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="AU328" t="n">
         <v>1.86</v>
@@ -67281,7 +67281,7 @@
         <v>1.16</v>
       </c>
       <c r="AS329" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT329" t="n">
         <v>1.13</v>
@@ -67484,10 +67484,10 @@
         <v>2.08</v>
       </c>
       <c r="AS330" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT330" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="AU330" t="n">
         <v>1.91</v>
@@ -67687,10 +67687,10 @@
         <v>2.08</v>
       </c>
       <c r="AS331" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="AT331" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AU331" t="n">
         <v>1.37</v>
@@ -67890,10 +67890,10 @@
         <v>1.63</v>
       </c>
       <c r="AS332" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AT332" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AU332" t="n">
         <v>1.56</v>
@@ -68093,10 +68093,10 @@
         <v>1.76</v>
       </c>
       <c r="AS333" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT333" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AU333" t="n">
         <v>2.14</v>
@@ -68148,6 +68148,818 @@
       </c>
       <c r="BK333" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B334" t="n">
+        <v>6076178</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E334" s="2" t="n">
+        <v>45059.92083333333</v>
+      </c>
+      <c r="F334" t="n">
+        <v>0</v>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>Santos Laguna</t>
+        </is>
+      </c>
+      <c r="I334" t="n">
+        <v>1</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0</v>
+      </c>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L334" t="n">
+        <v>2</v>
+      </c>
+      <c r="M334" t="n">
+        <v>0</v>
+      </c>
+      <c r="N334" t="n">
+        <v>2</v>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>['3', '68']</t>
+        </is>
+      </c>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q334" t="n">
+        <v>2</v>
+      </c>
+      <c r="R334" t="n">
+        <v>6</v>
+      </c>
+      <c r="S334" t="n">
+        <v>8</v>
+      </c>
+      <c r="T334" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U334" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V334" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="W334" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X334" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Y334" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="Z334" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA334" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB334" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC334" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD334" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="AE334" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="AF334" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG334" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH334" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI334" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ334" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK334" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL334" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM334" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AN334" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO334" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP334" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ334" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AR334" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS334" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AT334" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU334" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AV334" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW334" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AX334" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY334" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ334" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="BA334" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB334" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC334" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD334" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BE334" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BF334" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG334" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH334" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI334" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ334" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK334" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B335" t="n">
+        <v>6080889</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E335" s="2" t="n">
+        <v>45060.01111111111</v>
+      </c>
+      <c r="F335" t="n">
+        <v>0</v>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>América</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Atlético San Luis</t>
+        </is>
+      </c>
+      <c r="I335" t="n">
+        <v>0</v>
+      </c>
+      <c r="J335" t="n">
+        <v>2</v>
+      </c>
+      <c r="K335" t="n">
+        <v>2</v>
+      </c>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="n">
+        <v>2</v>
+      </c>
+      <c r="N335" t="n">
+        <v>3</v>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>['18', '31']</t>
+        </is>
+      </c>
+      <c r="Q335" t="n">
+        <v>11</v>
+      </c>
+      <c r="R335" t="n">
+        <v>4</v>
+      </c>
+      <c r="S335" t="n">
+        <v>15</v>
+      </c>
+      <c r="T335" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U335" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V335" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="W335" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X335" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y335" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Z335" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA335" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB335" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC335" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD335" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="AE335" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="AF335" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG335" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH335" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI335" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="AJ335" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK335" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL335" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM335" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AN335" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO335" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP335" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AQ335" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AR335" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS335" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AT335" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AU335" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV335" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW335" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX335" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY335" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ335" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="BA335" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB335" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC335" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD335" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE335" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF335" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG335" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH335" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI335" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ335" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK335" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B336" t="n">
+        <v>6084616</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E336" s="2" t="n">
+        <v>45060.625</v>
+      </c>
+      <c r="F336" t="n">
+        <v>0</v>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>Toluca</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>Tigres UANL</t>
+        </is>
+      </c>
+      <c r="I336" t="n">
+        <v>2</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0</v>
+      </c>
+      <c r="K336" t="n">
+        <v>2</v>
+      </c>
+      <c r="L336" t="n">
+        <v>3</v>
+      </c>
+      <c r="M336" t="n">
+        <v>1</v>
+      </c>
+      <c r="N336" t="n">
+        <v>4</v>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>['26', '45+3', '53']</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q336" t="n">
+        <v>2</v>
+      </c>
+      <c r="R336" t="n">
+        <v>3</v>
+      </c>
+      <c r="S336" t="n">
+        <v>5</v>
+      </c>
+      <c r="T336" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U336" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="V336" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="W336" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X336" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Y336" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z336" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA336" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB336" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC336" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD336" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE336" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AF336" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG336" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH336" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI336" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ336" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK336" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL336" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM336" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AN336" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO336" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP336" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ336" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR336" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS336" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AT336" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AU336" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV336" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW336" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX336" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY336" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ336" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA336" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB336" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC336" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD336" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE336" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF336" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG336" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH336" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI336" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ336" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK336" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B337" t="n">
+        <v>6084615</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E337" s="2" t="n">
+        <v>45060.92013888889</v>
+      </c>
+      <c r="F337" t="n">
+        <v>0</v>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>Atlas</t>
+        </is>
+      </c>
+      <c r="I337" t="n">
+        <v>0</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0</v>
+      </c>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N337" t="n">
+        <v>1</v>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q337" t="n">
+        <v>3</v>
+      </c>
+      <c r="R337" t="n">
+        <v>4</v>
+      </c>
+      <c r="S337" t="n">
+        <v>7</v>
+      </c>
+      <c r="T337" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U337" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V337" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W337" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X337" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y337" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z337" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA337" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB337" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC337" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD337" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AE337" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AF337" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG337" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH337" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI337" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ337" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK337" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL337" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM337" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN337" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO337" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP337" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ337" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR337" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS337" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT337" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU337" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV337" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW337" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX337" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY337" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ337" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA337" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB337" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC337" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD337" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE337" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF337" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG337" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH337" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI337" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ337" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK337" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK337"/>
+  <dimension ref="A1:BK338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AT5" t="n">
         <v>0.9399999999999999</v>
@@ -2324,7 +2324,7 @@
         <v>1.89</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>1.28</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AU26" t="n">
         <v>1.55</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AT27" t="n">
         <v>0.76</v>
@@ -6587,7 +6587,7 @@
         <v>1.06</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AU30" t="n">
         <v>1.9</v>
@@ -7802,7 +7802,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AT36" t="n">
         <v>0.84</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AT48" t="n">
         <v>0.65</v>
@@ -11053,7 +11053,7 @@
         <v>1.35</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AU52" t="n">
         <v>1.9</v>
@@ -13895,7 +13895,7 @@
         <v>1.18</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AU66" t="n">
         <v>1.16</v>
@@ -15110,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AT72" t="n">
         <v>0.9</v>
@@ -15925,7 +15925,7 @@
         <v>2.09</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AU76" t="n">
         <v>2.31</v>
@@ -18767,7 +18767,7 @@
         <v>1.78</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AU90" t="n">
         <v>1.9</v>
@@ -20388,7 +20388,7 @@
         <v>1.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AT98" t="n">
         <v>0.72</v>
@@ -21406,7 +21406,7 @@
         <v>1.18</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AU103" t="n">
         <v>1.46</v>
@@ -24448,7 +24448,7 @@
         <v>1.67</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AT118" t="n">
         <v>1.38</v>
@@ -25263,7 +25263,7 @@
         <v>1.18</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AU122" t="n">
         <v>1.41</v>
@@ -25869,7 +25869,7 @@
         <v>0.71</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AT125" t="n">
         <v>1.17</v>
@@ -31959,7 +31959,7 @@
         <v>1.12</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="AT155" t="n">
         <v>0.9399999999999999</v>
@@ -32977,7 +32977,7 @@
         <v>1.37</v>
       </c>
       <c r="AT160" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="AU160" t="n">
         <v>1.62</v>
@@ -33380,7 +33380,7 @@
         <v>1.88</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="AT162" t="n">
         <v>1.93</v>
@@ -33583,7 +33583,7 @@
         <v>1.47</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="AT163" t="n">
         <v>1.37</v>
@@ -34195,7 +34195,7 @@
         <v>1.93</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="AU166" t="n">
         <v>2.13</v>
@@ -34601,7 +34601,7 @@
         <v>1.93</v>
       </c>
       <c r="AT168" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="AU168" t="n">
         <v>2.06</v>
@@ -35004,7 +35004,7 @@
         <v>1.9</v>
       </c>
       <c r="AS170" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="AT170" t="n">
         <v>1.93</v>
@@ -37646,7 +37646,7 @@
         <v>1.75</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AU183" t="n">
         <v>1.58</v>
@@ -38455,7 +38455,7 @@
         <v>1.64</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AT187" t="n">
         <v>1.8</v>
@@ -40894,7 +40894,7 @@
         <v>1.42</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AU199" t="n">
         <v>1.56</v>
@@ -41297,7 +41297,7 @@
         <v>1.3</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AT201" t="n">
         <v>1.05</v>
@@ -44548,7 +44548,7 @@
         <v>1.33</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AU217" t="n">
         <v>1.51</v>
@@ -45560,7 +45560,7 @@
         <v>0.5</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AT222" t="n">
         <v>0.53</v>
@@ -46372,7 +46372,7 @@
         <v>0.92</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AT226" t="n">
         <v>0.78</v>
@@ -50432,7 +50432,7 @@
         <v>1.5</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AT246" t="n">
         <v>1.47</v>
@@ -51450,7 +51450,7 @@
         <v>1.72</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AU251" t="n">
         <v>1.9</v>
@@ -54289,7 +54289,7 @@
         <v>1.8</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AT265" t="n">
         <v>2.1</v>
@@ -54698,7 +54698,7 @@
         <v>2.05</v>
       </c>
       <c r="AT267" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AU267" t="n">
         <v>1.97</v>
@@ -56116,10 +56116,10 @@
         <v>1.94</v>
       </c>
       <c r="AS274" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT274" t="n">
         <v>1.86</v>
-      </c>
-      <c r="AT274" t="n">
-        <v>1.9</v>
       </c>
       <c r="AU274" t="n">
         <v>2.04</v>
@@ -60176,7 +60176,7 @@
         <v>0.6</v>
       </c>
       <c r="AS294" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AT294" t="n">
         <v>0.71</v>
@@ -60382,7 +60382,7 @@
         <v>2</v>
       </c>
       <c r="AT295" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AU295" t="n">
         <v>2.03</v>
@@ -63018,7 +63018,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AT308" t="n">
         <v>0.84</v>
@@ -63224,7 +63224,7 @@
         <v>0.71</v>
       </c>
       <c r="AT309" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AU309" t="n">
         <v>1.5</v>
@@ -67281,7 +67281,7 @@
         <v>1.16</v>
       </c>
       <c r="AS329" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="AT329" t="n">
         <v>1.13</v>
@@ -67487,7 +67487,7 @@
         <v>1.38</v>
       </c>
       <c r="AT330" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="AU330" t="n">
         <v>1.91</v>
@@ -68093,7 +68093,7 @@
         <v>1.76</v>
       </c>
       <c r="AS333" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="AT333" t="n">
         <v>1.74</v>
@@ -68296,7 +68296,7 @@
         <v>1.42</v>
       </c>
       <c r="AS334" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="AT334" t="n">
         <v>1.38</v>
@@ -68705,7 +68705,7 @@
         <v>1.74</v>
       </c>
       <c r="AT336" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="AU336" t="n">
         <v>1.86</v>
@@ -68960,6 +68960,209 @@
       </c>
       <c r="BK337" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B338" t="n">
+        <v>6140922</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E338" s="2" t="n">
+        <v>45064</v>
+      </c>
+      <c r="F338" t="n">
+        <v>0</v>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>Tigres UANL</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="I338" t="n">
+        <v>0</v>
+      </c>
+      <c r="J338" t="n">
+        <v>1</v>
+      </c>
+      <c r="K338" t="n">
+        <v>1</v>
+      </c>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="n">
+        <v>1</v>
+      </c>
+      <c r="N338" t="n">
+        <v>2</v>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="Q338" t="n">
+        <v>4</v>
+      </c>
+      <c r="R338" t="n">
+        <v>5</v>
+      </c>
+      <c r="S338" t="n">
+        <v>9</v>
+      </c>
+      <c r="T338" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U338" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V338" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W338" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X338" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y338" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z338" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA338" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB338" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC338" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD338" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE338" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF338" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG338" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH338" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI338" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ338" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK338" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL338" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM338" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN338" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO338" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP338" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ338" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AR338" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AS338" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AT338" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AU338" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AV338" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW338" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AX338" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY338" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ338" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA338" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB338" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC338" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD338" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BE338" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BF338" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG338" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH338" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI338" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ338" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK338" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK338"/>
+  <dimension ref="A1:BK340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT4" t="n">
         <v>0.78</v>
@@ -2730,7 +2730,7 @@
         <v>0.71</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT15" t="n">
         <v>1.05</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -6381,7 +6381,7 @@
         <v>2</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT29" t="n">
         <v>1.17</v>
@@ -7602,7 +7602,7 @@
         <v>1.18</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AU35" t="n">
         <v>0.33</v>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AT39" t="n">
         <v>0.84</v>
@@ -8617,7 +8617,7 @@
         <v>1.18</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU40" t="n">
         <v>0.98</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT50" t="n">
         <v>1.8</v>
@@ -11459,7 +11459,7 @@
         <v>1.72</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AU54" t="n">
         <v>1.45</v>
@@ -12471,7 +12471,7 @@
         <v>1.67</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AT59" t="n">
         <v>1.17</v>
@@ -13286,7 +13286,7 @@
         <v>2.05</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU63" t="n">
         <v>2.23</v>
@@ -14504,7 +14504,7 @@
         <v>1.35</v>
       </c>
       <c r="AT69" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AU69" t="n">
         <v>1.95</v>
@@ -14704,7 +14704,7 @@
         <v>0.25</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT70" t="n">
         <v>0.84</v>
@@ -16128,7 +16128,7 @@
         <v>2.05</v>
       </c>
       <c r="AT77" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AU77" t="n">
         <v>2.19</v>
@@ -17343,10 +17343,10 @@
         <v>2</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU83" t="n">
         <v>2.06</v>
@@ -18764,7 +18764,7 @@
         <v>1.83</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT90" t="n">
         <v>1.86</v>
@@ -18970,7 +18970,7 @@
         <v>1.06</v>
       </c>
       <c r="AT91" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AU91" t="n">
         <v>1.68</v>
@@ -19173,7 +19173,7 @@
         <v>1.35</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU92" t="n">
         <v>1.81</v>
@@ -19985,7 +19985,7 @@
         <v>0.71</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AU96" t="n">
         <v>1.39</v>
@@ -20591,7 +20591,7 @@
         <v>0.67</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT99" t="n">
         <v>0.53</v>
@@ -22621,7 +22621,7 @@
         <v>1.2</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AT109" t="n">
         <v>0.71</v>
@@ -23030,7 +23030,7 @@
         <v>2</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU111" t="n">
         <v>2.02</v>
@@ -24042,7 +24042,7 @@
         <v>0.83</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AT116" t="n">
         <v>0.9399999999999999</v>
@@ -25669,7 +25669,7 @@
         <v>1.18</v>
       </c>
       <c r="AT124" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AU124" t="n">
         <v>1.24</v>
@@ -26275,7 +26275,7 @@
         <v>1.14</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT127" t="n">
         <v>0.84</v>
@@ -27087,10 +27087,10 @@
         <v>1.33</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU131" t="n">
         <v>1.79</v>
@@ -27902,7 +27902,7 @@
         <v>1.42</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU135" t="n">
         <v>1.87</v>
@@ -28305,7 +28305,7 @@
         <v>0.25</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AT137" t="n">
         <v>0.84</v>
@@ -30135,7 +30135,7 @@
         <v>1.42</v>
       </c>
       <c r="AT146" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AU146" t="n">
         <v>1.7</v>
@@ -30541,7 +30541,7 @@
         <v>1.28</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU148" t="n">
         <v>1.28</v>
@@ -30741,7 +30741,7 @@
         <v>1.57</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AT149" t="n">
         <v>1.8</v>
@@ -31959,7 +31959,7 @@
         <v>1.12</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="AT155" t="n">
         <v>0.9399999999999999</v>
@@ -32571,7 +32571,7 @@
         <v>1.13</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AU158" t="n">
         <v>1.67</v>
@@ -32774,7 +32774,7 @@
         <v>1.13</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="AU159" t="n">
         <v>1.67</v>
@@ -32977,7 +32977,7 @@
         <v>1.37</v>
       </c>
       <c r="AT160" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AU160" t="n">
         <v>1.62</v>
@@ -33380,7 +33380,7 @@
         <v>1.88</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="AT162" t="n">
         <v>1.93</v>
@@ -33583,7 +33583,7 @@
         <v>1.47</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AT163" t="n">
         <v>1.37</v>
@@ -33786,7 +33786,7 @@
         <v>1.21</v>
       </c>
       <c r="AS164" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="AT164" t="n">
         <v>1.13</v>
@@ -34195,7 +34195,7 @@
         <v>1.93</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="AU166" t="n">
         <v>2.13</v>
@@ -34398,7 +34398,7 @@
         <v>1.74</v>
       </c>
       <c r="AT167" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="AU167" t="n">
         <v>1.81</v>
@@ -34601,7 +34601,7 @@
         <v>1.93</v>
       </c>
       <c r="AT168" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AU168" t="n">
         <v>2.06</v>
@@ -34801,7 +34801,7 @@
         <v>1.86</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="AT169" t="n">
         <v>1.74</v>
@@ -35004,7 +35004,7 @@
         <v>1.9</v>
       </c>
       <c r="AS170" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AT170" t="n">
         <v>1.93</v>
@@ -36019,7 +36019,7 @@
         <v>1.11</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AT175" t="n">
         <v>1.47</v>
@@ -36428,7 +36428,7 @@
         <v>1.89</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU177" t="n">
         <v>1.94</v>
@@ -38052,7 +38052,7 @@
         <v>2.09</v>
       </c>
       <c r="AT185" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AU185" t="n">
         <v>1.8</v>
@@ -39067,7 +39067,7 @@
         <v>1.18</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU190" t="n">
         <v>1.65</v>
@@ -39267,7 +39267,7 @@
         <v>1.44</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AT191" t="n">
         <v>1.05</v>
@@ -39673,7 +39673,7 @@
         <v>1.36</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT193" t="n">
         <v>1.38</v>
@@ -43330,7 +43330,7 @@
         <v>1.75</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU211" t="n">
         <v>1.59</v>
@@ -43533,7 +43533,7 @@
         <v>1.89</v>
       </c>
       <c r="AT212" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AU212" t="n">
         <v>2.04</v>
@@ -43936,7 +43936,7 @@
         <v>0.27</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT214" t="n">
         <v>0.65</v>
@@ -44139,7 +44139,7 @@
         <v>1.46</v>
       </c>
       <c r="AS215" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AT215" t="n">
         <v>1.38</v>
@@ -46578,7 +46578,7 @@
         <v>1.28</v>
       </c>
       <c r="AT227" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AU227" t="n">
         <v>1.25</v>
@@ -46778,7 +46778,7 @@
         <v>0.91</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT228" t="n">
         <v>0.76</v>
@@ -46981,7 +46981,7 @@
         <v>0.33</v>
       </c>
       <c r="AS229" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AT229" t="n">
         <v>0.65</v>
@@ -48199,7 +48199,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS235" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AT235" t="n">
         <v>0.72</v>
@@ -48405,7 +48405,7 @@
         <v>1.33</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU236" t="n">
         <v>1.54</v>
@@ -50638,7 +50638,7 @@
         <v>1.33</v>
       </c>
       <c r="AT247" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AU247" t="n">
         <v>1.51</v>
@@ -51653,7 +51653,7 @@
         <v>1.18</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU252" t="n">
         <v>1.43</v>
@@ -52665,7 +52665,7 @@
         <v>0.86</v>
       </c>
       <c r="AS257" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AT257" t="n">
         <v>0.78</v>
@@ -52868,7 +52868,7 @@
         <v>1</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT258" t="n">
         <v>0.9</v>
@@ -54292,7 +54292,7 @@
         <v>1.82</v>
       </c>
       <c r="AT265" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AU265" t="n">
         <v>2.1</v>
@@ -56319,10 +56319,10 @@
         <v>1.88</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT275" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AU275" t="n">
         <v>1.84</v>
@@ -58349,7 +58349,7 @@
         <v>0.71</v>
       </c>
       <c r="AS285" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AT285" t="n">
         <v>0.76</v>
@@ -58758,7 +58758,7 @@
         <v>2.09</v>
       </c>
       <c r="AT287" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU287" t="n">
         <v>1.9</v>
@@ -59770,7 +59770,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS292" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT292" t="n">
         <v>0.72</v>
@@ -62209,7 +62209,7 @@
         <v>1.75</v>
       </c>
       <c r="AT304" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AU304" t="n">
         <v>1.6</v>
@@ -62615,7 +62615,7 @@
         <v>1.06</v>
       </c>
       <c r="AT306" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU306" t="n">
         <v>1.61</v>
@@ -62815,7 +62815,7 @@
         <v>0.88</v>
       </c>
       <c r="AS307" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AT307" t="n">
         <v>0.9</v>
@@ -64033,7 +64033,7 @@
         <v>1</v>
       </c>
       <c r="AS313" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT313" t="n">
         <v>0.9399999999999999</v>
@@ -64848,7 +64848,7 @@
         <v>1.18</v>
       </c>
       <c r="AT317" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AU317" t="n">
         <v>1.43</v>
@@ -65454,7 +65454,7 @@
         <v>0.75</v>
       </c>
       <c r="AS320" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT320" t="n">
         <v>0.71</v>
@@ -65657,7 +65657,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS321" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AT321" t="n">
         <v>0.53</v>
@@ -66472,7 +66472,7 @@
         <v>1.72</v>
       </c>
       <c r="AT325" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU325" t="n">
         <v>1.86</v>
@@ -67281,7 +67281,7 @@
         <v>1.16</v>
       </c>
       <c r="AS329" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="AT329" t="n">
         <v>1.13</v>
@@ -67487,7 +67487,7 @@
         <v>1.38</v>
       </c>
       <c r="AT330" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AU330" t="n">
         <v>1.91</v>
@@ -67690,7 +67690,7 @@
         <v>1.16</v>
       </c>
       <c r="AT331" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="AU331" t="n">
         <v>1.37</v>
@@ -67893,7 +67893,7 @@
         <v>1.08</v>
       </c>
       <c r="AT332" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AU332" t="n">
         <v>1.56</v>
@@ -68093,7 +68093,7 @@
         <v>1.76</v>
       </c>
       <c r="AS333" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="AT333" t="n">
         <v>1.74</v>
@@ -68296,7 +68296,7 @@
         <v>1.42</v>
       </c>
       <c r="AS334" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AT334" t="n">
         <v>1.38</v>
@@ -68499,7 +68499,7 @@
         <v>1.11</v>
       </c>
       <c r="AS335" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="AT335" t="n">
         <v>1.16</v>
@@ -68705,7 +68705,7 @@
         <v>1.74</v>
       </c>
       <c r="AT336" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="AU336" t="n">
         <v>1.86</v>
@@ -68905,7 +68905,7 @@
         <v>1.11</v>
       </c>
       <c r="AS337" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AT337" t="n">
         <v>1.08</v>
@@ -69108,10 +69108,10 @@
         <v>2.08</v>
       </c>
       <c r="AS338" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="AT338" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AU338" t="n">
         <v>2.11</v>
@@ -69163,6 +69163,412 @@
       </c>
       <c r="BK338" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B339" t="n">
+        <v>6140923</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E339" s="2" t="n">
+        <v>45064.96527777778</v>
+      </c>
+      <c r="F339" t="n">
+        <v>0</v>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>América</t>
+        </is>
+      </c>
+      <c r="I339" t="n">
+        <v>0</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0</v>
+      </c>
+      <c r="L339" t="n">
+        <v>0</v>
+      </c>
+      <c r="M339" t="n">
+        <v>1</v>
+      </c>
+      <c r="N339" t="n">
+        <v>1</v>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P339" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="Q339" t="n">
+        <v>8</v>
+      </c>
+      <c r="R339" t="n">
+        <v>7</v>
+      </c>
+      <c r="S339" t="n">
+        <v>15</v>
+      </c>
+      <c r="T339" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U339" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V339" t="n">
+        <v>3</v>
+      </c>
+      <c r="W339" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X339" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y339" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z339" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA339" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB339" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC339" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD339" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE339" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF339" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG339" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH339" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI339" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ339" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK339" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL339" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM339" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN339" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO339" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP339" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ339" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AR339" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AS339" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT339" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU339" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV339" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AW339" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AX339" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY339" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ339" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA339" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB339" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC339" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD339" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE339" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF339" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG339" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH339" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI339" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ339" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK339" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B340" t="n">
+        <v>6140924</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E340" s="2" t="n">
+        <v>45066.92083333333</v>
+      </c>
+      <c r="F340" t="n">
+        <v>0</v>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Tigres UANL</t>
+        </is>
+      </c>
+      <c r="I340" t="n">
+        <v>0</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0</v>
+      </c>
+      <c r="L340" t="n">
+        <v>0</v>
+      </c>
+      <c r="M340" t="n">
+        <v>1</v>
+      </c>
+      <c r="N340" t="n">
+        <v>1</v>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q340" t="n">
+        <v>4</v>
+      </c>
+      <c r="R340" t="n">
+        <v>4</v>
+      </c>
+      <c r="S340" t="n">
+        <v>8</v>
+      </c>
+      <c r="T340" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U340" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V340" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W340" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X340" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y340" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z340" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA340" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB340" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC340" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD340" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AE340" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="AF340" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG340" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH340" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI340" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ340" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK340" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL340" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM340" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AN340" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO340" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP340" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AQ340" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AR340" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AS340" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT340" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AU340" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AV340" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW340" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX340" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY340" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ340" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA340" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB340" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC340" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD340" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE340" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF340" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG340" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH340" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI340" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ340" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK340" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK340"/>
+  <dimension ref="A1:BK341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT6" t="n">
         <v>0.84</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT20" t="n">
         <v>1.38</v>
@@ -5369,7 +5369,7 @@
         <v>1.89</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU24" t="n">
         <v>1.99</v>
@@ -9226,7 +9226,7 @@
         <v>1.06</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU43" t="n">
         <v>1.56</v>
@@ -12271,7 +12271,7 @@
         <v>0.71</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU58" t="n">
         <v>1.24</v>
@@ -13486,7 +13486,7 @@
         <v>1.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT64" t="n">
         <v>0.78</v>
@@ -16940,7 +16940,7 @@
         <v>1.18</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU81" t="n">
         <v>1.2</v>
@@ -17952,7 +17952,7 @@
         <v>1</v>
       </c>
       <c r="AS86" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT86" t="n">
         <v>0.9399999999999999</v>
@@ -23027,7 +23027,7 @@
         <v>1.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT111" t="n">
         <v>1.55</v>
@@ -23233,7 +23233,7 @@
         <v>2.09</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU112" t="n">
         <v>1.93</v>
@@ -23839,7 +23839,7 @@
         <v>1.17</v>
       </c>
       <c r="AS115" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT115" t="n">
         <v>1.05</v>
@@ -24104,7 +24104,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>2280810</v>
+        <v>2280811</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -24124,12 +24124,12 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Tigres UANL</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="I117" t="n">
@@ -24142,68 +24142,68 @@
         <v>1</v>
       </c>
       <c r="L117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N117" t="n">
         <v>4</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>['17', '52']</t>
+          <t>['41', '62', '80']</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>['78', '90']</t>
+          <t>['67']</t>
         </is>
       </c>
       <c r="Q117" t="n">
+        <v>6</v>
+      </c>
+      <c r="R117" t="n">
         <v>3</v>
       </c>
-      <c r="R117" t="n">
-        <v>4</v>
-      </c>
       <c r="S117" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T117" t="n">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="U117" t="n">
-        <v>2.1</v>
+        <v>2.46</v>
       </c>
       <c r="V117" t="n">
-        <v>2.8</v>
+        <v>5.27</v>
       </c>
       <c r="W117" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="X117" t="n">
-        <v>2.8</v>
+        <v>3.37</v>
       </c>
       <c r="Y117" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="Z117" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="AA117" t="n">
-        <v>6.45</v>
+        <v>5.95</v>
       </c>
       <c r="AB117" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="AC117" t="n">
-        <v>3.36</v>
+        <v>1.64</v>
       </c>
       <c r="AD117" t="n">
-        <v>3.67</v>
+        <v>4.11</v>
       </c>
       <c r="AE117" t="n">
-        <v>2.08</v>
+        <v>5.09</v>
       </c>
       <c r="AF117" t="n">
         <v>1.05</v>
@@ -24212,94 +24212,94 @@
         <v>9</v>
       </c>
       <c r="AH117" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AI117" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AJ117" t="n">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="AK117" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="AL117" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AM117" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AN117" t="n">
-        <v>1.63</v>
+        <v>1.2</v>
       </c>
       <c r="AO117" t="n">
         <v>1.25</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.35</v>
+        <v>2.28</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR117" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.42</v>
+        <v>1.82</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.8</v>
+        <v>1.38</v>
       </c>
       <c r="AU117" t="n">
-        <v>1.97</v>
+        <v>2.27</v>
       </c>
       <c r="AV117" t="n">
-        <v>1.9</v>
+        <v>1.44</v>
       </c>
       <c r="AW117" t="n">
-        <v>3.87</v>
+        <v>3.71</v>
       </c>
       <c r="AX117" t="n">
-        <v>2.28</v>
+        <v>1.37</v>
       </c>
       <c r="AY117" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ117" t="n">
-        <v>1.85</v>
+        <v>3.7</v>
       </c>
       <c r="BA117" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="BB117" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="BC117" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="BD117" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="BE117" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="BF117" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG117" t="n">
         <v>5</v>
       </c>
-      <c r="BG117" t="n">
-        <v>3</v>
-      </c>
       <c r="BH117" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BI117" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="BJ117" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="BK117" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118">
@@ -24307,7 +24307,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>2280811</v>
+        <v>2280810</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -24327,12 +24327,12 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Tigres UANL</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="I118" t="n">
@@ -24345,68 +24345,68 @@
         <v>1</v>
       </c>
       <c r="L118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N118" t="n">
         <v>4</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>['41', '62', '80']</t>
+          <t>['17', '52']</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>['67']</t>
+          <t>['78', '90']</t>
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R118" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S118" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T118" t="n">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="U118" t="n">
-        <v>2.46</v>
+        <v>2.1</v>
       </c>
       <c r="V118" t="n">
-        <v>5.27</v>
+        <v>2.8</v>
       </c>
       <c r="W118" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="X118" t="n">
-        <v>3.37</v>
+        <v>2.8</v>
       </c>
       <c r="Y118" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="Z118" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="AA118" t="n">
-        <v>5.95</v>
+        <v>6.45</v>
       </c>
       <c r="AB118" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AC118" t="n">
-        <v>1.64</v>
+        <v>3.36</v>
       </c>
       <c r="AD118" t="n">
-        <v>4.11</v>
+        <v>3.67</v>
       </c>
       <c r="AE118" t="n">
-        <v>5.09</v>
+        <v>2.08</v>
       </c>
       <c r="AF118" t="n">
         <v>1.05</v>
@@ -24415,94 +24415,94 @@
         <v>9</v>
       </c>
       <c r="AH118" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AI118" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AJ118" t="n">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="AK118" t="n">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="AL118" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AM118" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AN118" t="n">
-        <v>1.2</v>
+        <v>1.63</v>
       </c>
       <c r="AO118" t="n">
         <v>1.25</v>
       </c>
       <c r="AP118" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="AX118" t="n">
         <v>2.28</v>
       </c>
-      <c r="AQ118" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AR118" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AS118" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AT118" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AU118" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AV118" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AW118" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="AX118" t="n">
-        <v>1.37</v>
-      </c>
       <c r="AY118" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ118" t="n">
-        <v>3.7</v>
+        <v>1.85</v>
       </c>
       <c r="BA118" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="BB118" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="BC118" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="BD118" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="BE118" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="BF118" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BG118" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH118" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BI118" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="BJ118" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="BK118" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119">
@@ -24713,7 +24713,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>2280813</v>
+        <v>2280812</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -24733,71 +24733,71 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Tijuana</t>
+          <t>Pumas UNAM</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L120" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N120" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>['58']</t>
+          <t>['25', '62', '68', '90+3']</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>['47', '67']</t>
+          <t>['43']</t>
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R120" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S120" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T120" t="n">
-        <v>3.25</v>
+        <v>2.65</v>
       </c>
       <c r="U120" t="n">
         <v>2.05</v>
       </c>
       <c r="V120" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="W120" t="n">
         <v>1.4</v>
       </c>
       <c r="X120" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Y120" t="n">
         <v>2.75</v>
       </c>
       <c r="Z120" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="AA120" t="n">
         <v>7</v>
@@ -24806,109 +24806,109 @@
         <v>1.08</v>
       </c>
       <c r="AC120" t="n">
-        <v>2.77</v>
+        <v>1.96</v>
       </c>
       <c r="AD120" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AE120" t="n">
-        <v>2.43</v>
+        <v>3.45</v>
       </c>
       <c r="AF120" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AG120" t="n">
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH120" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AI120" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG120" t="n">
         <v>3</v>
       </c>
-      <c r="AJ120" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AK120" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AL120" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM120" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AN120" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AO120" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP120" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AQ120" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AR120" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AS120" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AT120" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AU120" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AV120" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AW120" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AX120" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AY120" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ120" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA120" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BB120" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="BC120" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BD120" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="BE120" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="BF120" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG120" t="n">
-        <v>4</v>
-      </c>
       <c r="BH120" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BI120" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BJ120" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BK120" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121">
@@ -24916,7 +24916,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>2280812</v>
+        <v>2280813</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -24936,71 +24936,71 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Pumas UNAM</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Querétaro</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N121" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>['25', '62', '68', '90+3']</t>
+          <t>['58']</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>['43']</t>
+          <t>['47', '67']</t>
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R121" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S121" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T121" t="n">
-        <v>2.65</v>
+        <v>3.25</v>
       </c>
       <c r="U121" t="n">
         <v>2.05</v>
       </c>
       <c r="V121" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="W121" t="n">
         <v>1.4</v>
       </c>
       <c r="X121" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Y121" t="n">
         <v>2.75</v>
       </c>
       <c r="Z121" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="AA121" t="n">
         <v>7</v>
@@ -25009,109 +25009,109 @@
         <v>1.08</v>
       </c>
       <c r="AC121" t="n">
-        <v>1.96</v>
+        <v>2.77</v>
       </c>
       <c r="AD121" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AE121" t="n">
-        <v>3.45</v>
+        <v>2.43</v>
       </c>
       <c r="AF121" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AG121" t="n">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="AH121" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AI121" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AJ121" t="n">
-        <v>1.97</v>
+        <v>2.19</v>
       </c>
       <c r="AK121" t="n">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="AL121" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AM121" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AN121" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AO121" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.73</v>
+        <v>1.4</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR121" t="n">
-        <v>0.33</v>
+        <v>1.2</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.65</v>
+        <v>1.55</v>
       </c>
       <c r="AU121" t="n">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="AV121" t="n">
-        <v>1.3</v>
+        <v>1.69</v>
       </c>
       <c r="AW121" t="n">
-        <v>2.98</v>
+        <v>3.14</v>
       </c>
       <c r="AX121" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="AY121" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI121" t="n">
         <v>8</v>
       </c>
-      <c r="AZ121" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="BA121" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="BB121" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="BC121" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="BD121" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BE121" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="BF121" t="n">
-        <v>7</v>
-      </c>
-      <c r="BG121" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH121" t="n">
-        <v>9</v>
-      </c>
-      <c r="BI121" t="n">
-        <v>6</v>
-      </c>
       <c r="BJ121" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BK121" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122">
@@ -27290,7 +27290,7 @@
         <v>1</v>
       </c>
       <c r="AS132" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT132" t="n">
         <v>0.9</v>
@@ -28508,10 +28508,10 @@
         <v>1.5</v>
       </c>
       <c r="AS138" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU138" t="n">
         <v>2.2</v>
@@ -31150,7 +31150,7 @@
         <v>1.75</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU151" t="n">
         <v>1.66</v>
@@ -32571,7 +32571,7 @@
         <v>1.13</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AU158" t="n">
         <v>1.67</v>
@@ -32774,7 +32774,7 @@
         <v>1.13</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="AU159" t="n">
         <v>1.67</v>
@@ -33786,7 +33786,7 @@
         <v>1.21</v>
       </c>
       <c r="AS164" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="AT164" t="n">
         <v>1.13</v>
@@ -34398,7 +34398,7 @@
         <v>1.74</v>
       </c>
       <c r="AT167" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="AU167" t="n">
         <v>1.81</v>
@@ -34801,7 +34801,7 @@
         <v>1.86</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="AT169" t="n">
         <v>1.74</v>
@@ -35816,7 +35816,7 @@
         <v>0.22</v>
       </c>
       <c r="AS174" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT174" t="n">
         <v>0.65</v>
@@ -36022,7 +36022,7 @@
         <v>2.14</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU175" t="n">
         <v>2.04</v>
@@ -37240,7 +37240,7 @@
         <v>1.28</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU181" t="n">
         <v>1.25</v>
@@ -39470,7 +39470,7 @@
         <v>0.8</v>
       </c>
       <c r="AS192" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT192" t="n">
         <v>0.84</v>
@@ -41500,7 +41500,7 @@
         <v>0.8</v>
       </c>
       <c r="AS202" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT202" t="n">
         <v>0.71</v>
@@ -41706,7 +41706,7 @@
         <v>1.18</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU203" t="n">
         <v>1.38</v>
@@ -45154,7 +45154,7 @@
         <v>0.75</v>
       </c>
       <c r="AS220" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT220" t="n">
         <v>0.72</v>
@@ -45216,7 +45216,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="n">
-        <v>4661640</v>
+        <v>4661641</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -45236,65 +45236,65 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>Juárez</t>
+          <t>Tigres UANL</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Santos Laguna</t>
+          <t>Pumas UNAM</t>
         </is>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J221" t="n">
         <v>1</v>
       </c>
       <c r="K221" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L221" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N221" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>['50', '62', '82']</t>
+          <t>['12', '24', '44', '90']</t>
         </is>
       </c>
       <c r="P221" t="inlineStr">
         <is>
-          <t>['21']</t>
+          <t>['16', '65']</t>
         </is>
       </c>
       <c r="Q221" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R221" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S221" t="n">
         <v>15</v>
       </c>
       <c r="T221" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="U221" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V221" t="n">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="W221" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X221" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y221" t="n">
         <v>2.63</v>
@@ -45303,115 +45303,115 @@
         <v>1.44</v>
       </c>
       <c r="AA221" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI221" t="n">
         <v>7</v>
       </c>
-      <c r="AB221" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC221" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AD221" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AE221" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AF221" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG221" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH221" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI221" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AJ221" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AK221" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AL221" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AM221" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AN221" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AO221" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP221" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AQ221" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AR221" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AS221" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AT221" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AU221" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AV221" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AW221" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AX221" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AY221" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ221" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BA221" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="BB221" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="BC221" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="BD221" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="BE221" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="BF221" t="n">
-        <v>9</v>
-      </c>
-      <c r="BG221" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH221" t="n">
-        <v>14</v>
-      </c>
-      <c r="BI221" t="n">
-        <v>9</v>
-      </c>
       <c r="BJ221" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BK221" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="222">
@@ -45419,7 +45419,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="n">
-        <v>4661641</v>
+        <v>4661640</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -45439,65 +45439,65 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>Tigres UANL</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Pumas UNAM</t>
+          <t>Santos Laguna</t>
         </is>
       </c>
       <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="n">
         <v>3</v>
       </c>
-      <c r="J222" t="n">
-        <v>1</v>
-      </c>
-      <c r="K222" t="n">
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="n">
         <v>4</v>
       </c>
-      <c r="L222" t="n">
-        <v>4</v>
-      </c>
-      <c r="M222" t="n">
-        <v>2</v>
-      </c>
-      <c r="N222" t="n">
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>['50', '62', '82']</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>9</v>
+      </c>
+      <c r="R222" t="n">
         <v>6</v>
-      </c>
-      <c r="O222" t="inlineStr">
-        <is>
-          <t>['12', '24', '44', '90']</t>
-        </is>
-      </c>
-      <c r="P222" t="inlineStr">
-        <is>
-          <t>['16', '65']</t>
-        </is>
-      </c>
-      <c r="Q222" t="n">
-        <v>8</v>
-      </c>
-      <c r="R222" t="n">
-        <v>7</v>
       </c>
       <c r="S222" t="n">
         <v>15</v>
       </c>
       <c r="T222" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="U222" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="V222" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="W222" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X222" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y222" t="n">
         <v>2.63</v>
@@ -45506,115 +45506,115 @@
         <v>1.44</v>
       </c>
       <c r="AA222" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB222" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AC222" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AD222" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="AE222" t="n">
-        <v>5.8</v>
+        <v>2.6</v>
       </c>
       <c r="AF222" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AG222" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH222" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AI222" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AJ222" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="AK222" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AL222" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AM222" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AN222" t="n">
-        <v>1.14</v>
+        <v>1.49</v>
       </c>
       <c r="AO222" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AP222" t="n">
-        <v>2.37</v>
+        <v>1.49</v>
       </c>
       <c r="AQ222" t="n">
-        <v>2.17</v>
+        <v>1.27</v>
       </c>
       <c r="AR222" t="n">
-        <v>0.5</v>
+        <v>1.09</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.82</v>
+        <v>1.18</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.53</v>
+        <v>0.9</v>
       </c>
       <c r="AU222" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ222" t="n">
         <v>2.1</v>
       </c>
-      <c r="AV222" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AW222" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="AX222" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AY222" t="n">
+      <c r="BA222" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF222" t="n">
         <v>9</v>
       </c>
-      <c r="AZ222" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="BA222" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="BB222" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="BC222" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD222" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="BE222" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BF222" t="n">
-        <v>8</v>
-      </c>
       <c r="BG222" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BH222" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BI222" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BJ222" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BK222" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="223">
@@ -45766,7 +45766,7 @@
         <v>2.05</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU223" t="n">
         <v>2.03</v>
@@ -48608,7 +48608,7 @@
         <v>1.35</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU237" t="n">
         <v>1.72</v>
@@ -49011,7 +49011,7 @@
         <v>0.83</v>
       </c>
       <c r="AS239" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT239" t="n">
         <v>0.76</v>
@@ -50435,7 +50435,7 @@
         <v>1.82</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU246" t="n">
         <v>2.1</v>
@@ -51509,7 +51509,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="n">
-        <v>4661671</v>
+        <v>4661672</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -51529,182 +51529,182 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Mazatlán</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Tigres UANL</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" t="n">
         <v>1</v>
       </c>
       <c r="K252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L252" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
       <c r="N252" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['45+3', '51', '57']</t>
         </is>
       </c>
       <c r="P252" t="inlineStr">
         <is>
-          <t>['41']</t>
+          <t>['17']</t>
         </is>
       </c>
       <c r="Q252" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R252" t="n">
         <v>1</v>
       </c>
       <c r="S252" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T252" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="U252" t="n">
         <v>2.1</v>
       </c>
       <c r="V252" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W252" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X252" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD252" t="n">
         <v>2.4</v>
       </c>
-      <c r="W252" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="X252" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Y252" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Z252" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AA252" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AB252" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC252" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="AD252" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="AE252" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AF252" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG252" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH252" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI252" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AJ252" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK252" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AL252" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AM252" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AN252" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AO252" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP252" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AQ252" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AR252" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AS252" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AT252" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AU252" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AV252" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AW252" t="n">
+      <c r="BE252" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF252" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG252" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH252" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI252" t="n">
         <v>3</v>
       </c>
-      <c r="AX252" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AY252" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="AZ252" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="BA252" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="BB252" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BC252" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="BD252" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BE252" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="BF252" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG252" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH252" t="n">
-        <v>9</v>
-      </c>
-      <c r="BI252" t="n">
-        <v>2</v>
-      </c>
       <c r="BJ252" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BK252" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253">
@@ -51712,7 +51712,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="n">
-        <v>4661672</v>
+        <v>4661671</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -51732,182 +51732,182 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>Mazatlán</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Tigres UANL</t>
         </is>
       </c>
       <c r="I253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J253" t="n">
         <v>1</v>
       </c>
       <c r="K253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="n">
+        <v>1</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q253" t="n">
         <v>3</v>
       </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="n">
+      <c r="R253" t="n">
+        <v>1</v>
+      </c>
+      <c r="S253" t="n">
         <v>4</v>
       </c>
-      <c r="O253" t="inlineStr">
-        <is>
-          <t>['45+3', '51', '57']</t>
-        </is>
-      </c>
-      <c r="P253" t="inlineStr">
-        <is>
-          <t>['17']</t>
-        </is>
-      </c>
-      <c r="Q253" t="n">
-        <v>8</v>
-      </c>
-      <c r="R253" t="n">
-        <v>1</v>
-      </c>
-      <c r="S253" t="n">
-        <v>9</v>
-      </c>
       <c r="T253" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="U253" t="n">
         <v>2.1</v>
       </c>
       <c r="V253" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="W253" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X253" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AU253" t="n">
         <v>1.43</v>
       </c>
-      <c r="X253" t="n">
+      <c r="AV253" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW253" t="n">
         <v>3</v>
       </c>
-      <c r="Y253" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Z253" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AA253" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB253" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AC253" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AD253" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE253" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF253" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG253" t="n">
+      <c r="AX253" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ253" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BA253" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC253" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF253" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH253" t="n">
         <v>9</v>
       </c>
-      <c r="AH253" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AI253" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AJ253" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AK253" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AL253" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM253" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AN253" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AO253" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AP253" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AQ253" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AR253" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AS253" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AT253" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AU253" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AV253" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AW253" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AX253" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AY253" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AZ253" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="BA253" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="BB253" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="BC253" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="BD253" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BE253" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BF253" t="n">
+      <c r="BI253" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ253" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK253" t="n">
         <v>8</v>
-      </c>
-      <c r="BG253" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH253" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI253" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ253" t="n">
-        <v>13</v>
-      </c>
-      <c r="BK253" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="254">
@@ -52462,7 +52462,7 @@
         <v>1.6</v>
       </c>
       <c r="AS256" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT256" t="n">
         <v>1.8</v>
@@ -53683,7 +53683,7 @@
         <v>1.42</v>
       </c>
       <c r="AT262" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU262" t="n">
         <v>1.6</v>
@@ -55366,7 +55366,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="n">
-        <v>4661691</v>
+        <v>4661690</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -55386,179 +55386,179 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>Tijuana</t>
+          <t>Mazatlán</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
       <c r="J271" t="n">
+        <v>1</v>
+      </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M271" t="n">
+        <v>1</v>
+      </c>
+      <c r="N271" t="n">
+        <v>1</v>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>['45+4']</t>
+        </is>
+      </c>
+      <c r="Q271" t="n">
         <v>3</v>
       </c>
-      <c r="K271" t="n">
+      <c r="R271" t="n">
+        <v>4</v>
+      </c>
+      <c r="S271" t="n">
+        <v>7</v>
+      </c>
+      <c r="T271" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U271" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V271" t="n">
         <v>3</v>
       </c>
-      <c r="L271" t="n">
+      <c r="W271" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X271" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="Y271" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z271" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA271" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB271" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC271" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AD271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE271" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AF271" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG271" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH271" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI271" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AJ271" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK271" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL271" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM271" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AN271" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO271" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP271" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ271" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR271" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS271" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT271" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AU271" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV271" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW271" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX271" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY271" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ271" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA271" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB271" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC271" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD271" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BE271" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BF271" t="n">
         <v>3</v>
       </c>
-      <c r="M271" t="n">
-        <v>3</v>
-      </c>
-      <c r="N271" t="n">
-        <v>6</v>
-      </c>
-      <c r="O271" t="inlineStr">
-        <is>
-          <t>['48', '58', '77']</t>
-        </is>
-      </c>
-      <c r="P271" t="inlineStr">
-        <is>
-          <t>['22', '24', '35']</t>
-        </is>
-      </c>
-      <c r="Q271" t="n">
-        <v>4</v>
-      </c>
-      <c r="R271" t="n">
+      <c r="BG271" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH271" t="n">
         <v>5</v>
       </c>
-      <c r="S271" t="n">
+      <c r="BI271" t="n">
         <v>9</v>
       </c>
-      <c r="T271" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U271" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V271" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="W271" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X271" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y271" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Z271" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA271" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AB271" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AC271" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AD271" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AE271" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AF271" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG271" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH271" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI271" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AJ271" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AK271" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AL271" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AM271" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AN271" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AO271" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP271" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ271" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AR271" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AS271" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AT271" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AU271" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AV271" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AW271" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AX271" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AY271" t="n">
+      <c r="BJ271" t="n">
         <v>8</v>
-      </c>
-      <c r="AZ271" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BA271" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="BB271" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="BC271" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BD271" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BE271" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="BF271" t="n">
-        <v>9</v>
-      </c>
-      <c r="BG271" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH271" t="n">
-        <v>9</v>
-      </c>
-      <c r="BI271" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ271" t="n">
-        <v>18</v>
       </c>
       <c r="BK271" t="n">
         <v>11</v>
@@ -55569,7 +55569,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="n">
-        <v>4661690</v>
+        <v>4661691</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -55589,179 +55589,179 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>Mazatlán</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
       <c r="J272" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K272" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L272" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M272" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N272" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['48', '58', '77']</t>
         </is>
       </c>
       <c r="P272" t="inlineStr">
         <is>
-          <t>['45+4']</t>
+          <t>['22', '24', '35']</t>
         </is>
       </c>
       <c r="Q272" t="n">
+        <v>4</v>
+      </c>
+      <c r="R272" t="n">
+        <v>5</v>
+      </c>
+      <c r="S272" t="n">
+        <v>9</v>
+      </c>
+      <c r="T272" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U272" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V272" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W272" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X272" t="n">
         <v>3</v>
       </c>
-      <c r="R272" t="n">
-        <v>4</v>
-      </c>
-      <c r="S272" t="n">
-        <v>7</v>
-      </c>
-      <c r="T272" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U272" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V272" t="n">
-        <v>3</v>
-      </c>
-      <c r="W272" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X272" t="n">
-        <v>2.83</v>
-      </c>
       <c r="Y272" t="n">
-        <v>2.88</v>
+        <v>2.62</v>
       </c>
       <c r="Z272" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AA272" t="n">
-        <v>7.3</v>
+        <v>5.5</v>
       </c>
       <c r="AB272" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AC272" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="AD272" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AE272" t="n">
-        <v>2.86</v>
+        <v>2.62</v>
       </c>
       <c r="AF272" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AG272" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH272" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP272" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ272" t="n">
         <v>1.29</v>
       </c>
-      <c r="AI272" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AJ272" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AK272" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AL272" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AM272" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AN272" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AO272" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AP272" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AQ272" t="n">
-        <v>0.92</v>
-      </c>
       <c r="AR272" t="n">
-        <v>0.67</v>
+        <v>1.47</v>
       </c>
       <c r="AS272" t="n">
-        <v>0.71</v>
+        <v>1.18</v>
       </c>
       <c r="AT272" t="n">
-        <v>0.72</v>
+        <v>1.38</v>
       </c>
       <c r="AU272" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="AV272" t="n">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="AW272" t="n">
-        <v>2.95</v>
+        <v>3.23</v>
       </c>
       <c r="AX272" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AY272" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AZ272" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="BA272" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="BB272" t="n">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="BC272" t="n">
-        <v>2.08</v>
+        <v>1.7</v>
       </c>
       <c r="BD272" t="n">
-        <v>2.76</v>
+        <v>2.1</v>
       </c>
       <c r="BE272" t="n">
-        <v>3.84</v>
+        <v>2.63</v>
       </c>
       <c r="BF272" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BG272" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BH272" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI272" t="n">
         <v>5</v>
       </c>
-      <c r="BI272" t="n">
-        <v>9</v>
-      </c>
       <c r="BJ272" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="BK272" t="n">
         <v>11</v>
@@ -58146,7 +58146,7 @@
         <v>1.19</v>
       </c>
       <c r="AS284" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT284" t="n">
         <v>1.17</v>
@@ -58555,7 +58555,7 @@
         <v>1.33</v>
       </c>
       <c r="AT286" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU286" t="n">
         <v>1.51</v>
@@ -60379,7 +60379,7 @@
         <v>2</v>
       </c>
       <c r="AS295" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT295" t="n">
         <v>1.86</v>
@@ -62006,7 +62006,7 @@
         <v>1.72</v>
       </c>
       <c r="AT303" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AU303" t="n">
         <v>1.89</v>
@@ -64236,7 +64236,7 @@
         <v>0.53</v>
       </c>
       <c r="AS314" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT314" t="n">
         <v>0.53</v>
@@ -67690,7 +67690,7 @@
         <v>1.16</v>
       </c>
       <c r="AT331" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="AU331" t="n">
         <v>1.37</v>
@@ -67893,7 +67893,7 @@
         <v>1.08</v>
       </c>
       <c r="AT332" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AU332" t="n">
         <v>1.56</v>
@@ -68499,7 +68499,7 @@
         <v>1.11</v>
       </c>
       <c r="AS335" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="AT335" t="n">
         <v>1.16</v>
@@ -68905,7 +68905,7 @@
         <v>1.11</v>
       </c>
       <c r="AS337" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AT337" t="n">
         <v>1.08</v>
@@ -69311,10 +69311,10 @@
         <v>2.05</v>
       </c>
       <c r="AS339" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AT339" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="AU339" t="n">
         <v>1.8</v>
@@ -69568,6 +69568,209 @@
         <v>11</v>
       </c>
       <c r="BK340" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B341" t="n">
+        <v>6140925</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E341" s="2" t="n">
+        <v>45067.95833333334</v>
+      </c>
+      <c r="F341" t="n">
+        <v>0</v>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>América</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="I341" t="n">
+        <v>0</v>
+      </c>
+      <c r="J341" t="n">
+        <v>1</v>
+      </c>
+      <c r="K341" t="n">
+        <v>1</v>
+      </c>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="n">
+        <v>3</v>
+      </c>
+      <c r="N341" t="n">
+        <v>4</v>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P341" t="inlineStr">
+        <is>
+          <t>['19', '76', '88']</t>
+        </is>
+      </c>
+      <c r="Q341" t="n">
+        <v>4</v>
+      </c>
+      <c r="R341" t="n">
+        <v>2</v>
+      </c>
+      <c r="S341" t="n">
+        <v>6</v>
+      </c>
+      <c r="T341" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U341" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V341" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="W341" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X341" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y341" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Z341" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA341" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB341" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC341" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD341" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE341" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF341" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG341" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="AH341" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI341" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ341" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK341" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL341" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM341" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN341" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO341" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP341" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AQ341" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AR341" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS341" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AT341" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AU341" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV341" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW341" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AX341" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY341" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ341" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BA341" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB341" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC341" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD341" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE341" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF341" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG341" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH341" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI341" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ341" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK341" t="n">
         <v>7</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
@@ -69756,10 +69756,10 @@
         <v>2.63</v>
       </c>
       <c r="BF341" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG341" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BH341" t="n">
         <v>8</v>
@@ -69768,10 +69768,10 @@
         <v>4</v>
       </c>
       <c r="BJ341" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BK341" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK341"/>
+  <dimension ref="A1:BK343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT4" t="n">
         <v>0.78</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT5" t="n">
         <v>0.9399999999999999</v>
@@ -2730,7 +2730,7 @@
         <v>0.71</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT15" t="n">
         <v>1.05</v>
@@ -5369,7 +5369,7 @@
         <v>1.89</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU24" t="n">
         <v>1.99</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT27" t="n">
         <v>0.76</v>
@@ -6381,7 +6381,7 @@
         <v>2</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT29" t="n">
         <v>1.17</v>
@@ -7802,7 +7802,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT36" t="n">
         <v>0.84</v>
@@ -8617,7 +8617,7 @@
         <v>1.18</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AU40" t="n">
         <v>0.98</v>
@@ -9226,7 +9226,7 @@
         <v>1.06</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU43" t="n">
         <v>1.56</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT48" t="n">
         <v>0.65</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT50" t="n">
         <v>1.8</v>
@@ -12271,7 +12271,7 @@
         <v>0.71</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU58" t="n">
         <v>1.24</v>
@@ -13286,7 +13286,7 @@
         <v>2.05</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AU63" t="n">
         <v>2.23</v>
@@ -14704,7 +14704,7 @@
         <v>0.25</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT70" t="n">
         <v>0.84</v>
@@ -15110,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT72" t="n">
         <v>0.9</v>
@@ -16940,7 +16940,7 @@
         <v>1.18</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU81" t="n">
         <v>1.2</v>
@@ -17346,7 +17346,7 @@
         <v>2.14</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AU83" t="n">
         <v>2.06</v>
@@ -18764,7 +18764,7 @@
         <v>1.83</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT90" t="n">
         <v>1.86</v>
@@ -19173,7 +19173,7 @@
         <v>1.35</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AU92" t="n">
         <v>1.81</v>
@@ -20388,7 +20388,7 @@
         <v>1.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT98" t="n">
         <v>0.72</v>
@@ -20591,7 +20591,7 @@
         <v>0.67</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT99" t="n">
         <v>0.53</v>
@@ -23030,7 +23030,7 @@
         <v>1.9</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AU111" t="n">
         <v>2.02</v>
@@ -23233,7 +23233,7 @@
         <v>2.09</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU112" t="n">
         <v>1.93</v>
@@ -24245,7 +24245,7 @@
         <v>1.67</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT117" t="n">
         <v>1.38</v>
@@ -25060,7 +25060,7 @@
         <v>1.18</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU121" t="n">
         <v>1.45</v>
@@ -25869,7 +25869,7 @@
         <v>0.71</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT125" t="n">
         <v>1.17</v>
@@ -26275,7 +26275,7 @@
         <v>1.14</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT127" t="n">
         <v>0.84</v>
@@ -27087,10 +27087,10 @@
         <v>1.33</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AU131" t="n">
         <v>1.79</v>
@@ -27902,7 +27902,7 @@
         <v>1.42</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AU135" t="n">
         <v>1.87</v>
@@ -28511,7 +28511,7 @@
         <v>1.9</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU138" t="n">
         <v>2.2</v>
@@ -30541,7 +30541,7 @@
         <v>1.28</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AU148" t="n">
         <v>1.28</v>
@@ -31150,7 +31150,7 @@
         <v>1.75</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU151" t="n">
         <v>1.66</v>
@@ -31959,7 +31959,7 @@
         <v>1.12</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="AT155" t="n">
         <v>0.9399999999999999</v>
@@ -32571,7 +32571,7 @@
         <v>1.13</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="AU158" t="n">
         <v>1.67</v>
@@ -33380,7 +33380,7 @@
         <v>1.88</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="AT162" t="n">
         <v>1.93</v>
@@ -34195,7 +34195,7 @@
         <v>1.93</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="AU166" t="n">
         <v>2.13</v>
@@ -36022,7 +36022,7 @@
         <v>2.14</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU175" t="n">
         <v>2.04</v>
@@ -36428,7 +36428,7 @@
         <v>1.89</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AU177" t="n">
         <v>1.94</v>
@@ -37240,7 +37240,7 @@
         <v>1.28</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU181" t="n">
         <v>1.25</v>
@@ -38455,7 +38455,7 @@
         <v>1.64</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT187" t="n">
         <v>1.8</v>
@@ -39067,7 +39067,7 @@
         <v>1.18</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AU190" t="n">
         <v>1.65</v>
@@ -39673,7 +39673,7 @@
         <v>1.36</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT193" t="n">
         <v>1.38</v>
@@ -41297,7 +41297,7 @@
         <v>1.3</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT201" t="n">
         <v>1.05</v>
@@ -41706,7 +41706,7 @@
         <v>1.18</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU203" t="n">
         <v>1.38</v>
@@ -43330,7 +43330,7 @@
         <v>1.75</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AU211" t="n">
         <v>1.59</v>
@@ -43936,7 +43936,7 @@
         <v>0.27</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT214" t="n">
         <v>0.65</v>
@@ -45357,7 +45357,7 @@
         <v>0.5</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT221" t="n">
         <v>0.53</v>
@@ -45766,7 +45766,7 @@
         <v>2.05</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU223" t="n">
         <v>2.03</v>
@@ -46372,7 +46372,7 @@
         <v>0.92</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT226" t="n">
         <v>0.78</v>
@@ -46778,7 +46778,7 @@
         <v>0.91</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT228" t="n">
         <v>0.76</v>
@@ -48405,7 +48405,7 @@
         <v>1.33</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AU236" t="n">
         <v>1.54</v>
@@ -48608,7 +48608,7 @@
         <v>1.35</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU237" t="n">
         <v>1.72</v>
@@ -50432,10 +50432,10 @@
         <v>1.5</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU246" t="n">
         <v>2.1</v>
@@ -51856,7 +51856,7 @@
         <v>1.18</v>
       </c>
       <c r="AT253" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AU253" t="n">
         <v>1.43</v>
@@ -52868,7 +52868,7 @@
         <v>1</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT258" t="n">
         <v>0.9</v>
@@ -53683,7 +53683,7 @@
         <v>1.42</v>
       </c>
       <c r="AT262" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU262" t="n">
         <v>1.6</v>
@@ -54289,7 +54289,7 @@
         <v>1.8</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT265" t="n">
         <v>2.14</v>
@@ -56116,7 +56116,7 @@
         <v>1.94</v>
       </c>
       <c r="AS274" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT274" t="n">
         <v>1.86</v>
@@ -56319,7 +56319,7 @@
         <v>1.88</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT275" t="n">
         <v>2.14</v>
@@ -58555,7 +58555,7 @@
         <v>1.33</v>
       </c>
       <c r="AT286" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU286" t="n">
         <v>1.51</v>
@@ -58758,7 +58758,7 @@
         <v>2.09</v>
       </c>
       <c r="AT287" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AU287" t="n">
         <v>1.9</v>
@@ -59770,7 +59770,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS292" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT292" t="n">
         <v>0.72</v>
@@ -60176,7 +60176,7 @@
         <v>0.6</v>
       </c>
       <c r="AS294" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT294" t="n">
         <v>0.71</v>
@@ -62006,7 +62006,7 @@
         <v>1.72</v>
       </c>
       <c r="AT303" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU303" t="n">
         <v>1.89</v>
@@ -62615,7 +62615,7 @@
         <v>1.06</v>
       </c>
       <c r="AT306" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AU306" t="n">
         <v>1.61</v>
@@ -63018,7 +63018,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT308" t="n">
         <v>0.84</v>
@@ -64033,7 +64033,7 @@
         <v>1</v>
       </c>
       <c r="AS313" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT313" t="n">
         <v>0.9399999999999999</v>
@@ -65454,7 +65454,7 @@
         <v>0.75</v>
       </c>
       <c r="AS320" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT320" t="n">
         <v>0.71</v>
@@ -66472,7 +66472,7 @@
         <v>1.72</v>
       </c>
       <c r="AT325" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AU325" t="n">
         <v>1.86</v>
@@ -67281,7 +67281,7 @@
         <v>1.16</v>
       </c>
       <c r="AS329" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="AT329" t="n">
         <v>1.13</v>
@@ -67893,7 +67893,7 @@
         <v>1.08</v>
       </c>
       <c r="AT332" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="AU332" t="n">
         <v>1.56</v>
@@ -68093,7 +68093,7 @@
         <v>1.76</v>
       </c>
       <c r="AS333" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="AT333" t="n">
         <v>1.74</v>
@@ -68705,7 +68705,7 @@
         <v>1.74</v>
       </c>
       <c r="AT336" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="AU336" t="n">
         <v>1.86</v>
@@ -68905,7 +68905,7 @@
         <v>1.11</v>
       </c>
       <c r="AS337" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="AT337" t="n">
         <v>1.08</v>
@@ -69108,7 +69108,7 @@
         <v>2.08</v>
       </c>
       <c r="AS338" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="AT338" t="n">
         <v>2</v>
@@ -69311,7 +69311,7 @@
         <v>2.05</v>
       </c>
       <c r="AS339" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="AT339" t="n">
         <v>2.02</v>
@@ -69517,7 +69517,7 @@
         <v>2</v>
       </c>
       <c r="AT340" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="AU340" t="n">
         <v>1.97</v>
@@ -69720,7 +69720,7 @@
         <v>2.02</v>
       </c>
       <c r="AT341" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="AU341" t="n">
         <v>2</v>
@@ -69772,6 +69772,412 @@
       </c>
       <c r="BK341" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B342" t="n">
+        <v>6203710</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E342" s="2" t="n">
+        <v>45071.95833333334</v>
+      </c>
+      <c r="F342" t="n">
+        <v>0</v>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>Tigres UANL</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="I342" t="n">
+        <v>0</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0</v>
+      </c>
+      <c r="L342" t="n">
+        <v>0</v>
+      </c>
+      <c r="M342" t="n">
+        <v>0</v>
+      </c>
+      <c r="N342" t="n">
+        <v>0</v>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P342" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q342" t="n">
+        <v>2</v>
+      </c>
+      <c r="R342" t="n">
+        <v>2</v>
+      </c>
+      <c r="S342" t="n">
+        <v>4</v>
+      </c>
+      <c r="T342" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U342" t="n">
+        <v>2</v>
+      </c>
+      <c r="V342" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="W342" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X342" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y342" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z342" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA342" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB342" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC342" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD342" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE342" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AF342" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG342" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH342" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI342" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ342" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK342" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL342" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM342" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN342" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO342" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP342" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ342" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR342" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS342" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT342" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU342" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AV342" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW342" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AX342" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY342" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ342" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA342" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB342" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC342" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD342" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE342" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BF342" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG342" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH342" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI342" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ342" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK342" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B343" t="n">
+        <v>6203711</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E343" s="2" t="n">
+        <v>45074.94097222222</v>
+      </c>
+      <c r="F343" t="n">
+        <v>0</v>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>Tigres UANL</t>
+        </is>
+      </c>
+      <c r="I343" t="n">
+        <v>2</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0</v>
+      </c>
+      <c r="K343" t="n">
+        <v>2</v>
+      </c>
+      <c r="L343" t="n">
+        <v>2</v>
+      </c>
+      <c r="M343" t="n">
+        <v>3</v>
+      </c>
+      <c r="N343" t="n">
+        <v>5</v>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>['11', '20']</t>
+        </is>
+      </c>
+      <c r="P343" t="inlineStr">
+        <is>
+          <t>['65', '71', '110']</t>
+        </is>
+      </c>
+      <c r="Q343" t="n">
+        <v>5</v>
+      </c>
+      <c r="R343" t="n">
+        <v>12</v>
+      </c>
+      <c r="S343" t="n">
+        <v>17</v>
+      </c>
+      <c r="T343" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U343" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V343" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="W343" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X343" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y343" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z343" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA343" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB343" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC343" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD343" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AE343" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF343" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG343" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH343" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI343" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ343" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK343" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL343" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM343" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN343" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO343" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP343" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ343" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR343" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS343" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT343" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AU343" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV343" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW343" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX343" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AY343" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ343" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA343" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB343" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC343" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD343" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE343" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF343" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG343" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH343" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI343" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ343" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK343" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
